--- a/Data/Quality_LoVo_42_.xlsx
+++ b/Data/Quality_LoVo_42_.xlsx
@@ -436,7 +436,7 @@
         <v>0.8914026894169537</v>
       </c>
       <c r="D2">
-        <v>0.2193532886467731</v>
+        <v>0.3491773823781715</v>
       </c>
       <c r="E2">
         <v>0.2936818021667384</v>
@@ -459,7 +459,7 @@
         <v>0.8547787042472833</v>
       </c>
       <c r="D3">
-        <v>-0.04947813974214355</v>
+        <v>0.473705292258867</v>
       </c>
       <c r="E3">
         <v>0.3396117089810288</v>
@@ -482,7 +482,7 @@
         <v>0.8534665786413537</v>
       </c>
       <c r="D4">
-        <v>-0.3133848174495262</v>
+        <v>0.435703273014761</v>
       </c>
       <c r="E4">
         <v>0.3411425146759463</v>
@@ -505,7 +505,7 @@
         <v>0.8143163443764379</v>
       </c>
       <c r="D5">
-        <v>0.04064484967469983</v>
+        <v>0.07962256452588812</v>
       </c>
       <c r="E5">
         <v>0.3840204395064172</v>
@@ -528,7 +528,7 @@
         <v>0.7611900922579309</v>
       </c>
       <c r="D6">
-        <v>-0.1928587782803228</v>
+        <v>0.2505708604660024</v>
       </c>
       <c r="E6">
         <v>0.4355055279129776</v>
@@ -551,7 +551,7 @@
         <v>0.7034388136415646</v>
       </c>
       <c r="D7">
-        <v>0.05639842448100096</v>
+        <v>0.5550310645899236</v>
       </c>
       <c r="E7">
         <v>0.4853160527719992</v>
@@ -574,7 +574,7 @@
         <v>0.6729209285008834</v>
       </c>
       <c r="D8">
-        <v>-0.06593725083837243</v>
+        <v>0.5535391100182689</v>
       </c>
       <c r="E8">
         <v>0.5096756431431357</v>
@@ -597,7 +597,7 @@
         <v>0.6535976753756954</v>
       </c>
       <c r="D9">
-        <v>-0.2392940088952338</v>
+        <v>0.554679568203994</v>
       </c>
       <c r="E9">
         <v>0.5245149852769556</v>
@@ -620,7 +620,7 @@
         <v>0.6535969722964283</v>
       </c>
       <c r="D10">
-        <v>-0.2425744000079355</v>
+        <v>0.5544610978341702</v>
       </c>
       <c r="E10">
         <v>0.524515517570474</v>
@@ -643,7 +643,7 @@
         <v>0.6234263879369064</v>
       </c>
       <c r="D11">
-        <v>-1.005490870575902</v>
+        <v>0.3954898750844108</v>
       </c>
       <c r="E11">
         <v>0.5468805068522961</v>
@@ -666,7 +666,7 @@
         <v>0.6231426472257986</v>
       </c>
       <c r="D12">
-        <v>-0.9452986197962117</v>
+        <v>0.4016480007580305</v>
       </c>
       <c r="E12">
         <v>0.5470864998376519</v>
@@ -689,7 +689,7 @@
         <v>0.6231426472257986</v>
       </c>
       <c r="D13">
-        <v>-0.9452986197962117</v>
+        <v>0.4016480007580305</v>
       </c>
       <c r="E13">
         <v>0.5470864998376519</v>
@@ -712,7 +712,7 @@
         <v>0.6078649775805786</v>
       </c>
       <c r="D14">
-        <v>-1.017159492361498</v>
+        <v>0.3941669622472247</v>
       </c>
       <c r="E14">
         <v>0.5580656830431541</v>
@@ -735,7 +735,7 @@
         <v>0.5860992043292037</v>
       </c>
       <c r="D15">
-        <v>-0.9878048011861407</v>
+        <v>0.3566434160798968</v>
       </c>
       <c r="E15">
         <v>0.5733444754352057</v>
@@ -758,7 +758,7 @@
         <v>0.5188022185809387</v>
       </c>
       <c r="D16">
-        <v>-0.6596496151169409</v>
+        <v>0.3530250422979435</v>
       </c>
       <c r="E16">
         <v>0.6182004397714255</v>
@@ -781,7 +781,7 @@
         <v>0.5152397569390641</v>
       </c>
       <c r="D17">
-        <v>-0.7333866381673995</v>
+        <v>0.3242598993930366</v>
       </c>
       <c r="E17">
         <v>0.6204845881461765</v>
@@ -804,7 +804,7 @@
         <v>0.5124549074751447</v>
       </c>
       <c r="D18">
-        <v>-0.6694968137662654</v>
+        <v>0.3426253235209951</v>
       </c>
       <c r="E18">
         <v>0.6222643149396536</v>
@@ -827,7 +827,7 @@
         <v>0.5124549074751447</v>
       </c>
       <c r="D19">
-        <v>-0.6694968137662654</v>
+        <v>0.3426253235209951</v>
       </c>
       <c r="E19">
         <v>0.6222643149396536</v>
@@ -850,7 +850,7 @@
         <v>0.4816199035824322</v>
       </c>
       <c r="D20">
-        <v>-0.7862656678349829</v>
+        <v>0.4003919757159751</v>
       </c>
       <c r="E20">
         <v>0.6416403404281243</v>
@@ -873,7 +873,7 @@
         <v>0.4816199035824322</v>
       </c>
       <c r="D21">
-        <v>-0.7862656678349829</v>
+        <v>0.4003919757159751</v>
       </c>
       <c r="E21">
         <v>0.6416403404281243</v>
@@ -896,7 +896,7 @@
         <v>0.4677837045039989</v>
       </c>
       <c r="D22">
-        <v>-1.082148664573588</v>
+        <v>0.3489532125201738</v>
       </c>
       <c r="E22">
         <v>0.6501470336232194</v>
@@ -919,7 +919,7 @@
         <v>0.4677837045039989</v>
       </c>
       <c r="D23">
-        <v>-1.082148664573588</v>
+        <v>0.3489532125201738</v>
       </c>
       <c r="E23">
         <v>0.6501470336232194</v>
@@ -978,7 +978,7 @@
         <v>0.6727209182125735</v>
       </c>
       <c r="D2">
-        <v>-0.2193310325748716</v>
+        <v>0.2961185939941612</v>
       </c>
       <c r="E2">
         <v>0.5098314537738482</v>
@@ -1004,7 +1004,7 @@
         <v>0.7928744548568586</v>
       </c>
       <c r="D3">
-        <v>-0.1080433139103711</v>
+        <v>0.2564171801076208</v>
       </c>
       <c r="E3">
         <v>0.4055872870145832</v>
@@ -1030,7 +1030,7 @@
         <v>0.8448182270129014</v>
       </c>
       <c r="D4">
-        <v>-0.413172791513744</v>
+        <v>0.02533290703882185</v>
       </c>
       <c r="E4">
         <v>0.3510652605459803</v>
@@ -1056,7 +1056,7 @@
         <v>0.9102672677435637</v>
       </c>
       <c r="D5">
-        <v>-0.2153999275671292</v>
+        <v>-0.04752415899923812</v>
       </c>
       <c r="E5">
         <v>0.2669580045195364</v>
@@ -1082,7 +1082,7 @@
         <v>0.9395518736166583</v>
       </c>
       <c r="D6">
-        <v>-0.3223202091893023</v>
+        <v>-0.009967165200147843</v>
       </c>
       <c r="E6">
         <v>0.2191083475910846</v>
@@ -1108,7 +1108,7 @@
         <v>0.9648046353879353</v>
       </c>
       <c r="D7">
-        <v>-0.06376236274243596</v>
+        <v>0.1055327443017909</v>
       </c>
       <c r="E7">
         <v>0.1671899761626528</v>
@@ -1134,7 +1134,7 @@
         <v>0.9814994053689451</v>
       </c>
       <c r="D8">
-        <v>-0.7985608265284962</v>
+        <v>-0.086228151898744</v>
       </c>
       <c r="E8">
         <v>0.1212161106769747</v>
@@ -1160,7 +1160,7 @@
         <v>0.9904749603102943</v>
       </c>
       <c r="D9">
-        <v>-0.8123250625445353</v>
+        <v>-0.1047883667347596</v>
       </c>
       <c r="E9">
         <v>0.08697629395397925</v>
@@ -1186,7 +1186,7 @@
         <v>0.9934983834109294</v>
       </c>
       <c r="D10">
-        <v>-0.8376375524308222</v>
+        <v>-0.1100330431421497</v>
       </c>
       <c r="E10">
         <v>0.0718585052266016</v>
@@ -1212,7 +1212,7 @@
         <v>0.9959390363877179</v>
       </c>
       <c r="D11">
-        <v>-0.8669567136768002</v>
+        <v>-0.1002335674342756</v>
       </c>
       <c r="E11">
         <v>0.05679133143362505</v>
@@ -1238,7 +1238,7 @@
         <v>0.9970749419899145</v>
       </c>
       <c r="D12">
-        <v>-0.8535104716332953</v>
+        <v>-0.09940252308310527</v>
       </c>
       <c r="E12">
         <v>0.04819863546413072</v>
@@ -1264,7 +1264,7 @@
         <v>0.9976677006683891</v>
       </c>
       <c r="D13">
-        <v>-0.7848909514875428</v>
+        <v>-0.07272087218665479</v>
       </c>
       <c r="E13">
         <v>0.04303874960800471</v>
@@ -1290,7 +1290,7 @@
         <v>0.997936756565343</v>
       </c>
       <c r="D14">
-        <v>-0.8851347958045044</v>
+        <v>-0.1322877900438215</v>
       </c>
       <c r="E14">
         <v>0.04048020819036396</v>
@@ -1316,7 +1316,7 @@
         <v>0.9980069366724321</v>
       </c>
       <c r="D15">
-        <v>-0.7732370831861521</v>
+        <v>-0.05026351653942451</v>
       </c>
       <c r="E15">
         <v>0.03978579591950357</v>
@@ -1342,7 +1342,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D16">
-        <v>-0.8601930242130382</v>
+        <v>-0.09931745383214596</v>
       </c>
       <c r="E16">
         <v>0.03976474404886412</v>
@@ -1368,7 +1368,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D17">
-        <v>-0.8601930242130382</v>
+        <v>-0.09931745383214596</v>
       </c>
       <c r="E17">
         <v>0.03976474404886412</v>
@@ -1394,7 +1394,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D18">
-        <v>-0.8601930242130382</v>
+        <v>-0.09931745383214596</v>
       </c>
       <c r="E18">
         <v>0.03976474404886412</v>
@@ -1420,7 +1420,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D19">
-        <v>-0.8601930242130382</v>
+        <v>-0.09931745383214596</v>
       </c>
       <c r="E19">
         <v>0.03976474404886412</v>
@@ -1446,7 +1446,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D20">
-        <v>-0.8601930242130382</v>
+        <v>-0.09931745383214596</v>
       </c>
       <c r="E20">
         <v>0.03976474404886412</v>
@@ -1472,7 +1472,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D21">
-        <v>-0.8601930242130382</v>
+        <v>-0.09931745383214596</v>
       </c>
       <c r="E21">
         <v>0.03976474404886412</v>
@@ -1498,7 +1498,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D22">
-        <v>-0.8601930242130382</v>
+        <v>-0.09931745383214596</v>
       </c>
       <c r="E22">
         <v>0.03976474404886412</v>
@@ -1524,7 +1524,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D23">
-        <v>-0.8601930242130382</v>
+        <v>-0.09931745383214596</v>
       </c>
       <c r="E23">
         <v>0.03976474404886412</v>
@@ -1550,7 +1550,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D24">
-        <v>-0.8601930242130382</v>
+        <v>-0.09931745383214596</v>
       </c>
       <c r="E24">
         <v>0.03976474404886412</v>
@@ -1576,7 +1576,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D25">
-        <v>-0.8601930242130382</v>
+        <v>-0.09931745383214596</v>
       </c>
       <c r="E25">
         <v>0.03976474404886412</v>
@@ -1602,7 +1602,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D26">
-        <v>-0.8601930242130382</v>
+        <v>-0.09931745383214596</v>
       </c>
       <c r="E26">
         <v>0.03976474404886412</v>
@@ -1628,7 +1628,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D27">
-        <v>-0.8601930242130382</v>
+        <v>-0.09931745383214596</v>
       </c>
       <c r="E27">
         <v>0.03976474404886412</v>
@@ -1654,7 +1654,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D28">
-        <v>-0.8601930242130382</v>
+        <v>-0.09931745383214596</v>
       </c>
       <c r="E28">
         <v>0.03976474404886412</v>
@@ -1680,7 +1680,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D29">
-        <v>-0.8601930242130382</v>
+        <v>-0.09931745383214596</v>
       </c>
       <c r="E29">
         <v>0.03976474404886412</v>
@@ -1706,7 +1706,7 @@
         <v>0.6727209182125736</v>
       </c>
       <c r="D30">
-        <v>-0.2193310325748732</v>
+        <v>0.2961185939941612</v>
       </c>
       <c r="E30">
         <v>0.5098314537738482</v>
@@ -1732,7 +1732,7 @@
         <v>0.7928744548568586</v>
       </c>
       <c r="D31">
-        <v>0.01049886213756346</v>
+        <v>0.2325724946917552</v>
       </c>
       <c r="E31">
         <v>0.4055872870145833</v>
@@ -1758,7 +1758,7 @@
         <v>0.8448182270129014</v>
       </c>
       <c r="D32">
-        <v>-0.6694827442000126</v>
+        <v>-0.02089322627791668</v>
       </c>
       <c r="E32">
         <v>0.3510652605459803</v>
@@ -1784,7 +1784,7 @@
         <v>0.9102672677435637</v>
       </c>
       <c r="D33">
-        <v>-0.133547080604062</v>
+        <v>-0.01513314408850253</v>
       </c>
       <c r="E33">
         <v>0.2669580045195365</v>
@@ -1810,7 +1810,7 @@
         <v>0.9395518736166583</v>
       </c>
       <c r="D34">
-        <v>-0.2168686662997441</v>
+        <v>0.0222609908119048</v>
       </c>
       <c r="E34">
         <v>0.2191083475910846</v>
@@ -1836,7 +1836,7 @@
         <v>0.9648046353879354</v>
       </c>
       <c r="D35">
-        <v>0.01498191581324559</v>
+        <v>0.1769406360223913</v>
       </c>
       <c r="E35">
         <v>0.1671899761626528</v>
@@ -1862,7 +1862,7 @@
         <v>0.9814994053689452</v>
       </c>
       <c r="D36">
-        <v>-0.1621781725420577</v>
+        <v>-0.01750832170444694</v>
       </c>
       <c r="E36">
         <v>0.1212161106769747</v>
@@ -1888,7 +1888,7 @@
         <v>0.9904749603102943</v>
       </c>
       <c r="D37">
-        <v>-0.174255629015567</v>
+        <v>-0.03611378027528134</v>
       </c>
       <c r="E37">
         <v>0.08697629395397924</v>
@@ -1914,7 +1914,7 @@
         <v>0.9934983834109294</v>
       </c>
       <c r="D38">
-        <v>-0.1407890700226682</v>
+        <v>-0.01102037062300787</v>
       </c>
       <c r="E38">
         <v>0.0718585052266016</v>
@@ -1940,7 +1940,7 @@
         <v>0.9959390363877179</v>
       </c>
       <c r="D39">
-        <v>-0.1095785144161676</v>
+        <v>0.01578373640982522</v>
       </c>
       <c r="E39">
         <v>0.05679133143362505</v>
@@ -1966,7 +1966,7 @@
         <v>0.9970749419899145</v>
       </c>
       <c r="D40">
-        <v>-0.1734783875563692</v>
+        <v>-0.04092208233382144</v>
       </c>
       <c r="E40">
         <v>0.04819863546413072</v>
@@ -1992,7 +1992,7 @@
         <v>0.9976677006683891</v>
       </c>
       <c r="D41">
-        <v>-0.1758636981148147</v>
+        <v>-0.0387054636791051</v>
       </c>
       <c r="E41">
         <v>0.04303874960800471</v>
@@ -2018,7 +2018,7 @@
         <v>0.997936756565343</v>
       </c>
       <c r="D42">
-        <v>-0.1441422148333553</v>
+        <v>-0.008549368364243914</v>
       </c>
       <c r="E42">
         <v>0.04048020819036396</v>
@@ -2044,7 +2044,7 @@
         <v>0.9980069366724321</v>
       </c>
       <c r="D43">
-        <v>-0.1805872941448599</v>
+        <v>-0.0350225339580581</v>
       </c>
       <c r="E43">
         <v>0.03978579591950357</v>
@@ -2070,7 +2070,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D44">
-        <v>-0.1665436307797672</v>
+        <v>-0.03496535654392829</v>
       </c>
       <c r="E44">
         <v>0.03976474404886412</v>
@@ -2096,7 +2096,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D45">
-        <v>-0.1665436307797672</v>
+        <v>-0.03496535654392829</v>
       </c>
       <c r="E45">
         <v>0.03976474404886412</v>
@@ -2122,7 +2122,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D46">
-        <v>-0.1665436307797672</v>
+        <v>-0.03496535654392829</v>
       </c>
       <c r="E46">
         <v>0.03976474404886412</v>
@@ -2148,7 +2148,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D47">
-        <v>-0.1665436307797672</v>
+        <v>-0.03496535654392829</v>
       </c>
       <c r="E47">
         <v>0.03976474404886412</v>
@@ -2174,7 +2174,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D48">
-        <v>-0.1665436307797672</v>
+        <v>-0.03496535654392829</v>
       </c>
       <c r="E48">
         <v>0.03976474404886412</v>
@@ -2200,7 +2200,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D49">
-        <v>-0.1665436307797672</v>
+        <v>-0.03496535654392829</v>
       </c>
       <c r="E49">
         <v>0.03976474404886412</v>
@@ -2226,7 +2226,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D50">
-        <v>-0.1665436307797672</v>
+        <v>-0.03496535654392829</v>
       </c>
       <c r="E50">
         <v>0.03976474404886412</v>
@@ -2252,7 +2252,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D51">
-        <v>-0.1665436307797672</v>
+        <v>-0.03496535654392829</v>
       </c>
       <c r="E51">
         <v>0.03976474404886412</v>
@@ -2278,7 +2278,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D52">
-        <v>-0.1665436307797672</v>
+        <v>-0.03496535654392829</v>
       </c>
       <c r="E52">
         <v>0.03976474404886412</v>
@@ -2304,7 +2304,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D53">
-        <v>-0.1665436307797672</v>
+        <v>-0.03496535654392829</v>
       </c>
       <c r="E53">
         <v>0.03976474404886412</v>
@@ -2330,7 +2330,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D54">
-        <v>-0.1665436307797672</v>
+        <v>-0.03496535654392829</v>
       </c>
       <c r="E54">
         <v>0.03976474404886412</v>
@@ -2356,7 +2356,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D55">
-        <v>-0.1665436307797672</v>
+        <v>-0.03496535654392829</v>
       </c>
       <c r="E55">
         <v>0.03976474404886412</v>
@@ -2382,7 +2382,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D56">
-        <v>-0.1665436307797672</v>
+        <v>-0.03496535654392829</v>
       </c>
       <c r="E56">
         <v>0.03976474404886412</v>
@@ -2408,7 +2408,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D57">
-        <v>-0.1665436307797672</v>
+        <v>-0.03496535654392829</v>
       </c>
       <c r="E57">
         <v>0.03976474404886412</v>
@@ -2434,7 +2434,7 @@
         <v>0.6727209182125735</v>
       </c>
       <c r="D58">
-        <v>-0.2193310325748765</v>
+        <v>0.2961185939941604</v>
       </c>
       <c r="E58">
         <v>0.5098314537738482</v>
@@ -2460,7 +2460,7 @@
         <v>0.7928744548568586</v>
       </c>
       <c r="D59">
-        <v>0.01049886213756357</v>
+        <v>0.2325724946917551</v>
       </c>
       <c r="E59">
         <v>0.4055872870145832</v>
@@ -2486,7 +2486,7 @@
         <v>0.8429883274543917</v>
       </c>
       <c r="D60">
-        <v>0.1427784070180194</v>
+        <v>0.2740176110281438</v>
       </c>
       <c r="E60">
         <v>0.353129070632798</v>
@@ -2512,7 +2512,7 @@
         <v>0.8963742103162806</v>
       </c>
       <c r="D61">
-        <v>0.2546100967157691</v>
+        <v>0.28315825296771</v>
       </c>
       <c r="E61">
         <v>0.286880763514145</v>
@@ -2538,7 +2538,7 @@
         <v>0.9270152044144642</v>
       </c>
       <c r="D62">
-        <v>0.1771907919983101</v>
+        <v>0.3179037588021</v>
       </c>
       <c r="E62">
         <v>0.2407596478907867</v>
@@ -2564,7 +2564,7 @@
         <v>0.948859283404248</v>
       </c>
       <c r="D63">
-        <v>0.3486116230689706</v>
+        <v>0.2574349429088484</v>
       </c>
       <c r="E63">
         <v>0.2015351978692074</v>
@@ -2590,7 +2590,7 @@
         <v>0.9671784905336741</v>
       </c>
       <c r="D64">
-        <v>0.309964475297981</v>
+        <v>0.2978507046163977</v>
       </c>
       <c r="E64">
         <v>0.1614532444541041</v>
@@ -2616,7 +2616,7 @@
         <v>0.9801409587905185</v>
       </c>
       <c r="D65">
-        <v>0.3233154283481339</v>
+        <v>0.2980578784896731</v>
       </c>
       <c r="E65">
         <v>0.1255875649901405</v>
@@ -2642,7 +2642,7 @@
         <v>0.9906808464264603</v>
       </c>
       <c r="D66">
-        <v>0.3634183190300465</v>
+        <v>0.3259657399053939</v>
       </c>
       <c r="E66">
         <v>0.08603115150153637</v>
@@ -2668,7 +2668,7 @@
         <v>0.9949625228399419</v>
       </c>
       <c r="D67">
-        <v>0.3573138238781428</v>
+        <v>0.3243550212554853</v>
       </c>
       <c r="E67">
         <v>0.06325196858045934</v>
@@ -2694,7 +2694,7 @@
         <v>0.996882473281425</v>
       </c>
       <c r="D68">
-        <v>0.3620672152020663</v>
+        <v>0.3309953053461555</v>
       </c>
       <c r="E68">
         <v>0.04975910882523309</v>
@@ -2720,7 +2720,7 @@
         <v>0.9978465426587038</v>
       </c>
       <c r="D69">
-        <v>0.3629043969718788</v>
+        <v>0.3201208497542143</v>
       </c>
       <c r="E69">
         <v>0.04135572493032318</v>
@@ -2746,7 +2746,7 @@
         <v>0.9979900669470227</v>
       </c>
       <c r="D70">
-        <v>0.3930822254783221</v>
+        <v>0.3403779162516526</v>
       </c>
       <c r="E70">
         <v>0.03995381897678169</v>
@@ -2772,7 +2772,7 @@
         <v>0.9980061612480351</v>
       </c>
       <c r="D71">
-        <v>0.3830571206785893</v>
+        <v>0.3412684343031881</v>
       </c>
       <c r="E71">
         <v>0.0397935347294672</v>
@@ -2798,7 +2798,7 @@
         <v>0.9980088007314788</v>
       </c>
       <c r="D72">
-        <v>0.3773173641668781</v>
+        <v>0.3360974295093889</v>
       </c>
       <c r="E72">
         <v>0.03976718626957779</v>
@@ -2824,7 +2824,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D73">
-        <v>0.3759767263338664</v>
+        <v>0.3361208175743052</v>
       </c>
       <c r="E73">
         <v>0.03976474404886412</v>
@@ -2850,7 +2850,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D74">
-        <v>0.3759767263338664</v>
+        <v>0.3361208175743052</v>
       </c>
       <c r="E74">
         <v>0.03976474404886412</v>
@@ -2876,7 +2876,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D75">
-        <v>0.3759767263338664</v>
+        <v>0.3361208175743052</v>
       </c>
       <c r="E75">
         <v>0.03976474404886412</v>
@@ -2902,7 +2902,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D76">
-        <v>0.3759767263338664</v>
+        <v>0.3361208175743052</v>
       </c>
       <c r="E76">
         <v>0.03976474404886412</v>
@@ -2928,7 +2928,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D77">
-        <v>0.3759767263338664</v>
+        <v>0.3361208175743052</v>
       </c>
       <c r="E77">
         <v>0.03976474404886412</v>
@@ -2954,7 +2954,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D78">
-        <v>0.3759767263338664</v>
+        <v>0.3361208175743052</v>
       </c>
       <c r="E78">
         <v>0.03976474404886412</v>
@@ -2980,7 +2980,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D79">
-        <v>0.3759767263338664</v>
+        <v>0.3361208175743052</v>
       </c>
       <c r="E79">
         <v>0.03976474404886412</v>
@@ -3006,7 +3006,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D80">
-        <v>0.3759767263338664</v>
+        <v>0.3361208175743052</v>
       </c>
       <c r="E80">
         <v>0.03976474404886412</v>
@@ -3032,7 +3032,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D81">
-        <v>0.3759767263338664</v>
+        <v>0.3361208175743052</v>
       </c>
       <c r="E81">
         <v>0.03976474404886412</v>
@@ -3058,7 +3058,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D82">
-        <v>0.3759767263338664</v>
+        <v>0.3361208175743052</v>
       </c>
       <c r="E82">
         <v>0.03976474404886412</v>
@@ -3084,7 +3084,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D83">
-        <v>0.3759767263338664</v>
+        <v>0.3361208175743052</v>
       </c>
       <c r="E83">
         <v>0.03976474404886412</v>
@@ -3110,7 +3110,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D84">
-        <v>0.3759767263338664</v>
+        <v>0.3361208175743052</v>
       </c>
       <c r="E84">
         <v>0.03976474404886412</v>
@@ -3136,7 +3136,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D85">
-        <v>0.3759767263338664</v>
+        <v>0.3361208175743052</v>
       </c>
       <c r="E85">
         <v>0.03976474404886412</v>
@@ -3162,7 +3162,7 @@
         <v>0.6727209182125736</v>
       </c>
       <c r="D86">
-        <v>-0.2193310325748732</v>
+        <v>0.296118593994161</v>
       </c>
       <c r="E86">
         <v>0.5098314537738482</v>
@@ -3188,7 +3188,7 @@
         <v>0.7928744548568586</v>
       </c>
       <c r="D87">
-        <v>0.01049886213756523</v>
+        <v>0.2325724946917553</v>
       </c>
       <c r="E87">
         <v>0.4055872870145832</v>
@@ -3214,7 +3214,7 @@
         <v>0.8429883274543917</v>
       </c>
       <c r="D88">
-        <v>0.1427784070180189</v>
+        <v>0.2740176110281438</v>
       </c>
       <c r="E88">
         <v>0.353129070632798</v>
@@ -3240,7 +3240,7 @@
         <v>0.8963742103162806</v>
       </c>
       <c r="D89">
-        <v>0.3365176698527891</v>
+        <v>0.3121995254847534</v>
       </c>
       <c r="E89">
         <v>0.286880763514145</v>
@@ -3266,7 +3266,7 @@
         <v>0.9270152044144642</v>
       </c>
       <c r="D90">
-        <v>0.3756386300487666</v>
+        <v>0.3609486921172183</v>
       </c>
       <c r="E90">
         <v>0.2407596478907868</v>
@@ -3292,7 +3292,7 @@
         <v>0.948859283404248</v>
       </c>
       <c r="D91">
-        <v>0.2570614356989614</v>
+        <v>0.3507018703837472</v>
       </c>
       <c r="E91">
         <v>0.2015351978692074</v>
@@ -3318,7 +3318,7 @@
         <v>0.9671784905336741</v>
       </c>
       <c r="D92">
-        <v>0.377300313371398</v>
+        <v>0.3358164964911071</v>
       </c>
       <c r="E92">
         <v>0.1614532444541041</v>
@@ -3344,7 +3344,7 @@
         <v>0.9801409587905185</v>
       </c>
       <c r="D93">
-        <v>0.397429155517158</v>
+        <v>0.349117370469605</v>
       </c>
       <c r="E93">
         <v>0.1255875649901405</v>
@@ -3370,7 +3370,7 @@
         <v>0.9906808464264603</v>
       </c>
       <c r="D94">
-        <v>0.4356659462014523</v>
+        <v>0.3812356823551096</v>
       </c>
       <c r="E94">
         <v>0.08603115150153637</v>
@@ -3396,7 +3396,7 @@
         <v>0.9949625228399419</v>
       </c>
       <c r="D95">
-        <v>0.4286842383282253</v>
+        <v>0.3687341885559287</v>
       </c>
       <c r="E95">
         <v>0.06325196858045934</v>
@@ -3422,7 +3422,7 @@
         <v>0.996882473281425</v>
       </c>
       <c r="D96">
-        <v>0.4312683176449177</v>
+        <v>0.380832418293397</v>
       </c>
       <c r="E96">
         <v>0.04975910882523309</v>
@@ -3448,7 +3448,7 @@
         <v>0.9978465426587038</v>
       </c>
       <c r="D97">
-        <v>0.4511738490955318</v>
+        <v>0.3896317380502489</v>
       </c>
       <c r="E97">
         <v>0.04135572493032318</v>
@@ -3474,7 +3474,7 @@
         <v>0.9979900669470227</v>
       </c>
       <c r="D98">
-        <v>0.4497565334401141</v>
+        <v>0.382621959880093</v>
       </c>
       <c r="E98">
         <v>0.03995381897678169</v>
@@ -3500,7 +3500,7 @@
         <v>0.9980061612480351</v>
       </c>
       <c r="D99">
-        <v>0.4392062662531931</v>
+        <v>0.3681158270907933</v>
       </c>
       <c r="E99">
         <v>0.0397935347294672</v>
@@ -3526,7 +3526,7 @@
         <v>0.9980088007314788</v>
       </c>
       <c r="D100">
-        <v>0.4418347813604654</v>
+        <v>0.3785364253098847</v>
       </c>
       <c r="E100">
         <v>0.03976718626957779</v>
@@ -3552,7 +3552,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D101">
-        <v>0.4270074806970415</v>
+        <v>0.3694084396031012</v>
       </c>
       <c r="E101">
         <v>0.03976474404886412</v>
@@ -3578,7 +3578,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D102">
-        <v>0.4270074806970415</v>
+        <v>0.3694084396031012</v>
       </c>
       <c r="E102">
         <v>0.03976474404886412</v>
@@ -3604,7 +3604,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D103">
-        <v>0.4270074806970415</v>
+        <v>0.3694084396031012</v>
       </c>
       <c r="E103">
         <v>0.03976474404886412</v>
@@ -3630,7 +3630,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D104">
-        <v>0.4270074806970415</v>
+        <v>0.3694084396031012</v>
       </c>
       <c r="E104">
         <v>0.03976474404886412</v>
@@ -3656,7 +3656,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D105">
-        <v>0.4270074806970415</v>
+        <v>0.3694084396031012</v>
       </c>
       <c r="E105">
         <v>0.03976474404886412</v>
@@ -3682,7 +3682,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D106">
-        <v>0.4270074806970415</v>
+        <v>0.3694084396031012</v>
       </c>
       <c r="E106">
         <v>0.03976474404886412</v>
@@ -3708,7 +3708,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D107">
-        <v>0.4270074806970415</v>
+        <v>0.3694084396031012</v>
       </c>
       <c r="E107">
         <v>0.03976474404886412</v>
@@ -3734,7 +3734,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D108">
-        <v>0.4270074806970415</v>
+        <v>0.3694084396031012</v>
       </c>
       <c r="E108">
         <v>0.03976474404886412</v>
@@ -3760,7 +3760,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D109">
-        <v>0.4270074806970415</v>
+        <v>0.3694084396031012</v>
       </c>
       <c r="E109">
         <v>0.03976474404886412</v>
@@ -3786,7 +3786,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D110">
-        <v>0.4270074806970415</v>
+        <v>0.3694084396031012</v>
       </c>
       <c r="E110">
         <v>0.03976474404886412</v>
@@ -3812,7 +3812,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D111">
-        <v>0.4270074806970415</v>
+        <v>0.3694084396031012</v>
       </c>
       <c r="E111">
         <v>0.03976474404886412</v>
@@ -3838,7 +3838,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D112">
-        <v>0.4270074806970415</v>
+        <v>0.3694084396031012</v>
       </c>
       <c r="E112">
         <v>0.03976474404886412</v>
@@ -3864,7 +3864,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D113">
-        <v>0.4270074806970415</v>
+        <v>0.3694084396031012</v>
       </c>
       <c r="E113">
         <v>0.03976474404886412</v>
@@ -3890,7 +3890,7 @@
         <v>0.6727209182125735</v>
       </c>
       <c r="D114">
-        <v>-0.2193310325748714</v>
+        <v>0.2961185939941615</v>
       </c>
       <c r="E114">
         <v>0.5098314537738482</v>
@@ -3916,7 +3916,7 @@
         <v>0.7928744548568586</v>
       </c>
       <c r="D115">
-        <v>0.01049886213757012</v>
+        <v>0.2325724946917566</v>
       </c>
       <c r="E115">
         <v>0.4055872870145832</v>
@@ -3942,7 +3942,7 @@
         <v>0.8400530493831775</v>
       </c>
       <c r="D116">
-        <v>0.01552578084297707</v>
+        <v>0.05750903449596656</v>
       </c>
       <c r="E116">
         <v>0.356414598262799</v>
@@ -3968,7 +3968,7 @@
         <v>0.8680687145708481</v>
       </c>
       <c r="D117">
-        <v>0.02120334808902957</v>
+        <v>-0.04372129893028642</v>
       </c>
       <c r="E117">
         <v>0.3236990303291896</v>
@@ -3994,7 +3994,7 @@
         <v>0.8963979705456481</v>
       </c>
       <c r="D118">
-        <v>-0.01949822087618136</v>
+        <v>0.007591526159714923</v>
       </c>
       <c r="E118">
         <v>0.2868478723606199</v>
@@ -4020,7 +4020,7 @@
         <v>0.9248586864103395</v>
       </c>
       <c r="D119">
-        <v>-0.07856505138134229</v>
+        <v>-0.03028337755607935</v>
       </c>
       <c r="E119">
         <v>0.2442906769487637</v>
@@ -4046,7 +4046,7 @@
         <v>0.9488865896691491</v>
       </c>
       <c r="D120">
-        <v>-0.07005803799796428</v>
+        <v>-0.06368422478405678</v>
       </c>
       <c r="E120">
         <v>0.2014813864576874</v>
@@ -4072,7 +4072,7 @@
         <v>0.9694411548994626</v>
       </c>
       <c r="D121">
-        <v>-0.1135681910509909</v>
+        <v>-0.09921778738353826</v>
       </c>
       <c r="E121">
         <v>0.1557887060053597</v>
@@ -4098,7 +4098,7 @@
         <v>0.9851554119512266</v>
       </c>
       <c r="D122">
-        <v>-0.03525173993865138</v>
+        <v>-0.1071726425363291</v>
       </c>
       <c r="E122">
         <v>0.1085804348246962</v>
@@ -4124,7 +4124,7 @@
         <v>0.9921352635190253</v>
       </c>
       <c r="D123">
-        <v>-0.07138221275306789</v>
+        <v>-0.05206809038664062</v>
       </c>
       <c r="E123">
         <v>0.07903320413107691</v>
@@ -4150,7 +4150,7 @@
         <v>0.9950199374308356</v>
       </c>
       <c r="D124">
-        <v>-0.05558059097512302</v>
+        <v>-0.03285301534130669</v>
       </c>
       <c r="E124">
         <v>0.06289047879933748</v>
@@ -4176,7 +4176,7 @@
         <v>0.9969576496720495</v>
       </c>
       <c r="D125">
-        <v>-0.1213652373655747</v>
+        <v>-0.1047712667662382</v>
       </c>
       <c r="E125">
         <v>0.04915549936403603</v>
@@ -4202,7 +4202,7 @@
         <v>0.9977392554180385</v>
       </c>
       <c r="D126">
-        <v>-0.1230859473815724</v>
+        <v>-0.1067730075824553</v>
       </c>
       <c r="E126">
         <v>0.04237339395942686</v>
@@ -4228,7 +4228,7 @@
         <v>0.9979632055110947</v>
       </c>
       <c r="D127">
-        <v>-0.1196433030423274</v>
+        <v>-0.1027741686505932</v>
       </c>
       <c r="E127">
         <v>0.04021991117298054</v>
@@ -4254,7 +4254,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D128">
-        <v>-0.1253432306926312</v>
+        <v>-0.1081943299914787</v>
       </c>
       <c r="E128">
         <v>0.03976474404886412</v>
@@ -4280,7 +4280,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D129">
-        <v>-0.1253432306926312</v>
+        <v>-0.1081943299914787</v>
       </c>
       <c r="E129">
         <v>0.03976474404886412</v>
@@ -4306,7 +4306,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D130">
-        <v>-0.1253432306926312</v>
+        <v>-0.1081943299914787</v>
       </c>
       <c r="E130">
         <v>0.03976474404886412</v>
@@ -4332,7 +4332,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D131">
-        <v>-0.1253432306926312</v>
+        <v>-0.1081943299914787</v>
       </c>
       <c r="E131">
         <v>0.03976474404886412</v>
@@ -4358,7 +4358,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D132">
-        <v>-0.1253432306926312</v>
+        <v>-0.1081943299914787</v>
       </c>
       <c r="E132">
         <v>0.03976474404886412</v>
@@ -4384,7 +4384,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D133">
-        <v>-0.1253432306926312</v>
+        <v>-0.1081943299914787</v>
       </c>
       <c r="E133">
         <v>0.03976474404886412</v>
@@ -4410,7 +4410,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D134">
-        <v>-0.1253432306926312</v>
+        <v>-0.1081943299914787</v>
       </c>
       <c r="E134">
         <v>0.03976474404886412</v>
@@ -4436,7 +4436,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D135">
-        <v>-0.1253432306926312</v>
+        <v>-0.1081943299914787</v>
       </c>
       <c r="E135">
         <v>0.03976474404886412</v>
@@ -4462,7 +4462,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D136">
-        <v>-0.1253432306926312</v>
+        <v>-0.1081943299914787</v>
       </c>
       <c r="E136">
         <v>0.03976474404886412</v>
@@ -4488,7 +4488,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D137">
-        <v>-0.1253432306926312</v>
+        <v>-0.1081943299914787</v>
       </c>
       <c r="E137">
         <v>0.03976474404886412</v>
@@ -4514,7 +4514,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D138">
-        <v>-0.1253432306926312</v>
+        <v>-0.1081943299914787</v>
       </c>
       <c r="E138">
         <v>0.03976474404886412</v>
@@ -4540,7 +4540,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D139">
-        <v>-0.1253432306926312</v>
+        <v>-0.1081943299914787</v>
       </c>
       <c r="E139">
         <v>0.03976474404886412</v>
@@ -4566,7 +4566,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D140">
-        <v>-0.1253432306926312</v>
+        <v>-0.1081943299914787</v>
       </c>
       <c r="E140">
         <v>0.03976474404886412</v>
@@ -4592,7 +4592,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D141">
-        <v>-0.1253432306926312</v>
+        <v>-0.1081943299914787</v>
       </c>
       <c r="E141">
         <v>0.03976474404886412</v>
@@ -4618,7 +4618,7 @@
         <v>0.6727209182125736</v>
       </c>
       <c r="D142">
-        <v>-0.2193310325748732</v>
+        <v>0.296118593994161</v>
       </c>
       <c r="E142">
         <v>0.5098314537738482</v>
@@ -4644,7 +4644,7 @@
         <v>0.7928744548568586</v>
       </c>
       <c r="D143">
-        <v>0.01049886213756523</v>
+        <v>0.2325724946917553</v>
       </c>
       <c r="E143">
         <v>0.4055872870145832</v>
@@ -4670,7 +4670,7 @@
         <v>0.8400530493831775</v>
       </c>
       <c r="D144">
-        <v>-0.0584655337550084</v>
+        <v>-0.04105917910389012</v>
       </c>
       <c r="E144">
         <v>0.356414598262799</v>
@@ -4696,7 +4696,7 @@
         <v>0.8680687145708481</v>
       </c>
       <c r="D145">
-        <v>-0.0620128542416416</v>
+        <v>-0.1761728023002422</v>
       </c>
       <c r="E145">
         <v>0.3236990303291896</v>
@@ -4722,7 +4722,7 @@
         <v>0.8963979705456481</v>
       </c>
       <c r="D146">
-        <v>-0.1215771402892332</v>
+        <v>-0.1246228904747635</v>
       </c>
       <c r="E146">
         <v>0.2868478723606199</v>
@@ -4748,7 +4748,7 @@
         <v>0.9248586864103395</v>
       </c>
       <c r="D147">
-        <v>-0.08632317307331094</v>
+        <v>-0.2009016014568576</v>
       </c>
       <c r="E147">
         <v>0.2442906769487637</v>
@@ -4774,7 +4774,7 @@
         <v>0.9488865896691491</v>
       </c>
       <c r="D148">
-        <v>-0.1474573443459821</v>
+        <v>-0.1944793805862124</v>
       </c>
       <c r="E148">
         <v>0.2014813864576874</v>
@@ -4800,7 +4800,7 @@
         <v>0.9694411548994626</v>
       </c>
       <c r="D149">
-        <v>-0.159060606969029</v>
+        <v>-0.226145319904536</v>
       </c>
       <c r="E149">
         <v>0.1557887060053597</v>
@@ -4826,7 +4826,7 @@
         <v>0.9851554119512266</v>
       </c>
       <c r="D150">
-        <v>-0.1539449097484418</v>
+        <v>-0.194475956041529</v>
       </c>
       <c r="E150">
         <v>0.1085804348246962</v>
@@ -4852,7 +4852,7 @@
         <v>0.9921352635190253</v>
       </c>
       <c r="D151">
-        <v>-0.1317930508699718</v>
+        <v>-0.170591742834753</v>
       </c>
       <c r="E151">
         <v>0.0790332041310769</v>
@@ -4878,7 +4878,7 @@
         <v>0.9950199374308356</v>
       </c>
       <c r="D152">
-        <v>-0.103558523463146</v>
+        <v>-0.1414392090866978</v>
       </c>
       <c r="E152">
         <v>0.06289047879933748</v>
@@ -4904,7 +4904,7 @@
         <v>0.9969576496720495</v>
       </c>
       <c r="D153">
-        <v>-0.09660434903382309</v>
+        <v>-0.1290207877646767</v>
       </c>
       <c r="E153">
         <v>0.04915549936403603</v>
@@ -4930,7 +4930,7 @@
         <v>0.9977392554180385</v>
       </c>
       <c r="D154">
-        <v>-0.07851950215341708</v>
+        <v>-0.1095804143808432</v>
       </c>
       <c r="E154">
         <v>0.04237339395942686</v>
@@ -4956,7 +4956,7 @@
         <v>0.9979632055110947</v>
       </c>
       <c r="D155">
-        <v>-0.08704971723797317</v>
+        <v>-0.1190168183279094</v>
       </c>
       <c r="E155">
         <v>0.04021991117298054</v>
@@ -4982,7 +4982,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D156">
-        <v>-0.08004675224454783</v>
+        <v>-0.1117843596747876</v>
       </c>
       <c r="E156">
         <v>0.03976474404886412</v>
@@ -5008,7 +5008,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D157">
-        <v>-0.08004675224454783</v>
+        <v>-0.1117843596747876</v>
       </c>
       <c r="E157">
         <v>0.03976474404886412</v>
@@ -5034,7 +5034,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D158">
-        <v>-0.08004675224454783</v>
+        <v>-0.1117843596747876</v>
       </c>
       <c r="E158">
         <v>0.03976474404886412</v>
@@ -5060,7 +5060,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D159">
-        <v>-0.08004675224454783</v>
+        <v>-0.1117843596747876</v>
       </c>
       <c r="E159">
         <v>0.03976474404886412</v>
@@ -5086,7 +5086,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D160">
-        <v>-0.08004675224454783</v>
+        <v>-0.1117843596747876</v>
       </c>
       <c r="E160">
         <v>0.03976474404886412</v>
@@ -5112,7 +5112,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D161">
-        <v>-0.08004675224454783</v>
+        <v>-0.1117843596747876</v>
       </c>
       <c r="E161">
         <v>0.03976474404886412</v>
@@ -5138,7 +5138,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D162">
-        <v>-0.08004675224454783</v>
+        <v>-0.1117843596747876</v>
       </c>
       <c r="E162">
         <v>0.03976474404886412</v>
@@ -5164,7 +5164,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D163">
-        <v>-0.08004675224454783</v>
+        <v>-0.1117843596747876</v>
       </c>
       <c r="E163">
         <v>0.03976474404886412</v>
@@ -5190,7 +5190,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D164">
-        <v>-0.08004675224454783</v>
+        <v>-0.1117843596747876</v>
       </c>
       <c r="E164">
         <v>0.03976474404886412</v>
@@ -5216,7 +5216,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D165">
-        <v>-0.08004675224454783</v>
+        <v>-0.1117843596747876</v>
       </c>
       <c r="E165">
         <v>0.03976474404886412</v>
@@ -5242,7 +5242,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D166">
-        <v>-0.08004675224454783</v>
+        <v>-0.1117843596747876</v>
       </c>
       <c r="E166">
         <v>0.03976474404886412</v>
@@ -5268,7 +5268,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D167">
-        <v>-0.08004675224454783</v>
+        <v>-0.1117843596747876</v>
       </c>
       <c r="E167">
         <v>0.03976474404886412</v>
@@ -5294,7 +5294,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D168">
-        <v>-0.08004675224454783</v>
+        <v>-0.1117843596747876</v>
       </c>
       <c r="E168">
         <v>0.03976474404886412</v>
@@ -5320,7 +5320,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D169">
-        <v>-0.08004675224454783</v>
+        <v>-0.1117843596747876</v>
       </c>
       <c r="E169">
         <v>0.03976474404886412</v>
@@ -5346,7 +5346,7 @@
         <v>0.6703530417135197</v>
       </c>
       <c r="D170">
-        <v>-0.2120075117912312</v>
+        <v>0.2972748074993276</v>
       </c>
       <c r="E170">
         <v>0.511672454744721</v>
@@ -5372,7 +5372,7 @@
         <v>0.7844898603469825</v>
       </c>
       <c r="D171">
-        <v>0.01628934239973789</v>
+        <v>0.2336770560466237</v>
       </c>
       <c r="E171">
         <v>0.413715084154973</v>
@@ -5398,7 +5398,7 @@
         <v>0.8384822132336716</v>
       </c>
       <c r="D172">
-        <v>0.03062890027125953</v>
+        <v>0.1014658339031685</v>
       </c>
       <c r="E172">
         <v>0.3581604928428163</v>
@@ -5424,7 +5424,7 @@
         <v>0.8691300617010094</v>
       </c>
       <c r="D173">
-        <v>-0.806061285146364</v>
+        <v>0.005578213322739889</v>
       </c>
       <c r="E173">
         <v>0.3223943709298942</v>
@@ -5450,7 +5450,7 @@
         <v>0.9017165160639669</v>
       </c>
       <c r="D174">
-        <v>-0.1091549155007834</v>
+        <v>0.06283654815374473</v>
       </c>
       <c r="E174">
         <v>0.2793880155385632</v>
@@ -5476,7 +5476,7 @@
         <v>0.9383095438636176</v>
       </c>
       <c r="D175">
-        <v>-0.01006281930589714</v>
+        <v>0.1261882558773207</v>
       </c>
       <c r="E175">
         <v>0.2213484535898225</v>
@@ -5502,7 +5502,7 @@
         <v>0.9623300740420266</v>
       </c>
       <c r="D176">
-        <v>-0.00313208888366967</v>
+        <v>0.1057393967509299</v>
       </c>
       <c r="E176">
         <v>0.1729676499260049</v>
@@ -5528,7 +5528,7 @@
         <v>0.9771868519874043</v>
       </c>
       <c r="D177">
-        <v>0.01326303099373949</v>
+        <v>0.1593537628656901</v>
       </c>
       <c r="E177">
         <v>0.1346046647192469</v>
@@ -5554,7 +5554,7 @@
         <v>0.9884049738605094</v>
       </c>
       <c r="D178">
-        <v>0.05980161207200818</v>
+        <v>0.01860659788765873</v>
       </c>
       <c r="E178">
         <v>0.0959629008047244</v>
@@ -5580,7 +5580,7 @@
         <v>0.9953565535643594</v>
       </c>
       <c r="D179">
-        <v>0.1217309083211497</v>
+        <v>0.147065615251601</v>
       </c>
       <c r="E179">
         <v>0.06072782425244303</v>
@@ -5606,7 +5606,7 @@
         <v>0.9969112462450974</v>
       </c>
       <c r="D180">
-        <v>0.1236209496898565</v>
+        <v>0.1575355838788379</v>
       </c>
       <c r="E180">
         <v>0.04952895268340518</v>
@@ -5632,7 +5632,7 @@
         <v>0.9975850871433195</v>
       </c>
       <c r="D181">
-        <v>0.118967021224646</v>
+        <v>0.1513360298570002</v>
       </c>
       <c r="E181">
         <v>0.04379436496843594</v>
@@ -5658,7 +5658,7 @@
         <v>0.9978460763451031</v>
       </c>
       <c r="D182">
-        <v>0.1416241291497629</v>
+        <v>0.1094452836140709</v>
       </c>
       <c r="E182">
         <v>0.0413602023101985</v>
@@ -5684,7 +5684,7 @@
         <v>0.9979976979652865</v>
       </c>
       <c r="D183">
-        <v>0.1558708819429436</v>
+        <v>0.1377998659748487</v>
       </c>
       <c r="E183">
         <v>0.03987790145770981</v>
@@ -5710,7 +5710,7 @@
         <v>0.9980084692697508</v>
       </c>
       <c r="D184">
-        <v>0.1529683473747249</v>
+        <v>0.138632500274656</v>
       </c>
       <c r="E184">
         <v>0.03977049602164062</v>
@@ -5736,7 +5736,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D185">
-        <v>0.1176115685006912</v>
+        <v>0.1521908734806623</v>
       </c>
       <c r="E185">
         <v>0.03976474404886412</v>
@@ -5762,7 +5762,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D186">
-        <v>0.1198224752041133</v>
+        <v>0.1523028528746618</v>
       </c>
       <c r="E186">
         <v>0.03976474404886412</v>
@@ -5788,7 +5788,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D187">
-        <v>0.1198224752041133</v>
+        <v>0.1523028528746618</v>
       </c>
       <c r="E187">
         <v>0.03976474404886412</v>
@@ -5814,7 +5814,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D188">
-        <v>0.1198224752041133</v>
+        <v>0.1523028528746618</v>
       </c>
       <c r="E188">
         <v>0.03976474404886412</v>
@@ -5840,7 +5840,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D189">
-        <v>0.1198224752041133</v>
+        <v>0.1523028528746618</v>
       </c>
       <c r="E189">
         <v>0.03976474404886412</v>
@@ -5866,7 +5866,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D190">
-        <v>0.1198224752041133</v>
+        <v>0.1523028528746618</v>
       </c>
       <c r="E190">
         <v>0.03976474404886412</v>
@@ -5892,7 +5892,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D191">
-        <v>0.1198224752041133</v>
+        <v>0.1523028528746618</v>
       </c>
       <c r="E191">
         <v>0.03976474404886412</v>
@@ -5918,7 +5918,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D192">
-        <v>0.1198224752041133</v>
+        <v>0.1523028528746618</v>
       </c>
       <c r="E192">
         <v>0.03976474404886412</v>
@@ -5944,7 +5944,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D193">
-        <v>0.1198224752041133</v>
+        <v>0.1523028528746618</v>
       </c>
       <c r="E193">
         <v>0.03976474404886412</v>
@@ -5970,7 +5970,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D194">
-        <v>0.1198224752041133</v>
+        <v>0.1523028528746618</v>
       </c>
       <c r="E194">
         <v>0.03976474404886412</v>
@@ -5996,7 +5996,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D195">
-        <v>0.1198224752041133</v>
+        <v>0.1523028528746618</v>
       </c>
       <c r="E195">
         <v>0.03976474404886412</v>
@@ -6022,7 +6022,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D196">
-        <v>0.1198224752041133</v>
+        <v>0.1523028528746618</v>
       </c>
       <c r="E196">
         <v>0.03976474404886412</v>
@@ -6048,7 +6048,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D197">
-        <v>0.1198224752041133</v>
+        <v>0.1523028528746618</v>
       </c>
       <c r="E197">
         <v>0.03976474404886412</v>
@@ -6074,7 +6074,7 @@
         <v>0.6617662584083569</v>
       </c>
       <c r="D198">
-        <v>-1.04742704442434</v>
+        <v>0.4315717094225657</v>
       </c>
       <c r="E198">
         <v>0.5182937435937477</v>
@@ -6100,7 +6100,7 @@
         <v>0.7806444548490175</v>
       </c>
       <c r="D199">
-        <v>-0.3235570833167036</v>
+        <v>0.1867549522219822</v>
       </c>
       <c r="E199">
         <v>0.4173897793556708</v>
@@ -6126,7 +6126,7 @@
         <v>0.8295576698092553</v>
       </c>
       <c r="D200">
-        <v>-0.1886548560061634</v>
+        <v>0.139342461208213</v>
       </c>
       <c r="E200">
         <v>0.3679224029421076</v>
@@ -6152,7 +6152,7 @@
         <v>0.8731988872888214</v>
       </c>
       <c r="D201">
-        <v>-0.09133156828526867</v>
+        <v>0.09279503538392075</v>
       </c>
       <c r="E201">
         <v>0.3173430809497764</v>
@@ -6178,7 +6178,7 @@
         <v>0.9040101753959431</v>
       </c>
       <c r="D202">
-        <v>-0.1494203304352548</v>
+        <v>0.06812483725800189</v>
       </c>
       <c r="E202">
         <v>0.2761087059624782</v>
@@ -6204,7 +6204,7 @@
         <v>0.9241847209622823</v>
       </c>
       <c r="D203">
-        <v>-0.06508626892148572</v>
+        <v>0.1099495899288989</v>
       </c>
       <c r="E203">
         <v>0.245383790242259</v>
@@ -6230,7 +6230,7 @@
         <v>0.9424286641913664</v>
       </c>
       <c r="D204">
-        <v>-0.08121329788183673</v>
+        <v>0.09559630451172552</v>
       </c>
       <c r="E204">
         <v>0.2138309939476121</v>
@@ -6256,7 +6256,7 @@
         <v>0.9637889244672245</v>
       </c>
       <c r="D205">
-        <v>-0.0984310012028522</v>
+        <v>0.0740004179094258</v>
       </c>
       <c r="E205">
         <v>0.1695853037653331</v>
@@ -6282,7 +6282,7 @@
         <v>0.9744040145723487</v>
       </c>
       <c r="D206">
-        <v>-0.08091470609614326</v>
+        <v>0.0270980805450699</v>
       </c>
       <c r="E206">
         <v>0.142578298827414</v>
@@ -6308,7 +6308,7 @@
         <v>0.9826447655862927</v>
       </c>
       <c r="D207">
-        <v>-0.1321483539081785</v>
+        <v>0.02244750456811151</v>
       </c>
       <c r="E207">
         <v>0.117403959381152</v>
@@ -6334,7 +6334,7 @@
         <v>0.9887529013662059</v>
       </c>
       <c r="D208">
-        <v>-0.05546638141131832</v>
+        <v>0.09045440420248485</v>
       </c>
       <c r="E208">
         <v>0.09451217407291319</v>
@@ -6360,7 +6360,7 @@
         <v>0.9961693455489531</v>
       </c>
       <c r="D209">
-        <v>-0.0008500615262481137</v>
+        <v>0.1334345126822162</v>
       </c>
       <c r="E209">
         <v>0.05515742591559294</v>
@@ -6386,7 +6386,7 @@
         <v>0.9975473744730284</v>
       </c>
       <c r="D210">
-        <v>0.03733673530424475</v>
+        <v>0.1628717507096581</v>
       </c>
       <c r="E210">
         <v>0.04413499925069667</v>
@@ -6412,7 +6412,7 @@
         <v>0.9979748250568742</v>
       </c>
       <c r="D211">
-        <v>0.003674843610000034</v>
+        <v>0.1353732090090336</v>
       </c>
       <c r="E211">
         <v>0.0401050234098424</v>
@@ -6438,7 +6438,7 @@
         <v>0.9980090082061502</v>
       </c>
       <c r="D212">
-        <v>-0.0005806560973171671</v>
+        <v>0.1341250931931639</v>
       </c>
       <c r="E212">
         <v>0.03976511442800786</v>
@@ -6464,7 +6464,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D213">
-        <v>-0.0005806560973171671</v>
+        <v>0.1341250931931639</v>
       </c>
       <c r="E213">
         <v>0.03976474404886412</v>
@@ -6490,7 +6490,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D214">
-        <v>-0.0005806560973171671</v>
+        <v>0.1341250931931639</v>
       </c>
       <c r="E214">
         <v>0.03976474404886412</v>
@@ -6516,7 +6516,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D215">
-        <v>-0.0005806560973171671</v>
+        <v>0.1341250931931639</v>
       </c>
       <c r="E215">
         <v>0.03976474404886412</v>
@@ -6542,7 +6542,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D216">
-        <v>-0.0005806560973171671</v>
+        <v>0.1341250931931639</v>
       </c>
       <c r="E216">
         <v>0.03976474404886412</v>
@@ -6568,7 +6568,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D217">
-        <v>-0.0005806560973171671</v>
+        <v>0.1341250931931639</v>
       </c>
       <c r="E217">
         <v>0.03976474404886412</v>
@@ -6594,7 +6594,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D218">
-        <v>-0.0005806560973171671</v>
+        <v>0.1341250931931639</v>
       </c>
       <c r="E218">
         <v>0.03976474404886412</v>
@@ -6620,7 +6620,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D219">
-        <v>-0.0005806560973171671</v>
+        <v>0.1341250931931639</v>
       </c>
       <c r="E219">
         <v>0.03976474404886412</v>
@@ -6646,7 +6646,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D220">
-        <v>-0.0005806560973171671</v>
+        <v>0.1341250931931639</v>
       </c>
       <c r="E220">
         <v>0.03976474404886412</v>
@@ -6672,7 +6672,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D221">
-        <v>-0.0005806560973171671</v>
+        <v>0.1341250931931639</v>
       </c>
       <c r="E221">
         <v>0.03976474404886412</v>
@@ -6698,7 +6698,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D222">
-        <v>-0.0005806560973171671</v>
+        <v>0.1341250931931639</v>
       </c>
       <c r="E222">
         <v>0.03976474404886412</v>
@@ -6724,7 +6724,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D223">
-        <v>-0.0005806560973171671</v>
+        <v>0.1341250931931639</v>
       </c>
       <c r="E223">
         <v>0.03976474404886412</v>
@@ -6750,7 +6750,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D224">
-        <v>-0.0005806560973171671</v>
+        <v>0.1341250931931639</v>
       </c>
       <c r="E224">
         <v>0.03976474404886412</v>
@@ -6776,7 +6776,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D225">
-        <v>-0.0005806560973171671</v>
+        <v>0.1341250931931639</v>
       </c>
       <c r="E225">
         <v>0.03976474404886412</v>
@@ -6802,7 +6802,7 @@
         <v>0.6617662584083569</v>
       </c>
       <c r="D226">
-        <v>-0.3482993780559904</v>
+        <v>0.3719863143626776</v>
       </c>
       <c r="E226">
         <v>0.5182937435937477</v>
@@ -6828,7 +6828,7 @@
         <v>0.7607040102843549</v>
       </c>
       <c r="D227">
-        <v>-0.2076348579735534</v>
+        <v>0.177721149622456</v>
       </c>
       <c r="E227">
         <v>0.4359485241374713</v>
@@ -6854,7 +6854,7 @@
         <v>0.8213842594266187</v>
       </c>
       <c r="D228">
-        <v>-0.05918498472864342</v>
+        <v>0.1668384324948505</v>
       </c>
       <c r="E228">
         <v>0.3766408018854429</v>
@@ -6880,7 +6880,7 @@
         <v>0.8735261919993055</v>
       </c>
       <c r="D229">
-        <v>0.00436398593055598</v>
+        <v>0.1252098003987229</v>
       </c>
       <c r="E229">
         <v>0.316933246222116</v>
@@ -6906,7 +6906,7 @@
         <v>0.9045065582192267</v>
       </c>
       <c r="D230">
-        <v>-0.05828669632208694</v>
+        <v>0.1003364463954232</v>
       </c>
       <c r="E230">
         <v>0.2753938736103357</v>
@@ -6932,7 +6932,7 @@
         <v>0.9242698555796067</v>
       </c>
       <c r="D231">
-        <v>0.09126645854747306</v>
+        <v>0.104234308401248</v>
       </c>
       <c r="E231">
         <v>0.2452459781595078</v>
@@ -6958,7 +6958,7 @@
         <v>0.9424569814175643</v>
       </c>
       <c r="D232">
-        <v>0.07143710033847162</v>
+        <v>0.09196608780973559</v>
       </c>
       <c r="E232">
         <v>0.2137783996722468</v>
@@ -6984,7 +6984,7 @@
         <v>0.9637902114217473</v>
       </c>
       <c r="D233">
-        <v>0.04366678013476466</v>
+        <v>0.08105728012448876</v>
       </c>
       <c r="E233">
         <v>0.169582290177506</v>
@@ -7010,7 +7010,7 @@
         <v>0.9740298671669431</v>
       </c>
       <c r="D234">
-        <v>0.03943021043689898</v>
+        <v>0.04568718841957897</v>
       </c>
       <c r="E234">
         <v>0.1436165821527899</v>
@@ -7036,7 +7036,7 @@
         <v>0.9831037610508226</v>
       </c>
       <c r="D235">
-        <v>0.0311968776021837</v>
+        <v>-0.03445057182053834</v>
       </c>
       <c r="E235">
         <v>0.1158410600029362</v>
@@ -7062,7 +7062,7 @@
         <v>0.9891194554890855</v>
       </c>
       <c r="D236">
-        <v>-0.04403644910008353</v>
+        <v>-0.1126310413705165</v>
       </c>
       <c r="E236">
         <v>0.09295929394816489</v>
@@ -7088,7 +7088,7 @@
         <v>0.9930482337775659</v>
       </c>
       <c r="D237">
-        <v>-0.03149999445676244</v>
+        <v>-0.09787036169242147</v>
       </c>
       <c r="E237">
         <v>0.07430449399079306</v>
@@ -7114,7 +7114,7 @@
         <v>0.9964618687417333</v>
       </c>
       <c r="D238">
-        <v>-0.03843112745885469</v>
+        <v>-0.105565377580269</v>
       </c>
       <c r="E238">
         <v>0.05300959323429908</v>
@@ -7140,7 +7140,7 @@
         <v>0.997929582457417</v>
       </c>
       <c r="D239">
-        <v>-0.01110600653469063</v>
+        <v>-0.08173895407228837</v>
       </c>
       <c r="E239">
         <v>0.04055052402651874</v>
@@ -7166,7 +7166,7 @@
         <v>0.9980033404968279</v>
       </c>
       <c r="D240">
-        <v>-0.04514304871568098</v>
+        <v>-0.1542480380842703</v>
       </c>
       <c r="E240">
         <v>0.03982167341142696</v>
@@ -7192,7 +7192,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D241">
-        <v>0.005987210977979718</v>
+        <v>-0.05452777555784238</v>
       </c>
       <c r="E241">
         <v>0.03976474404886412</v>
@@ -7218,7 +7218,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D242">
-        <v>0.005987210977979718</v>
+        <v>-0.05452777555784238</v>
       </c>
       <c r="E242">
         <v>0.03976474404886412</v>
@@ -7244,7 +7244,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D243">
-        <v>0.005987210977979718</v>
+        <v>-0.05452777555784238</v>
       </c>
       <c r="E243">
         <v>0.03976474404886412</v>
@@ -7270,7 +7270,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D244">
-        <v>0.005987210977979718</v>
+        <v>-0.05452777555784238</v>
       </c>
       <c r="E244">
         <v>0.03976474404886412</v>
@@ -7296,7 +7296,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D245">
-        <v>0.005987210977979718</v>
+        <v>-0.05452777555784238</v>
       </c>
       <c r="E245">
         <v>0.03976474404886412</v>
@@ -7322,7 +7322,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D246">
-        <v>0.005987210977979718</v>
+        <v>-0.05452777555784238</v>
       </c>
       <c r="E246">
         <v>0.03976474404886412</v>
@@ -7348,7 +7348,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D247">
-        <v>0.005987210977979718</v>
+        <v>-0.05452777555784238</v>
       </c>
       <c r="E247">
         <v>0.03976474404886412</v>
@@ -7374,7 +7374,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D248">
-        <v>0.005987210977979718</v>
+        <v>-0.05452777555784238</v>
       </c>
       <c r="E248">
         <v>0.03976474404886412</v>
@@ -7400,7 +7400,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D249">
-        <v>0.005987210977979718</v>
+        <v>-0.05452777555784238</v>
       </c>
       <c r="E249">
         <v>0.03976474404886412</v>
@@ -7426,7 +7426,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D250">
-        <v>0.005987210977979718</v>
+        <v>-0.05452777555784238</v>
       </c>
       <c r="E250">
         <v>0.03976474404886412</v>
@@ -7452,7 +7452,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D251">
-        <v>0.005987210977979718</v>
+        <v>-0.05452777555784238</v>
       </c>
       <c r="E251">
         <v>0.03976474404886412</v>
@@ -7478,7 +7478,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D252">
-        <v>0.005987210977979718</v>
+        <v>-0.05452777555784238</v>
       </c>
       <c r="E252">
         <v>0.03976474404886412</v>
@@ -7504,7 +7504,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D253">
-        <v>0.005987210977979718</v>
+        <v>-0.05452777555784238</v>
       </c>
       <c r="E253">
         <v>0.03976474404886412</v>
@@ -7530,7 +7530,7 @@
         <v>0.6617662584083568</v>
       </c>
       <c r="D254">
-        <v>-0.3482993780559958</v>
+        <v>0.3719863143626768</v>
       </c>
       <c r="E254">
         <v>0.5182937435937477</v>
@@ -7556,7 +7556,7 @@
         <v>0.7607040102843549</v>
       </c>
       <c r="D255">
-        <v>-0.2076348579735534</v>
+        <v>0.177721149622456</v>
       </c>
       <c r="E255">
         <v>0.4359485241374713</v>
@@ -7582,7 +7582,7 @@
         <v>0.8213842594266189</v>
       </c>
       <c r="D256">
-        <v>-0.1071521721666044</v>
+        <v>0.10244387093564</v>
       </c>
       <c r="E256">
         <v>0.3766408018854429</v>
@@ -7608,7 +7608,7 @@
         <v>0.8669674452670109</v>
       </c>
       <c r="D257">
-        <v>-0.01844524351460497</v>
+        <v>0.01116233350356577</v>
       </c>
       <c r="E257">
         <v>0.3250472283053353</v>
@@ -7634,7 +7634,7 @@
         <v>0.887655442843041</v>
       </c>
       <c r="D258">
-        <v>-0.0430350849270571</v>
+        <v>-0.008757075677566561</v>
       </c>
       <c r="E258">
         <v>0.2987057067424753</v>
@@ -7660,7 +7660,7 @@
         <v>0.911977462588178</v>
       </c>
       <c r="D259">
-        <v>-0.09580865022742491</v>
+        <v>-0.04762582405859916</v>
       </c>
       <c r="E259">
         <v>0.2644018218884389</v>
@@ -7686,7 +7686,7 @@
         <v>0.9389210534429502</v>
       </c>
       <c r="D260">
-        <v>0.1052189243315778</v>
+        <v>0.04989879697377786</v>
       </c>
       <c r="E260">
         <v>0.2202486578228917</v>
@@ -7712,7 +7712,7 @@
         <v>0.9688374636047534</v>
       </c>
       <c r="D261">
-        <v>0.05448369456853408</v>
+        <v>-0.1347371524544063</v>
       </c>
       <c r="E261">
         <v>0.1573199866443867</v>
@@ -7738,7 +7738,7 @@
         <v>0.9796723305243775</v>
       </c>
       <c r="D262">
-        <v>-0.03069894641780047</v>
+        <v>-0.1682209941901258</v>
       </c>
       <c r="E262">
         <v>0.1270607155542456</v>
@@ -7764,7 +7764,7 @@
         <v>0.9858373223832214</v>
       </c>
       <c r="D263">
-        <v>-0.05750059754282821</v>
+        <v>-0.06194277432734108</v>
       </c>
       <c r="E263">
         <v>0.1060572070936797</v>
@@ -7790,7 +7790,7 @@
         <v>0.9906287163004652</v>
       </c>
       <c r="D264">
-        <v>-0.05407480258965891</v>
+        <v>-0.06489689558871303</v>
       </c>
       <c r="E264">
         <v>0.08627143943895754</v>
@@ -7816,7 +7816,7 @@
         <v>0.9929434175577392</v>
       </c>
       <c r="D265">
-        <v>0.0440763806464729</v>
+        <v>-0.1016348762755765</v>
       </c>
       <c r="E265">
         <v>0.07486256641652421</v>
@@ -7842,7 +7842,7 @@
         <v>0.9964931883165479</v>
       </c>
       <c r="D266">
-        <v>0.05051710697206346</v>
+        <v>-0.09345019981853575</v>
       </c>
       <c r="E266">
         <v>0.05277445097094748</v>
@@ -7868,7 +7868,7 @@
         <v>0.9975209875880561</v>
       </c>
       <c r="D267">
-        <v>-0.01557136102559475</v>
+        <v>-0.02832963180620429</v>
       </c>
       <c r="E267">
         <v>0.04437178010830347</v>
@@ -7894,7 +7894,7 @@
         <v>0.9980015868721244</v>
       </c>
       <c r="D268">
-        <v>0.0217256424491018</v>
+        <v>-0.0002618919875410075</v>
       </c>
       <c r="E268">
         <v>0.03983915684908593</v>
@@ -7920,7 +7920,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D269">
-        <v>-0.01314717066946258</v>
+        <v>-0.0304967870478976</v>
       </c>
       <c r="E269">
         <v>0.03976474404886412</v>
@@ -7946,7 +7946,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D270">
-        <v>-0.01314717066946258</v>
+        <v>-0.0304967870478976</v>
       </c>
       <c r="E270">
         <v>0.03976474404886412</v>
@@ -7972,7 +7972,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D271">
-        <v>-0.01314717066946258</v>
+        <v>-0.0304967870478976</v>
       </c>
       <c r="E271">
         <v>0.03976474404886412</v>
@@ -7998,7 +7998,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D272">
-        <v>-0.01314717066946258</v>
+        <v>-0.0304967870478976</v>
       </c>
       <c r="E272">
         <v>0.03976474404886412</v>
@@ -8024,7 +8024,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D273">
-        <v>-0.01314717066946258</v>
+        <v>-0.0304967870478976</v>
       </c>
       <c r="E273">
         <v>0.03976474404886412</v>
@@ -8050,7 +8050,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D274">
-        <v>-0.01314717066946258</v>
+        <v>-0.0304967870478976</v>
       </c>
       <c r="E274">
         <v>0.03976474404886412</v>
@@ -8076,7 +8076,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D275">
-        <v>-0.01314717066946258</v>
+        <v>-0.0304967870478976</v>
       </c>
       <c r="E275">
         <v>0.03976474404886412</v>
@@ -8102,7 +8102,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D276">
-        <v>-0.01314717066946258</v>
+        <v>-0.0304967870478976</v>
       </c>
       <c r="E276">
         <v>0.03976474404886412</v>
@@ -8128,7 +8128,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D277">
-        <v>-0.01314717066946258</v>
+        <v>-0.0304967870478976</v>
       </c>
       <c r="E277">
         <v>0.03976474404886412</v>
@@ -8154,7 +8154,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D278">
-        <v>-0.01314717066946258</v>
+        <v>-0.0304967870478976</v>
       </c>
       <c r="E278">
         <v>0.03976474404886412</v>
@@ -8180,7 +8180,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D279">
-        <v>-0.01314717066946258</v>
+        <v>-0.0304967870478976</v>
       </c>
       <c r="E279">
         <v>0.03976474404886412</v>
@@ -8206,7 +8206,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D280">
-        <v>-0.01314717066946258</v>
+        <v>-0.0304967870478976</v>
       </c>
       <c r="E280">
         <v>0.03976474404886412</v>
@@ -8232,7 +8232,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D281">
-        <v>-0.01314717066946258</v>
+        <v>-0.0304967870478976</v>
       </c>
       <c r="E281">
         <v>0.03976474404886412</v>
@@ -8258,7 +8258,7 @@
         <v>0.6617662584083568</v>
       </c>
       <c r="D282">
-        <v>-0.3482993780559929</v>
+        <v>0.3719863143626775</v>
       </c>
       <c r="E282">
         <v>0.5182937435937477</v>
@@ -8284,7 +8284,7 @@
         <v>0.760704010284355</v>
       </c>
       <c r="D283">
-        <v>-0.2076348579735592</v>
+        <v>0.1777211496224551</v>
       </c>
       <c r="E283">
         <v>0.4359485241374712</v>
@@ -8310,7 +8310,7 @@
         <v>0.8124773409527077</v>
       </c>
       <c r="D284">
-        <v>-0.1776073169843342</v>
+        <v>0.1597193991028685</v>
       </c>
       <c r="E284">
         <v>0.3859174156441649</v>
@@ -8336,7 +8336,7 @@
         <v>0.8647359701054219</v>
       </c>
       <c r="D285">
-        <v>-0.07107238215939371</v>
+        <v>0.08655447489858259</v>
       </c>
       <c r="E285">
         <v>0.3277620464558021</v>
@@ -8362,7 +8362,7 @@
         <v>0.8994762711528651</v>
       </c>
       <c r="D286">
-        <v>-0.0242523484462247</v>
+        <v>0.09183397607549215</v>
       </c>
       <c r="E286">
         <v>0.2825542190654215</v>
@@ -8388,7 +8388,7 @@
         <v>0.9443392822951576</v>
       </c>
       <c r="D287">
-        <v>0.1857689783538884</v>
+        <v>0.1146763309940018</v>
       </c>
       <c r="E287">
         <v>0.2102528553536921</v>
@@ -8414,7 +8414,7 @@
         <v>0.9739226961378924</v>
       </c>
       <c r="D288">
-        <v>0.09950403899785398</v>
+        <v>0.04693813126171487</v>
       </c>
       <c r="E288">
         <v>0.1439126085651456</v>
@@ -8440,7 +8440,7 @@
         <v>0.9886842784057523</v>
       </c>
       <c r="D289">
-        <v>0.05967775572737322</v>
+        <v>0.008485492947717388</v>
       </c>
       <c r="E289">
         <v>0.09480006353234666</v>
@@ -8466,7 +8466,7 @@
         <v>0.9951688779915958</v>
       </c>
       <c r="D290">
-        <v>0.01247937343493222</v>
+        <v>-0.04937616309962167</v>
       </c>
       <c r="E290">
         <v>0.06194289576406882</v>
@@ -8492,7 +8492,7 @@
         <v>0.9975282688810911</v>
       </c>
       <c r="D291">
-        <v>0.05277856279684168</v>
+        <v>-0.02515493282035219</v>
       </c>
       <c r="E291">
         <v>0.0443065683490857</v>
@@ -8518,7 +8518,7 @@
         <v>0.9980013431067022</v>
       </c>
       <c r="D292">
-        <v>0.01279327292987387</v>
+        <v>-0.05490601292542174</v>
       </c>
       <c r="E292">
         <v>0.03984158655509231</v>
@@ -8544,7 +8544,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D293">
-        <v>0.01252780137986231</v>
+        <v>-0.05480746198447806</v>
       </c>
       <c r="E293">
         <v>0.03976474404886412</v>
@@ -8570,7 +8570,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D294">
-        <v>0.01252780137986231</v>
+        <v>-0.05480746198447806</v>
       </c>
       <c r="E294">
         <v>0.03976474404886412</v>
@@ -8596,7 +8596,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D295">
-        <v>0.01252780137986231</v>
+        <v>-0.05480746198447806</v>
       </c>
       <c r="E295">
         <v>0.03976474404886412</v>
@@ -8622,7 +8622,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D296">
-        <v>0.01252780137986231</v>
+        <v>-0.05480746198447806</v>
       </c>
       <c r="E296">
         <v>0.03976474404886412</v>
@@ -8648,7 +8648,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D297">
-        <v>0.01252780137986231</v>
+        <v>-0.05480746198447806</v>
       </c>
       <c r="E297">
         <v>0.03976474404886412</v>
@@ -8674,7 +8674,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D298">
-        <v>0.01252780137986231</v>
+        <v>-0.05480746198447806</v>
       </c>
       <c r="E298">
         <v>0.03976474404886412</v>
@@ -8700,7 +8700,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D299">
-        <v>0.01252780137986231</v>
+        <v>-0.05480746198447806</v>
       </c>
       <c r="E299">
         <v>0.03976474404886412</v>
@@ -8726,7 +8726,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D300">
-        <v>0.01252780137986231</v>
+        <v>-0.05480746198447806</v>
       </c>
       <c r="E300">
         <v>0.03976474404886412</v>
@@ -8752,7 +8752,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D301">
-        <v>0.01252780137986231</v>
+        <v>-0.05480746198447806</v>
       </c>
       <c r="E301">
         <v>0.03976474404886412</v>
@@ -8778,7 +8778,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D302">
-        <v>0.01252780137986231</v>
+        <v>-0.05480746198447806</v>
       </c>
       <c r="E302">
         <v>0.03976474404886412</v>
@@ -8804,7 +8804,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D303">
-        <v>0.01252780137986231</v>
+        <v>-0.05480746198447806</v>
       </c>
       <c r="E303">
         <v>0.03976474404886412</v>
@@ -8830,7 +8830,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D304">
-        <v>0.01252780137986231</v>
+        <v>-0.05480746198447806</v>
       </c>
       <c r="E304">
         <v>0.03976474404886412</v>
@@ -8856,7 +8856,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D305">
-        <v>0.01252780137986231</v>
+        <v>-0.05480746198447806</v>
       </c>
       <c r="E305">
         <v>0.03976474404886412</v>
@@ -8882,7 +8882,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D306">
-        <v>0.01252780137986231</v>
+        <v>-0.05480746198447806</v>
       </c>
       <c r="E306">
         <v>0.03976474404886412</v>
@@ -8908,7 +8908,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D307">
-        <v>0.01252780137986231</v>
+        <v>-0.05480746198447806</v>
       </c>
       <c r="E307">
         <v>0.03976474404886412</v>
@@ -8934,7 +8934,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D308">
-        <v>0.01252780137986231</v>
+        <v>-0.05480746198447806</v>
       </c>
       <c r="E308">
         <v>0.03976474404886412</v>
@@ -8960,7 +8960,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D309">
-        <v>0.01252780137986231</v>
+        <v>-0.05480746198447806</v>
       </c>
       <c r="E309">
         <v>0.03976474404886412</v>
@@ -8986,7 +8986,7 @@
         <v>0.6617662584083568</v>
       </c>
       <c r="D310">
-        <v>-0.3482993780559929</v>
+        <v>0.3719863143626775</v>
       </c>
       <c r="E310">
         <v>0.5182937435937477</v>
@@ -9012,7 +9012,7 @@
         <v>0.760704010284355</v>
       </c>
       <c r="D311">
-        <v>-0.2076348579735592</v>
+        <v>0.1777211496224551</v>
       </c>
       <c r="E311">
         <v>0.4359485241374712</v>
@@ -9038,7 +9038,7 @@
         <v>0.8124773409527077</v>
       </c>
       <c r="D312">
-        <v>-0.1776073169843342</v>
+        <v>0.1597193991028685</v>
       </c>
       <c r="E312">
         <v>0.3859174156441649</v>
@@ -9064,7 +9064,7 @@
         <v>0.8647359701054219</v>
       </c>
       <c r="D313">
-        <v>-0.07107238215939371</v>
+        <v>0.08655447489858259</v>
       </c>
       <c r="E313">
         <v>0.3277620464558021</v>
@@ -9090,7 +9090,7 @@
         <v>0.8994762711528651</v>
       </c>
       <c r="D314">
-        <v>-0.0242523484462247</v>
+        <v>0.09183397607549215</v>
       </c>
       <c r="E314">
         <v>0.2825542190654215</v>
@@ -9116,7 +9116,7 @@
         <v>0.9443392822951576</v>
       </c>
       <c r="D315">
-        <v>0.1857689783538884</v>
+        <v>0.1146763309940018</v>
       </c>
       <c r="E315">
         <v>0.2102528553536921</v>
@@ -9142,7 +9142,7 @@
         <v>0.9739226961378924</v>
       </c>
       <c r="D316">
-        <v>0.09950403899785398</v>
+        <v>0.04693813126171487</v>
       </c>
       <c r="E316">
         <v>0.1439126085651456</v>
@@ -9168,7 +9168,7 @@
         <v>0.9886842784057523</v>
       </c>
       <c r="D317">
-        <v>0.05967775572737322</v>
+        <v>0.008485492947717388</v>
       </c>
       <c r="E317">
         <v>0.09480006353234666</v>
@@ -9194,7 +9194,7 @@
         <v>0.9951688779915958</v>
       </c>
       <c r="D318">
-        <v>0.01247937343493222</v>
+        <v>-0.04937616309962167</v>
       </c>
       <c r="E318">
         <v>0.06194289576406882</v>
@@ -9220,7 +9220,7 @@
         <v>0.9975282688810911</v>
       </c>
       <c r="D319">
-        <v>0.05277856279684168</v>
+        <v>-0.02515493282035219</v>
       </c>
       <c r="E319">
         <v>0.0443065683490857</v>
@@ -9246,7 +9246,7 @@
         <v>0.9980013431067022</v>
       </c>
       <c r="D320">
-        <v>0.01279327292987387</v>
+        <v>-0.05490601292542174</v>
       </c>
       <c r="E320">
         <v>0.03984158655509231</v>
@@ -9272,7 +9272,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D321">
-        <v>0.01252780137986231</v>
+        <v>-0.05480746198447806</v>
       </c>
       <c r="E321">
         <v>0.03976474404886412</v>
@@ -9298,7 +9298,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D322">
-        <v>0.01252780137986231</v>
+        <v>-0.05480746198447806</v>
       </c>
       <c r="E322">
         <v>0.03976474404886412</v>
@@ -9324,7 +9324,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D323">
-        <v>0.01252780137986231</v>
+        <v>-0.05480746198447806</v>
       </c>
       <c r="E323">
         <v>0.03976474404886412</v>
@@ -9350,7 +9350,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D324">
-        <v>0.01252780137986231</v>
+        <v>-0.05480746198447806</v>
       </c>
       <c r="E324">
         <v>0.03976474404886412</v>
@@ -9376,7 +9376,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D325">
-        <v>0.01252780137986231</v>
+        <v>-0.05480746198447806</v>
       </c>
       <c r="E325">
         <v>0.03976474404886412</v>
@@ -9402,7 +9402,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D326">
-        <v>0.01252780137986231</v>
+        <v>-0.05480746198447806</v>
       </c>
       <c r="E326">
         <v>0.03976474404886412</v>
@@ -9428,7 +9428,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D327">
-        <v>0.01252780137986231</v>
+        <v>-0.05480746198447806</v>
       </c>
       <c r="E327">
         <v>0.03976474404886412</v>
@@ -9454,7 +9454,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D328">
-        <v>0.01252780137986231</v>
+        <v>-0.05480746198447806</v>
       </c>
       <c r="E328">
         <v>0.03976474404886412</v>
@@ -9480,7 +9480,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D329">
-        <v>0.01252780137986231</v>
+        <v>-0.05480746198447806</v>
       </c>
       <c r="E329">
         <v>0.03976474404886412</v>
@@ -9506,7 +9506,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D330">
-        <v>0.01252780137986231</v>
+        <v>-0.05480746198447806</v>
       </c>
       <c r="E330">
         <v>0.03976474404886412</v>
@@ -9532,7 +9532,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D331">
-        <v>0.01252780137986231</v>
+        <v>-0.05480746198447806</v>
       </c>
       <c r="E331">
         <v>0.03976474404886412</v>
@@ -9558,7 +9558,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D332">
-        <v>0.01252780137986231</v>
+        <v>-0.05480746198447806</v>
       </c>
       <c r="E332">
         <v>0.03976474404886412</v>
@@ -9584,7 +9584,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D333">
-        <v>0.01252780137986231</v>
+        <v>-0.05480746198447806</v>
       </c>
       <c r="E333">
         <v>0.03976474404886412</v>
@@ -9610,7 +9610,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D334">
-        <v>0.01252780137986231</v>
+        <v>-0.05480746198447806</v>
       </c>
       <c r="E334">
         <v>0.03976474404886412</v>
@@ -9636,7 +9636,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D335">
-        <v>0.01252780137986231</v>
+        <v>-0.05480746198447806</v>
       </c>
       <c r="E335">
         <v>0.03976474404886412</v>
@@ -9662,7 +9662,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D336">
-        <v>0.01252780137986231</v>
+        <v>-0.05480746198447806</v>
       </c>
       <c r="E336">
         <v>0.03976474404886412</v>
@@ -9688,7 +9688,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D337">
-        <v>0.01252780137986231</v>
+        <v>-0.05480746198447806</v>
       </c>
       <c r="E337">
         <v>0.03976474404886412</v>
@@ -9714,7 +9714,7 @@
         <v>0.6617662584083568</v>
       </c>
       <c r="D338">
-        <v>-1.047427044424333</v>
+        <v>0.4315717094225662</v>
       </c>
       <c r="E338">
         <v>0.5182937435937477</v>
@@ -9740,7 +9740,7 @@
         <v>0.7607040102843549</v>
       </c>
       <c r="D339">
-        <v>-0.4283724827601434</v>
+        <v>0.1654115797325105</v>
       </c>
       <c r="E339">
         <v>0.4359485241374713</v>
@@ -9766,7 +9766,7 @@
         <v>0.8124773409527077</v>
       </c>
       <c r="D340">
-        <v>-0.3031544555448265</v>
+        <v>0.1268718025876692</v>
       </c>
       <c r="E340">
         <v>0.385917415644165</v>
@@ -9792,7 +9792,7 @@
         <v>0.8647359701054218</v>
       </c>
       <c r="D341">
-        <v>-0.1274066421798106</v>
+        <v>0.04425791237511212</v>
       </c>
       <c r="E341">
         <v>0.3277620464558021</v>
@@ -9818,7 +9818,7 @@
         <v>0.8994762711528651</v>
       </c>
       <c r="D342">
-        <v>0.02825220882907498</v>
+        <v>0.308400525315499</v>
       </c>
       <c r="E342">
         <v>0.2825542190654215</v>
@@ -9844,7 +9844,7 @@
         <v>0.9443392822951576</v>
       </c>
       <c r="D343">
-        <v>0.2191419512446993</v>
+        <v>0.3676504624096022</v>
       </c>
       <c r="E343">
         <v>0.2102528553536921</v>
@@ -9870,7 +9870,7 @@
         <v>0.9739226961378924</v>
       </c>
       <c r="D344">
-        <v>0.1881090963683045</v>
+        <v>0.3455670597845344</v>
       </c>
       <c r="E344">
         <v>0.1439126085651456</v>
@@ -9896,7 +9896,7 @@
         <v>0.9886842784057523</v>
       </c>
       <c r="D345">
-        <v>0.1527799898537866</v>
+        <v>0.3361125123269424</v>
       </c>
       <c r="E345">
         <v>0.09480006353234666</v>
@@ -9922,7 +9922,7 @@
         <v>0.9951688779915958</v>
       </c>
       <c r="D346">
-        <v>0.1328953175529027</v>
+        <v>0.3061040075407295</v>
       </c>
       <c r="E346">
         <v>0.06194289576406881</v>
@@ -9948,7 +9948,7 @@
         <v>0.9975282688810911</v>
       </c>
       <c r="D347">
-        <v>0.1365026160387406</v>
+        <v>0.3049269579967493</v>
       </c>
       <c r="E347">
         <v>0.0443065683490857</v>
@@ -9974,7 +9974,7 @@
         <v>0.9980013431067022</v>
       </c>
       <c r="D348">
-        <v>0.1047015531616653</v>
+        <v>0.2799175615265759</v>
       </c>
       <c r="E348">
         <v>0.03984158655509231</v>
@@ -10000,7 +10000,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D349">
-        <v>0.1045022908918251</v>
+        <v>0.2800161124675195</v>
       </c>
       <c r="E349">
         <v>0.03976474404886412</v>
@@ -10026,7 +10026,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D350">
-        <v>0.1045022908918251</v>
+        <v>0.2800161124675195</v>
       </c>
       <c r="E350">
         <v>0.03976474404886412</v>
@@ -10052,7 +10052,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D351">
-        <v>0.1045022908918251</v>
+        <v>0.2800161124675195</v>
       </c>
       <c r="E351">
         <v>0.03976474404886412</v>
@@ -10078,7 +10078,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D352">
-        <v>0.1045022908918251</v>
+        <v>0.2800161124675195</v>
       </c>
       <c r="E352">
         <v>0.03976474404886412</v>
@@ -10104,7 +10104,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D353">
-        <v>0.1045022908918251</v>
+        <v>0.2800161124675195</v>
       </c>
       <c r="E353">
         <v>0.03976474404886412</v>
@@ -10130,7 +10130,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D354">
-        <v>0.1045022908918251</v>
+        <v>0.2800161124675195</v>
       </c>
       <c r="E354">
         <v>0.03976474404886412</v>
@@ -10156,7 +10156,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D355">
-        <v>0.1045022908918251</v>
+        <v>0.2800161124675195</v>
       </c>
       <c r="E355">
         <v>0.03976474404886412</v>
@@ -10182,7 +10182,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D356">
-        <v>0.1045022908918251</v>
+        <v>0.2800161124675195</v>
       </c>
       <c r="E356">
         <v>0.03976474404886412</v>
@@ -10208,7 +10208,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D357">
-        <v>0.1045022908918251</v>
+        <v>0.2800161124675195</v>
       </c>
       <c r="E357">
         <v>0.03976474404886412</v>
@@ -10234,7 +10234,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D358">
-        <v>0.1045022908918251</v>
+        <v>0.2800161124675195</v>
       </c>
       <c r="E358">
         <v>0.03976474404886412</v>
@@ -10260,7 +10260,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D359">
-        <v>0.1045022908918251</v>
+        <v>0.2800161124675195</v>
       </c>
       <c r="E359">
         <v>0.03976474404886412</v>
@@ -10286,7 +10286,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D360">
-        <v>0.1045022908918251</v>
+        <v>0.2800161124675195</v>
       </c>
       <c r="E360">
         <v>0.03976474404886412</v>
@@ -10312,7 +10312,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D361">
-        <v>0.1045022908918251</v>
+        <v>0.2800161124675195</v>
       </c>
       <c r="E361">
         <v>0.03976474404886412</v>
@@ -10338,7 +10338,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D362">
-        <v>0.1045022908918251</v>
+        <v>0.2800161124675195</v>
       </c>
       <c r="E362">
         <v>0.03976474404886412</v>
@@ -10364,7 +10364,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D363">
-        <v>0.1045022908918251</v>
+        <v>0.2800161124675195</v>
       </c>
       <c r="E363">
         <v>0.03976474404886412</v>
@@ -10390,7 +10390,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D364">
-        <v>0.1045022908918251</v>
+        <v>0.2800161124675195</v>
       </c>
       <c r="E364">
         <v>0.03976474404886412</v>
@@ -10416,7 +10416,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D365">
-        <v>0.1045022908918251</v>
+        <v>0.2800161124675195</v>
       </c>
       <c r="E365">
         <v>0.03976474404886412</v>
@@ -10442,7 +10442,7 @@
         <v>0.6617662584083569</v>
       </c>
       <c r="D366">
-        <v>-0.3482993780559929</v>
+        <v>0.3719863143626775</v>
       </c>
       <c r="E366">
         <v>0.5182937435937477</v>
@@ -10468,7 +10468,7 @@
         <v>0.754930884585269</v>
       </c>
       <c r="D367">
-        <v>-0.2603798670556747</v>
+        <v>0.3379840899959717</v>
       </c>
       <c r="E367">
         <v>0.4411759129700276</v>
@@ -10494,7 +10494,7 @@
         <v>0.799665173945864</v>
       </c>
       <c r="D368">
-        <v>0.1716558578260929</v>
+        <v>0.3506321171089439</v>
       </c>
       <c r="E368">
         <v>0.3988831842807714</v>
@@ -10520,7 +10520,7 @@
         <v>0.8420617332333896</v>
       </c>
       <c r="D369">
-        <v>0.2615935253793571</v>
+        <v>0.4422843356247813</v>
       </c>
       <c r="E369">
         <v>0.35416952202658</v>
@@ -10546,7 +10546,7 @@
         <v>0.90547905443077</v>
       </c>
       <c r="D370">
-        <v>0.01548525122779709</v>
+        <v>0.301646579926425</v>
       </c>
       <c r="E370">
         <v>0.2739879924829893</v>
@@ -10572,7 +10572,7 @@
         <v>0.9322188062150314</v>
       </c>
       <c r="D371">
-        <v>0.04671567636030272</v>
+        <v>0.2117382185507775</v>
       </c>
       <c r="E371">
         <v>0.2320182294091991</v>
@@ -10598,7 +10598,7 @@
         <v>0.9517964725248765</v>
       </c>
       <c r="D372">
-        <v>0.05337846083715736</v>
+        <v>0.2230206511521236</v>
       </c>
       <c r="E372">
         <v>0.1956621907216429</v>
@@ -10624,7 +10624,7 @@
         <v>0.9661856332284054</v>
       </c>
       <c r="D373">
-        <v>0.1385964162091435</v>
+        <v>0.07581649205412488</v>
       </c>
       <c r="E373">
         <v>0.1638770475487429</v>
@@ -10650,7 +10650,7 @@
         <v>0.9783714559551473</v>
       </c>
       <c r="D374">
-        <v>0.1277343045827889</v>
+        <v>0.04870126424805432</v>
       </c>
       <c r="E374">
         <v>0.1310633137108687</v>
@@ -10676,7 +10676,7 @@
         <v>0.9945087424547524</v>
       </c>
       <c r="D375">
-        <v>0.07258555774853692</v>
+        <v>0.02748692999492042</v>
       </c>
       <c r="E375">
         <v>0.06603944397272481</v>
@@ -10702,7 +10702,7 @@
         <v>0.9979207783780919</v>
       </c>
       <c r="D376">
-        <v>0.001122077733301308</v>
+        <v>-0.116652556472211</v>
       </c>
       <c r="E376">
         <v>0.04063664948126169</v>
@@ -10728,7 +10728,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D377">
-        <v>0.1320121765240465</v>
+        <v>0.03860985965952624</v>
       </c>
       <c r="E377">
         <v>0.03976474404886412</v>
@@ -10754,7 +10754,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D378">
-        <v>0.1320121765240465</v>
+        <v>0.03860985965952624</v>
       </c>
       <c r="E378">
         <v>0.03976474404886412</v>
@@ -10780,7 +10780,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D379">
-        <v>0.1320121765240465</v>
+        <v>0.03860985965952624</v>
       </c>
       <c r="E379">
         <v>0.03976474404886412</v>
@@ -10806,7 +10806,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D380">
-        <v>0.1320121765240465</v>
+        <v>0.03860985965952624</v>
       </c>
       <c r="E380">
         <v>0.03976474404886412</v>
@@ -10832,7 +10832,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D381">
-        <v>0.1320121765240465</v>
+        <v>0.03860985965952624</v>
       </c>
       <c r="E381">
         <v>0.03976474404886412</v>
@@ -10858,7 +10858,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D382">
-        <v>0.1320121765240465</v>
+        <v>0.03860985965952624</v>
       </c>
       <c r="E382">
         <v>0.03976474404886412</v>
@@ -10884,7 +10884,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D383">
-        <v>0.1320121765240465</v>
+        <v>0.03860985965952624</v>
       </c>
       <c r="E383">
         <v>0.03976474404886412</v>
@@ -10910,7 +10910,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D384">
-        <v>0.1320121765240465</v>
+        <v>0.03860985965952624</v>
       </c>
       <c r="E384">
         <v>0.03976474404886412</v>
@@ -10936,7 +10936,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D385">
-        <v>0.1320121765240465</v>
+        <v>0.03860985965952624</v>
       </c>
       <c r="E385">
         <v>0.03976474404886412</v>
@@ -10962,7 +10962,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D386">
-        <v>0.1320121765240465</v>
+        <v>0.03860985965952624</v>
       </c>
       <c r="E386">
         <v>0.03976474404886412</v>
@@ -10988,7 +10988,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D387">
-        <v>0.1320121765240465</v>
+        <v>0.03860985965952624</v>
       </c>
       <c r="E387">
         <v>0.03976474404886412</v>
@@ -11014,7 +11014,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D388">
-        <v>0.1320121765240465</v>
+        <v>0.03860985965952624</v>
       </c>
       <c r="E388">
         <v>0.03976474404886412</v>
@@ -11040,7 +11040,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D389">
-        <v>0.1320121765240465</v>
+        <v>0.03860985965952624</v>
       </c>
       <c r="E389">
         <v>0.03976474404886412</v>
@@ -11066,7 +11066,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D390">
-        <v>0.1320121765240465</v>
+        <v>0.03860985965952624</v>
       </c>
       <c r="E390">
         <v>0.03976474404886412</v>
@@ -11092,7 +11092,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D391">
-        <v>0.1320121765240465</v>
+        <v>0.03860985965952624</v>
       </c>
       <c r="E391">
         <v>0.03976474404886412</v>
@@ -11118,7 +11118,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D392">
-        <v>0.1320121765240465</v>
+        <v>0.03860985965952624</v>
       </c>
       <c r="E392">
         <v>0.03976474404886412</v>
@@ -11144,7 +11144,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D393">
-        <v>0.1320121765240465</v>
+        <v>0.03860985965952624</v>
       </c>
       <c r="E393">
         <v>0.03976474404886412</v>
@@ -11170,7 +11170,7 @@
         <v>0.6617662584083568</v>
       </c>
       <c r="D394">
-        <v>-1.047427044424343</v>
+        <v>0.4315717094225655</v>
       </c>
       <c r="E394">
         <v>0.5182937435937477</v>
@@ -11196,7 +11196,7 @@
         <v>0.754930884585269</v>
       </c>
       <c r="D395">
-        <v>-0.7472920235636453</v>
+        <v>0.4116693904343212</v>
       </c>
       <c r="E395">
         <v>0.4411759129700276</v>
@@ -11222,7 +11222,7 @@
         <v>0.799665173945864</v>
       </c>
       <c r="D396">
-        <v>-0.07744696566251297</v>
+        <v>0.507026890677288</v>
       </c>
       <c r="E396">
         <v>0.3988831842807714</v>
@@ -11248,7 +11248,7 @@
         <v>0.8420617332333896</v>
       </c>
       <c r="D397">
-        <v>0.1389971597452706</v>
+        <v>0.5170948444594776</v>
       </c>
       <c r="E397">
         <v>0.35416952202658</v>
@@ -11274,7 +11274,7 @@
         <v>0.8953324427473045</v>
       </c>
       <c r="D398">
-        <v>-0.1316171657979681</v>
+        <v>0.3850855322610744</v>
       </c>
       <c r="E398">
         <v>0.2883191877631565</v>
@@ -11300,7 +11300,7 @@
         <v>0.9226058358134077</v>
       </c>
       <c r="D399">
-        <v>-0.1397655324366953</v>
+        <v>0.3566628908358345</v>
       </c>
       <c r="E399">
         <v>0.2479257346119995</v>
@@ -11326,7 +11326,7 @@
         <v>0.9486509103975249</v>
       </c>
       <c r="D400">
-        <v>-0.1051668882047447</v>
+        <v>0.3786648240015166</v>
       </c>
       <c r="E400">
         <v>0.2019453583849748</v>
@@ -11352,7 +11352,7 @@
         <v>0.9600115251785192</v>
       </c>
       <c r="D401">
-        <v>-0.1742198908183137</v>
+        <v>0.3245276079376895</v>
       </c>
       <c r="E401">
         <v>0.1782111700714188</v>
@@ -11378,7 +11378,7 @@
         <v>0.9713651538733437</v>
       </c>
       <c r="D402">
-        <v>-0.2118424974046476</v>
+        <v>0.2555597872367489</v>
       </c>
       <c r="E402">
         <v>0.1508047178249514</v>
@@ -11404,7 +11404,7 @@
         <v>0.9831879219906211</v>
       </c>
       <c r="D403">
-        <v>-0.1562550474415068</v>
+        <v>0.2697160228143002</v>
       </c>
       <c r="E403">
         <v>0.1155521950296438</v>
@@ -11430,7 +11430,7 @@
         <v>0.9938560896302274</v>
       </c>
       <c r="D404">
-        <v>-0.294839976134903</v>
+        <v>0.2250969252526613</v>
       </c>
       <c r="E404">
         <v>0.0698537840394263</v>
@@ -11456,7 +11456,7 @@
         <v>0.9976565706888075</v>
       </c>
       <c r="D405">
-        <v>-0.3631819536463885</v>
+        <v>0.1695305960116025</v>
       </c>
       <c r="E405">
         <v>0.0431413201214398</v>
@@ -11482,7 +11482,7 @@
         <v>0.9979966042875452</v>
       </c>
       <c r="D406">
-        <v>-0.3452540056197586</v>
+        <v>0.1732781143024584</v>
       </c>
       <c r="E406">
         <v>0.03988879082867293</v>
@@ -11508,7 +11508,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D407">
-        <v>-0.3436757643275814</v>
+        <v>0.1716099860830426</v>
       </c>
       <c r="E407">
         <v>0.03976474404886412</v>
@@ -11534,7 +11534,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D408">
-        <v>-0.3436757643275814</v>
+        <v>0.1716099860830426</v>
       </c>
       <c r="E408">
         <v>0.03976474404886412</v>
@@ -11560,7 +11560,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D409">
-        <v>-0.3436757643275814</v>
+        <v>0.1716099860830426</v>
       </c>
       <c r="E409">
         <v>0.03976474404886412</v>
@@ -11586,7 +11586,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D410">
-        <v>-0.3436757643275814</v>
+        <v>0.1716099860830426</v>
       </c>
       <c r="E410">
         <v>0.03976474404886412</v>
@@ -11612,7 +11612,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D411">
-        <v>-0.3436757643275814</v>
+        <v>0.1716099860830426</v>
       </c>
       <c r="E411">
         <v>0.03976474404886412</v>
@@ -11638,7 +11638,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D412">
-        <v>-0.3436757643275814</v>
+        <v>0.1716099860830426</v>
       </c>
       <c r="E412">
         <v>0.03976474404886412</v>
@@ -11664,7 +11664,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D413">
-        <v>-0.3436757643275814</v>
+        <v>0.1716099860830426</v>
       </c>
       <c r="E413">
         <v>0.03976474404886412</v>
@@ -11690,7 +11690,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D414">
-        <v>-0.3436757643275814</v>
+        <v>0.1716099860830426</v>
       </c>
       <c r="E414">
         <v>0.03976474404886412</v>
@@ -11716,7 +11716,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D415">
-        <v>-0.3436757643275814</v>
+        <v>0.1716099860830426</v>
       </c>
       <c r="E415">
         <v>0.03976474404886412</v>
@@ -11742,7 +11742,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D416">
-        <v>-0.3436757643275814</v>
+        <v>0.1716099860830426</v>
       </c>
       <c r="E416">
         <v>0.03976474404886412</v>
@@ -11768,7 +11768,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D417">
-        <v>-0.3436757643275814</v>
+        <v>0.1716099860830426</v>
       </c>
       <c r="E417">
         <v>0.03976474404886412</v>
@@ -11794,7 +11794,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D418">
-        <v>-0.3436757643275814</v>
+        <v>0.1716099860830426</v>
       </c>
       <c r="E418">
         <v>0.03976474404886412</v>
@@ -11820,7 +11820,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D419">
-        <v>-0.3436757643275814</v>
+        <v>0.1716099860830426</v>
       </c>
       <c r="E419">
         <v>0.03976474404886412</v>
@@ -11846,7 +11846,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D420">
-        <v>-0.3436757643275814</v>
+        <v>0.1716099860830426</v>
       </c>
       <c r="E420">
         <v>0.03976474404886412</v>
@@ -11872,7 +11872,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D421">
-        <v>-0.3436757643275814</v>
+        <v>0.1716099860830426</v>
       </c>
       <c r="E421">
         <v>0.03976474404886412</v>
@@ -11898,7 +11898,7 @@
         <v>0.6092339592490578</v>
       </c>
       <c r="D422">
-        <v>-0.6386650798546889</v>
+        <v>-0.04586725092418442</v>
       </c>
       <c r="E422">
         <v>0.5570907004525889</v>
@@ -11924,7 +11924,7 @@
         <v>0.7106264304642361</v>
       </c>
       <c r="D423">
-        <v>-0.2352828453652374</v>
+        <v>-0.2418692962050331</v>
       </c>
       <c r="E423">
         <v>0.4793987885840484</v>
@@ -11950,7 +11950,7 @@
         <v>0.8128764866611318</v>
       </c>
       <c r="D424">
-        <v>-0.1768488490327333</v>
+        <v>-0.2765074500987428</v>
       </c>
       <c r="E424">
         <v>0.3855064804103956</v>
@@ -11976,7 +11976,7 @@
         <v>0.860431590381421</v>
       </c>
       <c r="D425">
-        <v>-0.290501617717178</v>
+        <v>-0.1532010602781448</v>
       </c>
       <c r="E425">
         <v>0.3329362368052938</v>
@@ -12002,7 +12002,7 @@
         <v>0.890774124561846</v>
       </c>
       <c r="D426">
-        <v>-0.1841526578439407</v>
+        <v>-0.5100696023784501</v>
       </c>
       <c r="E426">
         <v>0.2945304959039771</v>
@@ -12028,7 +12028,7 @@
         <v>0.9292529764533987</v>
       </c>
       <c r="D427">
-        <v>-0.07839902039973934</v>
+        <v>0.07602618790895599</v>
       </c>
       <c r="E427">
         <v>0.2370399724637851</v>
@@ -12054,7 +12054,7 @@
         <v>0.9588959798160119</v>
       </c>
       <c r="D428">
-        <v>-0.100481292088141</v>
+        <v>0.07321073488784013</v>
       </c>
       <c r="E428">
         <v>0.1806798209834676</v>
@@ -12080,7 +12080,7 @@
         <v>0.9778278804452132</v>
       </c>
       <c r="D429">
-        <v>-0.02851985547242064</v>
+        <v>0.09412356422374202</v>
       </c>
       <c r="E429">
         <v>0.1327000563702677</v>
@@ -12106,7 +12106,7 @@
         <v>0.9896036991803775</v>
       </c>
       <c r="D430">
-        <v>-0.01564830938067296</v>
+        <v>0.08812085813504189</v>
       </c>
       <c r="E430">
         <v>0.09086715279718011</v>
@@ -12132,7 +12132,7 @@
         <v>0.9941698054772035</v>
       </c>
       <c r="D431">
-        <v>-0.04367132588725564</v>
+        <v>0.0743356643011972</v>
       </c>
       <c r="E431">
         <v>0.06804700641069519</v>
@@ -12158,7 +12158,7 @@
         <v>0.9963418572064512</v>
       </c>
       <c r="D432">
-        <v>-0.02850459684518936</v>
+        <v>0.09404604190297716</v>
       </c>
       <c r="E432">
         <v>0.05390112484840811</v>
@@ -12184,7 +12184,7 @@
         <v>0.9973613662511657</v>
       </c>
       <c r="D433">
-        <v>-0.03812143382985789</v>
+        <v>0.0693438616365244</v>
       </c>
       <c r="E433">
         <v>0.04577802562763033</v>
@@ -12210,7 +12210,7 @@
         <v>0.997875957550704</v>
       </c>
       <c r="D434">
-        <v>0.06152854463877055</v>
+        <v>0.02578526681008431</v>
       </c>
       <c r="E434">
         <v>0.0410723069945856</v>
@@ -12236,7 +12236,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D435">
-        <v>-0.009923950241078394</v>
+        <v>0.08819507364289147</v>
       </c>
       <c r="E435">
         <v>0.03976474404886412</v>
@@ -12262,7 +12262,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D436">
-        <v>-0.009923950241078394</v>
+        <v>0.08819507364289147</v>
       </c>
       <c r="E436">
         <v>0.03976474404886412</v>
@@ -12288,7 +12288,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D437">
-        <v>-0.009923950241078394</v>
+        <v>0.08819507364289147</v>
       </c>
       <c r="E437">
         <v>0.03976474404886412</v>
@@ -12314,7 +12314,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D438">
-        <v>-0.009923950241078394</v>
+        <v>0.08819507364289147</v>
       </c>
       <c r="E438">
         <v>0.03976474404886412</v>
@@ -12340,7 +12340,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D439">
-        <v>-0.009923950241078394</v>
+        <v>0.08819507364289147</v>
       </c>
       <c r="E439">
         <v>0.03976474404886412</v>
@@ -12366,7 +12366,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D440">
-        <v>-0.009923950241078394</v>
+        <v>0.08819507364289147</v>
       </c>
       <c r="E440">
         <v>0.03976474404886412</v>
@@ -12392,7 +12392,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D441">
-        <v>-0.009923950241078394</v>
+        <v>0.08819507364289147</v>
       </c>
       <c r="E441">
         <v>0.03976474404886412</v>
@@ -12418,7 +12418,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D442">
-        <v>-0.009923950241078394</v>
+        <v>0.08819507364289147</v>
       </c>
       <c r="E442">
         <v>0.03976474404886412</v>
@@ -12444,7 +12444,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D443">
-        <v>-0.009923950241078394</v>
+        <v>0.08819507364289147</v>
       </c>
       <c r="E443">
         <v>0.03976474404886412</v>
@@ -12470,7 +12470,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D444">
-        <v>-0.009923950241078394</v>
+        <v>0.08819507364289147</v>
       </c>
       <c r="E444">
         <v>0.03976474404886412</v>
@@ -12496,7 +12496,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D445">
-        <v>-0.009923950241078394</v>
+        <v>0.08819507364289147</v>
       </c>
       <c r="E445">
         <v>0.03976474404886412</v>
@@ -12522,7 +12522,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D446">
-        <v>-0.009923950241078394</v>
+        <v>0.08819507364289147</v>
       </c>
       <c r="E446">
         <v>0.03976474404886412</v>
@@ -12548,7 +12548,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D447">
-        <v>-0.009923950241078394</v>
+        <v>0.08819507364289147</v>
       </c>
       <c r="E447">
         <v>0.03976474404886412</v>
@@ -12574,7 +12574,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D448">
-        <v>-0.009923950241078394</v>
+        <v>0.08819507364289147</v>
       </c>
       <c r="E448">
         <v>0.03976474404886412</v>
@@ -12600,7 +12600,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D449">
-        <v>-0.009923950241078394</v>
+        <v>0.08819507364289147</v>
       </c>
       <c r="E449">
         <v>0.03976474404886412</v>
@@ -12626,7 +12626,7 @@
         <v>0.5903572035220201</v>
       </c>
       <c r="D450">
-        <v>-0.6103531297429623</v>
+        <v>0.1532766421675106</v>
       </c>
       <c r="E450">
         <v>0.5703877143514314</v>
@@ -12652,7 +12652,7 @@
         <v>0.6678311610050769</v>
       </c>
       <c r="D451">
-        <v>-0.8019373899966675</v>
+        <v>0.1789804301354977</v>
       </c>
       <c r="E451">
         <v>0.513625936082815</v>
@@ -12678,7 +12678,7 @@
         <v>0.7636287721458224</v>
       </c>
       <c r="D452">
-        <v>-0.4016029502858809</v>
+        <v>0.03938324853433572</v>
       </c>
       <c r="E452">
         <v>0.4332761734056474</v>
@@ -12704,7 +12704,7 @@
         <v>0.8262751673389552</v>
       </c>
       <c r="D453">
-        <v>-0.2366805940951155</v>
+        <v>0.1688702629789575</v>
       </c>
       <c r="E453">
         <v>0.3714483662429523</v>
@@ -12730,7 +12730,7 @@
         <v>0.8984164875076759</v>
       </c>
       <c r="D454">
-        <v>0.1371017707617019</v>
+        <v>0.266157029519151</v>
       </c>
       <c r="E454">
         <v>0.2840397451168429</v>
@@ -12756,7 +12756,7 @@
         <v>0.9387924709309364</v>
       </c>
       <c r="D455">
-        <v>0.1491794773658798</v>
+        <v>0.2450698379825533</v>
       </c>
       <c r="E455">
         <v>0.2204803680780181</v>
@@ -12782,7 +12782,7 @@
         <v>0.9678263231830344</v>
       </c>
       <c r="D456">
-        <v>0.1591051788610299</v>
+        <v>0.2433136963293636</v>
       </c>
       <c r="E456">
         <v>0.1598519170626565</v>
@@ -12808,7 +12808,7 @@
         <v>0.9844211067091867</v>
       </c>
       <c r="D457">
-        <v>0.2009001976392129</v>
+        <v>0.2375243534684892</v>
       </c>
       <c r="E457">
         <v>0.1112335512589114</v>
@@ -12834,7 +12834,7 @@
         <v>0.9925960035506193</v>
       </c>
       <c r="D458">
-        <v>0.139064330151861</v>
+        <v>0.3054015234495149</v>
       </c>
       <c r="E458">
         <v>0.07668326615344184</v>
@@ -12860,7 +12860,7 @@
         <v>0.9968787217517698</v>
       </c>
       <c r="D459">
-        <v>0.1377167536807891</v>
+        <v>0.3055253326995347</v>
       </c>
       <c r="E459">
         <v>0.04978903906545303</v>
@@ -12886,7 +12886,7 @@
         <v>0.997836263375747</v>
       </c>
       <c r="D460">
-        <v>0.1404878108655437</v>
+        <v>0.3068877114739861</v>
       </c>
       <c r="E460">
         <v>0.04145431084082316</v>
@@ -12912,7 +12912,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D461">
-        <v>0.1956138858253171</v>
+        <v>0.24645754652381</v>
       </c>
       <c r="E461">
         <v>0.03976474404886412</v>
@@ -12938,7 +12938,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D462">
-        <v>0.1956138858253171</v>
+        <v>0.24645754652381</v>
       </c>
       <c r="E462">
         <v>0.03976474404886412</v>
@@ -12964,7 +12964,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D463">
-        <v>0.1956138858253171</v>
+        <v>0.24645754652381</v>
       </c>
       <c r="E463">
         <v>0.03976474404886412</v>
@@ -12990,7 +12990,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D464">
-        <v>0.1956138858253171</v>
+        <v>0.24645754652381</v>
       </c>
       <c r="E464">
         <v>0.03976474404886412</v>
@@ -13016,7 +13016,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D465">
-        <v>0.1956138858253171</v>
+        <v>0.24645754652381</v>
       </c>
       <c r="E465">
         <v>0.03976474404886412</v>
@@ -13042,7 +13042,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D466">
-        <v>0.1956138858253171</v>
+        <v>0.24645754652381</v>
       </c>
       <c r="E466">
         <v>0.03976474404886412</v>
@@ -13068,7 +13068,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D467">
-        <v>0.1956138858253171</v>
+        <v>0.24645754652381</v>
       </c>
       <c r="E467">
         <v>0.03976474404886412</v>
@@ -13094,7 +13094,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D468">
-        <v>0.1956138858253171</v>
+        <v>0.24645754652381</v>
       </c>
       <c r="E468">
         <v>0.03976474404886412</v>
@@ -13120,7 +13120,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D469">
-        <v>0.1956138858253171</v>
+        <v>0.24645754652381</v>
       </c>
       <c r="E469">
         <v>0.03976474404886412</v>
@@ -13146,7 +13146,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D470">
-        <v>0.1956138858253171</v>
+        <v>0.24645754652381</v>
       </c>
       <c r="E470">
         <v>0.03976474404886412</v>
@@ -13172,7 +13172,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D471">
-        <v>0.1956138858253171</v>
+        <v>0.24645754652381</v>
       </c>
       <c r="E471">
         <v>0.03976474404886412</v>
@@ -13198,7 +13198,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D472">
-        <v>0.1956138858253171</v>
+        <v>0.24645754652381</v>
       </c>
       <c r="E472">
         <v>0.03976474404886412</v>
@@ -13224,7 +13224,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D473">
-        <v>0.1956138858253171</v>
+        <v>0.24645754652381</v>
       </c>
       <c r="E473">
         <v>0.03976474404886412</v>
@@ -13250,7 +13250,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D474">
-        <v>0.1956138858253171</v>
+        <v>0.24645754652381</v>
       </c>
       <c r="E474">
         <v>0.03976474404886412</v>
@@ -13276,7 +13276,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D475">
-        <v>0.1956138858253171</v>
+        <v>0.24645754652381</v>
       </c>
       <c r="E475">
         <v>0.03976474404886412</v>
@@ -13302,7 +13302,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D476">
-        <v>0.1956138858253171</v>
+        <v>0.24645754652381</v>
       </c>
       <c r="E476">
         <v>0.03976474404886412</v>
@@ -13328,7 +13328,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D477">
-        <v>0.1956138858253171</v>
+        <v>0.24645754652381</v>
       </c>
       <c r="E477">
         <v>0.03976474404886412</v>
@@ -13354,7 +13354,7 @@
         <v>0.5903572035220201</v>
       </c>
       <c r="D478">
-        <v>-0.6103531297429623</v>
+        <v>0.1532766421675106</v>
       </c>
       <c r="E478">
         <v>0.5703877143514314</v>
@@ -13380,7 +13380,7 @@
         <v>0.6678311610050769</v>
       </c>
       <c r="D479">
-        <v>-0.8019373899966675</v>
+        <v>0.1789804301354977</v>
       </c>
       <c r="E479">
         <v>0.513625936082815</v>
@@ -13406,7 +13406,7 @@
         <v>0.7636287721458224</v>
       </c>
       <c r="D480">
-        <v>-0.4016029502858809</v>
+        <v>0.03938324853433572</v>
       </c>
       <c r="E480">
         <v>0.4332761734056474</v>
@@ -13432,7 +13432,7 @@
         <v>0.8262751673389552</v>
       </c>
       <c r="D481">
-        <v>-0.2366805940951155</v>
+        <v>0.1688702629789575</v>
       </c>
       <c r="E481">
         <v>0.3714483662429523</v>
@@ -13458,7 +13458,7 @@
         <v>0.8984164875076759</v>
       </c>
       <c r="D482">
-        <v>0.1371017707617019</v>
+        <v>0.266157029519151</v>
       </c>
       <c r="E482">
         <v>0.2840397451168429</v>
@@ -13484,7 +13484,7 @@
         <v>0.9387924709309364</v>
       </c>
       <c r="D483">
-        <v>0.1491794773658798</v>
+        <v>0.2450698379825533</v>
       </c>
       <c r="E483">
         <v>0.2204803680780181</v>
@@ -13510,7 +13510,7 @@
         <v>0.9678263231830344</v>
       </c>
       <c r="D484">
-        <v>0.1591051788610299</v>
+        <v>0.2433136963293636</v>
       </c>
       <c r="E484">
         <v>0.1598519170626565</v>
@@ -13536,7 +13536,7 @@
         <v>0.9844211067091867</v>
       </c>
       <c r="D485">
-        <v>0.2009001976392129</v>
+        <v>0.2375243534684892</v>
       </c>
       <c r="E485">
         <v>0.1112335512589114</v>
@@ -13562,7 +13562,7 @@
         <v>0.9925960035506193</v>
       </c>
       <c r="D486">
-        <v>0.139064330151861</v>
+        <v>0.3054015234495149</v>
       </c>
       <c r="E486">
         <v>0.07668326615344184</v>
@@ -13588,7 +13588,7 @@
         <v>0.9968787217517698</v>
       </c>
       <c r="D487">
-        <v>0.1377167536807891</v>
+        <v>0.3055253326995347</v>
       </c>
       <c r="E487">
         <v>0.04978903906545303</v>
@@ -13614,7 +13614,7 @@
         <v>0.997836263375747</v>
       </c>
       <c r="D488">
-        <v>0.1404878108655437</v>
+        <v>0.3068877114739861</v>
       </c>
       <c r="E488">
         <v>0.04145431084082316</v>
@@ -13640,7 +13640,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D489">
-        <v>0.1956138858253171</v>
+        <v>0.24645754652381</v>
       </c>
       <c r="E489">
         <v>0.03976474404886412</v>
@@ -13666,7 +13666,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D490">
-        <v>0.1956138858253171</v>
+        <v>0.24645754652381</v>
       </c>
       <c r="E490">
         <v>0.03976474404886412</v>
@@ -13692,7 +13692,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D491">
-        <v>0.1956138858253171</v>
+        <v>0.24645754652381</v>
       </c>
       <c r="E491">
         <v>0.03976474404886412</v>
@@ -13718,7 +13718,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D492">
-        <v>0.1956138858253171</v>
+        <v>0.24645754652381</v>
       </c>
       <c r="E492">
         <v>0.03976474404886412</v>
@@ -13744,7 +13744,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D493">
-        <v>0.1956138858253171</v>
+        <v>0.24645754652381</v>
       </c>
       <c r="E493">
         <v>0.03976474404886412</v>
@@ -13770,7 +13770,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D494">
-        <v>0.1956138858253171</v>
+        <v>0.24645754652381</v>
       </c>
       <c r="E494">
         <v>0.03976474404886412</v>
@@ -13796,7 +13796,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D495">
-        <v>0.1956138858253171</v>
+        <v>0.24645754652381</v>
       </c>
       <c r="E495">
         <v>0.03976474404886412</v>
@@ -13822,7 +13822,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D496">
-        <v>0.1956138858253171</v>
+        <v>0.24645754652381</v>
       </c>
       <c r="E496">
         <v>0.03976474404886412</v>
@@ -13848,7 +13848,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D497">
-        <v>0.1956138858253171</v>
+        <v>0.24645754652381</v>
       </c>
       <c r="E497">
         <v>0.03976474404886412</v>
@@ -13874,7 +13874,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D498">
-        <v>0.1956138858253171</v>
+        <v>0.24645754652381</v>
       </c>
       <c r="E498">
         <v>0.03976474404886412</v>
@@ -13900,7 +13900,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D499">
-        <v>0.1956138858253171</v>
+        <v>0.24645754652381</v>
       </c>
       <c r="E499">
         <v>0.03976474404886412</v>
@@ -13926,7 +13926,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D500">
-        <v>0.1956138858253171</v>
+        <v>0.24645754652381</v>
       </c>
       <c r="E500">
         <v>0.03976474404886412</v>
@@ -13952,7 +13952,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D501">
-        <v>0.1956138858253171</v>
+        <v>0.24645754652381</v>
       </c>
       <c r="E501">
         <v>0.03976474404886412</v>
@@ -13978,7 +13978,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D502">
-        <v>0.1956138858253171</v>
+        <v>0.24645754652381</v>
       </c>
       <c r="E502">
         <v>0.03976474404886412</v>
@@ -14004,7 +14004,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D503">
-        <v>0.1956138858253171</v>
+        <v>0.24645754652381</v>
       </c>
       <c r="E503">
         <v>0.03976474404886412</v>
@@ -14030,7 +14030,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D504">
-        <v>0.1956138858253171</v>
+        <v>0.24645754652381</v>
       </c>
       <c r="E504">
         <v>0.03976474404886412</v>
@@ -14056,7 +14056,7 @@
         <v>0.9980090452948603</v>
       </c>
       <c r="D505">
-        <v>0.1956138858253171</v>
+        <v>0.24645754652381</v>
       </c>
       <c r="E505">
         <v>0.03976474404886412</v>
@@ -14082,7 +14082,7 @@
         <v>0.62183919277741</v>
       </c>
       <c r="D506">
-        <v>-1.312323022040772</v>
+        <v>0.4415130391109465</v>
       </c>
       <c r="E506">
         <v>0.5480318002018808</v>
@@ -14108,7 +14108,7 @@
         <v>0.71661186780537</v>
       </c>
       <c r="D507">
-        <v>-0.6537973713182721</v>
+        <v>0.5170379961178249</v>
       </c>
       <c r="E507">
         <v>0.4744149113533901</v>
@@ -14134,7 +14134,7 @@
         <v>0.76526714245065</v>
       </c>
       <c r="D508">
-        <v>-0.2611978636134196</v>
+        <v>0.2688460929199595</v>
       </c>
       <c r="E508">
         <v>0.431771969219803</v>
@@ -14160,7 +14160,7 @@
         <v>0.8048608137299146</v>
       </c>
       <c r="D509">
-        <v>-0.701439090149788</v>
+        <v>0.4721782700368219</v>
       </c>
       <c r="E509">
         <v>0.3936767315142238</v>
@@ -14186,7 +14186,7 @@
         <v>0.8320560479665018</v>
       </c>
       <c r="D510">
-        <v>-0.18389181872504</v>
+        <v>0.5623756716956294</v>
       </c>
       <c r="E510">
         <v>0.3652159077319374</v>
@@ -14212,7 +14212,7 @@
         <v>0.8966968687532688</v>
       </c>
       <c r="D511">
-        <v>-0.06690006737140619</v>
+        <v>0.4959554371489305</v>
       </c>
       <c r="E511">
         <v>0.2864337866288942</v>
@@ -14238,7 +14238,7 @@
         <v>0.9366888506444401</v>
       </c>
       <c r="D512">
-        <v>-0.129236702583605</v>
+        <v>0.1475520061161172</v>
       </c>
       <c r="E512">
         <v>0.2242371682767063</v>
@@ -14264,7 +14264,7 @@
         <v>0.9506162221385428</v>
       </c>
       <c r="D513">
-        <v>-0.2128566479214582</v>
+        <v>0.1456790293679991</v>
       </c>
       <c r="E513">
         <v>0.1980430730578062</v>
@@ -14290,7 +14290,7 @@
         <v>0.9601646965093403</v>
       </c>
       <c r="D514">
-        <v>-0.2824137251585579</v>
+        <v>0.1328514123471275</v>
       </c>
       <c r="E514">
         <v>0.1778695337404781</v>
@@ -14316,7 +14316,7 @@
         <v>0.9657312121238241</v>
       </c>
       <c r="D515">
-        <v>-0.3631353630814451</v>
+        <v>0.09585574854241552</v>
       </c>
       <c r="E515">
         <v>0.1649745198797578</v>
@@ -14342,7 +14342,7 @@
         <v>0.9671843663791914</v>
       </c>
       <c r="D516">
-        <v>-0.08865583210754346</v>
+        <v>0.3411292082922071</v>
       </c>
       <c r="E516">
         <v>0.1614387917857042</v>
@@ -14368,7 +14368,7 @@
         <v>0.9673316284470426</v>
       </c>
       <c r="D517">
-        <v>-0.4477877952509954</v>
+        <v>0.3026698211598325</v>
       </c>
       <c r="E517">
         <v>0.1610761514937621</v>
@@ -14394,7 +14394,7 @@
         <v>0.9673316284470426</v>
       </c>
       <c r="D518">
-        <v>-0.4477877952509954</v>
+        <v>0.3026698211598325</v>
       </c>
       <c r="E518">
         <v>0.1610761514937621</v>
@@ -14420,7 +14420,7 @@
         <v>0.9673316284470426</v>
       </c>
       <c r="D519">
-        <v>-0.4477877952509954</v>
+        <v>0.3026698211598325</v>
       </c>
       <c r="E519">
         <v>0.1610761514937621</v>
@@ -14446,7 +14446,7 @@
         <v>0.9673316284470426</v>
       </c>
       <c r="D520">
-        <v>-0.4477877952509954</v>
+        <v>0.3026698211598325</v>
       </c>
       <c r="E520">
         <v>0.1610761514937621</v>
@@ -14472,7 +14472,7 @@
         <v>0.9673316284470426</v>
       </c>
       <c r="D521">
-        <v>-0.4477877952509954</v>
+        <v>0.3026698211598325</v>
       </c>
       <c r="E521">
         <v>0.1610761514937621</v>
@@ -14498,7 +14498,7 @@
         <v>0.9673316284470426</v>
       </c>
       <c r="D522">
-        <v>-0.4477877952509954</v>
+        <v>0.3026698211598325</v>
       </c>
       <c r="E522">
         <v>0.1610761514937621</v>
@@ -14524,7 +14524,7 @@
         <v>0.9673316284470426</v>
       </c>
       <c r="D523">
-        <v>-0.4477877952509954</v>
+        <v>0.3026698211598325</v>
       </c>
       <c r="E523">
         <v>0.1610761514937621</v>
@@ -14550,7 +14550,7 @@
         <v>0.9673316284470426</v>
       </c>
       <c r="D524">
-        <v>-0.4477877952509954</v>
+        <v>0.3026698211598325</v>
       </c>
       <c r="E524">
         <v>0.1610761514937621</v>
@@ -14576,7 +14576,7 @@
         <v>0.9673316284470426</v>
       </c>
       <c r="D525">
-        <v>-0.4477877952509954</v>
+        <v>0.3026698211598325</v>
       </c>
       <c r="E525">
         <v>0.1610761514937621</v>
@@ -14602,7 +14602,7 @@
         <v>0.9673316284470426</v>
       </c>
       <c r="D526">
-        <v>-0.4477877952509954</v>
+        <v>0.3026698211598325</v>
       </c>
       <c r="E526">
         <v>0.1610761514937621</v>
@@ -14628,7 +14628,7 @@
         <v>0.9673316284470426</v>
       </c>
       <c r="D527">
-        <v>-0.4477877952509954</v>
+        <v>0.3026698211598325</v>
       </c>
       <c r="E527">
         <v>0.1610761514937621</v>
@@ -14654,7 +14654,7 @@
         <v>0.9673316284470426</v>
       </c>
       <c r="D528">
-        <v>-0.4477877952509954</v>
+        <v>0.3026698211598325</v>
       </c>
       <c r="E528">
         <v>0.1610761514937621</v>
@@ -14680,7 +14680,7 @@
         <v>0.9673316284470426</v>
       </c>
       <c r="D529">
-        <v>-0.4477877952509954</v>
+        <v>0.3026698211598325</v>
       </c>
       <c r="E529">
         <v>0.1610761514937621</v>
@@ -14706,7 +14706,7 @@
         <v>0.9673316284470426</v>
       </c>
       <c r="D530">
-        <v>-0.4477877952509954</v>
+        <v>0.3026698211598325</v>
       </c>
       <c r="E530">
         <v>0.1610761514937621</v>
@@ -14732,7 +14732,7 @@
         <v>0.9673316284470426</v>
       </c>
       <c r="D531">
-        <v>-0.4477877952509954</v>
+        <v>0.3026698211598325</v>
       </c>
       <c r="E531">
         <v>0.1610761514937621</v>
@@ -14758,7 +14758,7 @@
         <v>0.9673316284470426</v>
       </c>
       <c r="D532">
-        <v>-0.4477877952509954</v>
+        <v>0.3026698211598325</v>
       </c>
       <c r="E532">
         <v>0.1610761514937621</v>
@@ -14784,7 +14784,7 @@
         <v>0.9673316284470426</v>
       </c>
       <c r="D533">
-        <v>-0.4477877952509954</v>
+        <v>0.3026698211598325</v>
       </c>
       <c r="E533">
         <v>0.1610761514937621</v>
@@ -14810,7 +14810,7 @@
         <v>0.62183919277741</v>
       </c>
       <c r="D534">
-        <v>-1.312323022040772</v>
+        <v>0.4415130391109465</v>
       </c>
       <c r="E534">
         <v>0.5480318002018808</v>
@@ -14836,7 +14836,7 @@
         <v>0.71661186780537</v>
       </c>
       <c r="D535">
-        <v>-0.6537973713182721</v>
+        <v>0.5170379961178249</v>
       </c>
       <c r="E535">
         <v>0.4744149113533901</v>
@@ -14862,7 +14862,7 @@
         <v>0.76526714245065</v>
       </c>
       <c r="D536">
-        <v>-0.2611978636134196</v>
+        <v>0.2688460929199595</v>
       </c>
       <c r="E536">
         <v>0.431771969219803</v>
@@ -14888,7 +14888,7 @@
         <v>0.8048608137299146</v>
       </c>
       <c r="D537">
-        <v>-0.701439090149788</v>
+        <v>0.4721782700368219</v>
       </c>
       <c r="E537">
         <v>0.3936767315142238</v>
@@ -14914,7 +14914,7 @@
         <v>0.8320560479665018</v>
       </c>
       <c r="D538">
-        <v>-0.18389181872504</v>
+        <v>0.5623756716956294</v>
       </c>
       <c r="E538">
         <v>0.3652159077319374</v>
@@ -14940,7 +14940,7 @@
         <v>0.8966968687532688</v>
       </c>
       <c r="D539">
-        <v>-0.06690006737140619</v>
+        <v>0.4959554371489305</v>
       </c>
       <c r="E539">
         <v>0.2864337866288942</v>
@@ -14966,7 +14966,7 @@
         <v>0.9366888506444401</v>
       </c>
       <c r="D540">
-        <v>-0.129236702583605</v>
+        <v>0.1475520061161172</v>
       </c>
       <c r="E540">
         <v>0.2242371682767063</v>
@@ -14992,7 +14992,7 @@
         <v>0.9506162221385428</v>
       </c>
       <c r="D541">
-        <v>-0.2128566479214582</v>
+        <v>0.1456790293679991</v>
       </c>
       <c r="E541">
         <v>0.1980430730578062</v>
@@ -15018,7 +15018,7 @@
         <v>0.9601646965093403</v>
       </c>
       <c r="D542">
-        <v>-0.2824137251585579</v>
+        <v>0.1328514123471275</v>
       </c>
       <c r="E542">
         <v>0.1778695337404781</v>
@@ -15044,7 +15044,7 @@
         <v>0.9657312121238241</v>
       </c>
       <c r="D543">
-        <v>-0.3631353630814451</v>
+        <v>0.09585574854241552</v>
       </c>
       <c r="E543">
         <v>0.1649745198797578</v>
@@ -15070,7 +15070,7 @@
         <v>0.9671843663791914</v>
       </c>
       <c r="D544">
-        <v>-0.08865583210754346</v>
+        <v>0.3411292082922071</v>
       </c>
       <c r="E544">
         <v>0.1614387917857042</v>
@@ -15096,7 +15096,7 @@
         <v>0.9673316284470426</v>
       </c>
       <c r="D545">
-        <v>-0.4477877952509954</v>
+        <v>0.3026698211598325</v>
       </c>
       <c r="E545">
         <v>0.1610761514937621</v>
@@ -15122,7 +15122,7 @@
         <v>0.9673316284470426</v>
       </c>
       <c r="D546">
-        <v>-0.4477877952509954</v>
+        <v>0.3026698211598325</v>
       </c>
       <c r="E546">
         <v>0.1610761514937621</v>
@@ -15148,7 +15148,7 @@
         <v>0.9673316284470426</v>
       </c>
       <c r="D547">
-        <v>-0.4477877952509954</v>
+        <v>0.3026698211598325</v>
       </c>
       <c r="E547">
         <v>0.1610761514937621</v>
@@ -15174,7 +15174,7 @@
         <v>0.9673316284470426</v>
       </c>
       <c r="D548">
-        <v>-0.4477877952509954</v>
+        <v>0.3026698211598325</v>
       </c>
       <c r="E548">
         <v>0.1610761514937621</v>
@@ -15200,7 +15200,7 @@
         <v>0.9673316284470426</v>
       </c>
       <c r="D549">
-        <v>-0.4477877952509954</v>
+        <v>0.3026698211598325</v>
       </c>
       <c r="E549">
         <v>0.1610761514937621</v>
@@ -15226,7 +15226,7 @@
         <v>0.9673316284470426</v>
       </c>
       <c r="D550">
-        <v>-0.4477877952509954</v>
+        <v>0.3026698211598325</v>
       </c>
       <c r="E550">
         <v>0.1610761514937621</v>
@@ -15252,7 +15252,7 @@
         <v>0.9673316284470426</v>
       </c>
       <c r="D551">
-        <v>-0.4477877952509954</v>
+        <v>0.3026698211598325</v>
       </c>
       <c r="E551">
         <v>0.1610761514937621</v>
@@ -15278,7 +15278,7 @@
         <v>0.9673316284470426</v>
       </c>
       <c r="D552">
-        <v>-0.4477877952509954</v>
+        <v>0.3026698211598325</v>
       </c>
       <c r="E552">
         <v>0.1610761514937621</v>
@@ -15304,7 +15304,7 @@
         <v>0.9673316284470426</v>
       </c>
       <c r="D553">
-        <v>-0.4477877952509954</v>
+        <v>0.3026698211598325</v>
       </c>
       <c r="E553">
         <v>0.1610761514937621</v>
@@ -15330,7 +15330,7 @@
         <v>0.9673316284470426</v>
       </c>
       <c r="D554">
-        <v>-0.4477877952509954</v>
+        <v>0.3026698211598325</v>
       </c>
       <c r="E554">
         <v>0.1610761514937621</v>
@@ -15356,7 +15356,7 @@
         <v>0.9673316284470426</v>
       </c>
       <c r="D555">
-        <v>-0.4477877952509954</v>
+        <v>0.3026698211598325</v>
       </c>
       <c r="E555">
         <v>0.1610761514937621</v>
@@ -15382,7 +15382,7 @@
         <v>0.9673316284470426</v>
       </c>
       <c r="D556">
-        <v>-0.4477877952509954</v>
+        <v>0.3026698211598325</v>
       </c>
       <c r="E556">
         <v>0.1610761514937621</v>
@@ -15408,7 +15408,7 @@
         <v>0.9673316284470426</v>
       </c>
       <c r="D557">
-        <v>-0.4477877952509954</v>
+        <v>0.3026698211598325</v>
       </c>
       <c r="E557">
         <v>0.1610761514937621</v>
@@ -15434,7 +15434,7 @@
         <v>0.9673316284470426</v>
       </c>
       <c r="D558">
-        <v>-0.4477877952509954</v>
+        <v>0.3026698211598325</v>
       </c>
       <c r="E558">
         <v>0.1610761514937621</v>
@@ -15460,7 +15460,7 @@
         <v>0.9673316284470426</v>
       </c>
       <c r="D559">
-        <v>-0.4477877952509954</v>
+        <v>0.3026698211598325</v>
       </c>
       <c r="E559">
         <v>0.1610761514937621</v>
@@ -15486,7 +15486,7 @@
         <v>0.9673316284470426</v>
       </c>
       <c r="D560">
-        <v>-0.4477877952509954</v>
+        <v>0.3026698211598325</v>
       </c>
       <c r="E560">
         <v>0.1610761514937621</v>
@@ -15512,7 +15512,7 @@
         <v>0.9673316284470426</v>
       </c>
       <c r="D561">
-        <v>-0.4477877952509954</v>
+        <v>0.3026698211598325</v>
       </c>
       <c r="E561">
         <v>0.1610761514937621</v>
@@ -15538,7 +15538,7 @@
         <v>0.5876684662328221</v>
       </c>
       <c r="D562">
-        <v>-0.4221813346888015</v>
+        <v>0.3522557661557375</v>
       </c>
       <c r="E562">
         <v>0.5722565552392731</v>
@@ -15564,7 +15564,7 @@
         <v>0.6734020480531273</v>
       </c>
       <c r="D563">
-        <v>-0.2139537516170578</v>
+        <v>0.4692041459029087</v>
       </c>
       <c r="E563">
         <v>0.509300649479243</v>
@@ -15590,7 +15590,7 @@
         <v>0.7596227142961934</v>
       </c>
       <c r="D564">
-        <v>-0.9112130318484057</v>
+        <v>0.3730687055019785</v>
       </c>
       <c r="E564">
         <v>0.4369323644412613</v>
@@ -15616,7 +15616,7 @@
         <v>0.8174313042926201</v>
       </c>
       <c r="D565">
-        <v>-1.783593355411968</v>
+        <v>0.3202343209511124</v>
       </c>
       <c r="E565">
         <v>0.380785724031397</v>
@@ -15642,7 +15642,7 @@
         <v>0.8502673372821916</v>
       </c>
       <c r="D566">
-        <v>-2.254296762334944</v>
+        <v>0.2521436295941412</v>
       </c>
       <c r="E566">
         <v>0.3448464625934342</v>
@@ -15668,7 +15668,7 @@
         <v>0.8588339054916102</v>
       </c>
       <c r="D567">
-        <v>-2.071988512177367</v>
+        <v>0.2447750320213754</v>
       </c>
       <c r="E567">
         <v>0.3348364288389147</v>
@@ -15694,7 +15694,7 @@
         <v>0.8671415152784994</v>
       </c>
       <c r="D568">
-        <v>-1.172494865129896</v>
+        <v>0.3169313015871283</v>
       </c>
       <c r="E568">
         <v>0.3248345003166064</v>
@@ -15720,7 +15720,7 @@
         <v>0.8702387635074673</v>
       </c>
       <c r="D569">
-        <v>-2.360445452665233</v>
+        <v>0.2051498759859093</v>
       </c>
       <c r="E569">
         <v>0.3210258386036597</v>
@@ -15746,7 +15746,7 @@
         <v>0.8707922265800272</v>
       </c>
       <c r="D570">
-        <v>-1.175563114557173</v>
+        <v>0.3172696274565482</v>
       </c>
       <c r="E570">
         <v>0.320340480577407</v>
@@ -15772,7 +15772,7 @@
         <v>0.8707922265800272</v>
       </c>
       <c r="D571">
-        <v>-2.360445452665233</v>
+        <v>0.2051498759859093</v>
       </c>
       <c r="E571">
         <v>0.320340480577407</v>
@@ -15798,7 +15798,7 @@
         <v>0.8707922265800272</v>
       </c>
       <c r="D572">
-        <v>-2.360445452665233</v>
+        <v>0.2051498759859093</v>
       </c>
       <c r="E572">
         <v>0.320340480577407</v>
@@ -15824,7 +15824,7 @@
         <v>0.8707922265800272</v>
       </c>
       <c r="D573">
-        <v>-2.360445452665233</v>
+        <v>0.2051498759859093</v>
       </c>
       <c r="E573">
         <v>0.320340480577407</v>
@@ -15850,7 +15850,7 @@
         <v>0.8707922265800272</v>
       </c>
       <c r="D574">
-        <v>-2.360445452665233</v>
+        <v>0.2051498759859093</v>
       </c>
       <c r="E574">
         <v>0.320340480577407</v>
@@ -15876,7 +15876,7 @@
         <v>0.8707922265800272</v>
       </c>
       <c r="D575">
-        <v>-2.360445452665233</v>
+        <v>0.2051498759859093</v>
       </c>
       <c r="E575">
         <v>0.320340480577407</v>
@@ -15902,7 +15902,7 @@
         <v>0.8707922265800272</v>
       </c>
       <c r="D576">
-        <v>-2.360445452665233</v>
+        <v>0.2051498759859093</v>
       </c>
       <c r="E576">
         <v>0.320340480577407</v>
@@ -15928,7 +15928,7 @@
         <v>0.8707922265800272</v>
       </c>
       <c r="D577">
-        <v>-2.360445452665233</v>
+        <v>0.2051498759859093</v>
       </c>
       <c r="E577">
         <v>0.320340480577407</v>
@@ -15954,7 +15954,7 @@
         <v>0.8707922265800272</v>
       </c>
       <c r="D578">
-        <v>-2.360445452665233</v>
+        <v>0.2051498759859093</v>
       </c>
       <c r="E578">
         <v>0.320340480577407</v>
@@ -15980,7 +15980,7 @@
         <v>0.8707922265800272</v>
       </c>
       <c r="D579">
-        <v>-2.360445452665233</v>
+        <v>0.2051498759859093</v>
       </c>
       <c r="E579">
         <v>0.320340480577407</v>
@@ -16006,7 +16006,7 @@
         <v>0.8707922265800272</v>
       </c>
       <c r="D580">
-        <v>-2.360445452665233</v>
+        <v>0.2051498759859093</v>
       </c>
       <c r="E580">
         <v>0.320340480577407</v>
@@ -16032,7 +16032,7 @@
         <v>0.8707922265800272</v>
       </c>
       <c r="D581">
-        <v>-2.360445452665233</v>
+        <v>0.2051498759859093</v>
       </c>
       <c r="E581">
         <v>0.320340480577407</v>
@@ -16058,7 +16058,7 @@
         <v>0.8707922265800272</v>
       </c>
       <c r="D582">
-        <v>-2.360445452665233</v>
+        <v>0.2051498759859093</v>
       </c>
       <c r="E582">
         <v>0.320340480577407</v>
@@ -16084,7 +16084,7 @@
         <v>0.8707922265800272</v>
       </c>
       <c r="D583">
-        <v>-2.360445452665233</v>
+        <v>0.2051498759859093</v>
       </c>
       <c r="E583">
         <v>0.320340480577407</v>
@@ -16110,7 +16110,7 @@
         <v>0.8707922265800272</v>
       </c>
       <c r="D584">
-        <v>-2.360445452665233</v>
+        <v>0.2051498759859093</v>
       </c>
       <c r="E584">
         <v>0.320340480577407</v>
@@ -16136,7 +16136,7 @@
         <v>0.8707922265800272</v>
       </c>
       <c r="D585">
-        <v>-2.360445452665233</v>
+        <v>0.2051498759859093</v>
       </c>
       <c r="E585">
         <v>0.320340480577407</v>
@@ -16162,7 +16162,7 @@
         <v>0.8707922265800272</v>
       </c>
       <c r="D586">
-        <v>-2.360445452665233</v>
+        <v>0.2051498759859093</v>
       </c>
       <c r="E586">
         <v>0.320340480577407</v>
@@ -16188,7 +16188,7 @@
         <v>0.8707922265800272</v>
       </c>
       <c r="D587">
-        <v>-2.360445452665233</v>
+        <v>0.2051498759859093</v>
       </c>
       <c r="E587">
         <v>0.320340480577407</v>
@@ -16214,7 +16214,7 @@
         <v>0.8707922265800272</v>
       </c>
       <c r="D588">
-        <v>-2.360445452665233</v>
+        <v>0.2051498759859093</v>
       </c>
       <c r="E588">
         <v>0.320340480577407</v>
@@ -16240,7 +16240,7 @@
         <v>0.8707922265800272</v>
       </c>
       <c r="D589">
-        <v>-2.360445452665233</v>
+        <v>0.2051498759859093</v>
       </c>
       <c r="E589">
         <v>0.320340480577407</v>
@@ -16266,7 +16266,7 @@
         <v>0.5876684662328221</v>
       </c>
       <c r="D590">
-        <v>-0.4221813346888015</v>
+        <v>0.3522557661557375</v>
       </c>
       <c r="E590">
         <v>0.5722565552392731</v>
@@ -16292,7 +16292,7 @@
         <v>0.6734020480531273</v>
       </c>
       <c r="D591">
-        <v>-0.2139537516170578</v>
+        <v>0.4692041459029087</v>
       </c>
       <c r="E591">
         <v>0.509300649479243</v>
@@ -16318,7 +16318,7 @@
         <v>0.7596227142961934</v>
       </c>
       <c r="D592">
-        <v>-0.9112130318484057</v>
+        <v>0.3730687055019785</v>
       </c>
       <c r="E592">
         <v>0.4369323644412613</v>
@@ -16344,7 +16344,7 @@
         <v>0.8174313042926201</v>
       </c>
       <c r="D593">
-        <v>-1.783593355411968</v>
+        <v>0.3202343209511124</v>
       </c>
       <c r="E593">
         <v>0.380785724031397</v>
@@ -16370,7 +16370,7 @@
         <v>0.8502673372821916</v>
       </c>
       <c r="D594">
-        <v>-2.254296762334944</v>
+        <v>0.2521436295941412</v>
       </c>
       <c r="E594">
         <v>0.3448464625934342</v>
@@ -16396,7 +16396,7 @@
         <v>0.8588339054916102</v>
       </c>
       <c r="D595">
-        <v>-2.071988512177367</v>
+        <v>0.2447750320213754</v>
       </c>
       <c r="E595">
         <v>0.3348364288389147</v>
@@ -16422,7 +16422,7 @@
         <v>0.8671415152784994</v>
       </c>
       <c r="D596">
-        <v>-1.172494865129896</v>
+        <v>0.3169313015871283</v>
       </c>
       <c r="E596">
         <v>0.3248345003166064</v>
@@ -16448,7 +16448,7 @@
         <v>0.8702387635074673</v>
       </c>
       <c r="D597">
-        <v>-2.360445452665233</v>
+        <v>0.2051498759859093</v>
       </c>
       <c r="E597">
         <v>0.3210258386036597</v>
@@ -16474,7 +16474,7 @@
         <v>0.8707922265800272</v>
       </c>
       <c r="D598">
-        <v>-1.175563114557173</v>
+        <v>0.3172696274565482</v>
       </c>
       <c r="E598">
         <v>0.320340480577407</v>
@@ -16500,7 +16500,7 @@
         <v>0.8707922265800272</v>
       </c>
       <c r="D599">
-        <v>-2.360445452665233</v>
+        <v>0.2051498759859093</v>
       </c>
       <c r="E599">
         <v>0.320340480577407</v>
@@ -16526,7 +16526,7 @@
         <v>0.8707922265800272</v>
       </c>
       <c r="D600">
-        <v>-2.360445452665233</v>
+        <v>0.2051498759859093</v>
       </c>
       <c r="E600">
         <v>0.320340480577407</v>
@@ -16552,7 +16552,7 @@
         <v>0.8707922265800272</v>
       </c>
       <c r="D601">
-        <v>-2.360445452665233</v>
+        <v>0.2051498759859093</v>
       </c>
       <c r="E601">
         <v>0.320340480577407</v>
@@ -16578,7 +16578,7 @@
         <v>0.8707922265800272</v>
       </c>
       <c r="D602">
-        <v>-2.360445452665233</v>
+        <v>0.2051498759859093</v>
       </c>
       <c r="E602">
         <v>0.320340480577407</v>
@@ -16604,7 +16604,7 @@
         <v>0.8707922265800272</v>
       </c>
       <c r="D603">
-        <v>-2.360445452665233</v>
+        <v>0.2051498759859093</v>
       </c>
       <c r="E603">
         <v>0.320340480577407</v>
@@ -16630,7 +16630,7 @@
         <v>0.8707922265800272</v>
       </c>
       <c r="D604">
-        <v>-2.360445452665233</v>
+        <v>0.2051498759859093</v>
       </c>
       <c r="E604">
         <v>0.320340480577407</v>
@@ -16656,7 +16656,7 @@
         <v>0.8707922265800272</v>
       </c>
       <c r="D605">
-        <v>-2.360445452665233</v>
+        <v>0.2051498759859093</v>
       </c>
       <c r="E605">
         <v>0.320340480577407</v>
@@ -16682,7 +16682,7 @@
         <v>0.8707922265800272</v>
       </c>
       <c r="D606">
-        <v>-2.360445452665233</v>
+        <v>0.2051498759859093</v>
       </c>
       <c r="E606">
         <v>0.320340480577407</v>
@@ -16708,7 +16708,7 @@
         <v>0.8707922265800272</v>
       </c>
       <c r="D607">
-        <v>-2.360445452665233</v>
+        <v>0.2051498759859093</v>
       </c>
       <c r="E607">
         <v>0.320340480577407</v>
@@ -16734,7 +16734,7 @@
         <v>0.8707922265800272</v>
       </c>
       <c r="D608">
-        <v>-2.360445452665233</v>
+        <v>0.2051498759859093</v>
       </c>
       <c r="E608">
         <v>0.320340480577407</v>
@@ -16760,7 +16760,7 @@
         <v>0.8707922265800272</v>
       </c>
       <c r="D609">
-        <v>-2.360445452665233</v>
+        <v>0.2051498759859093</v>
       </c>
       <c r="E609">
         <v>0.320340480577407</v>
@@ -16786,7 +16786,7 @@
         <v>0.8707922265800272</v>
       </c>
       <c r="D610">
-        <v>-2.360445452665233</v>
+        <v>0.2051498759859093</v>
       </c>
       <c r="E610">
         <v>0.320340480577407</v>
@@ -16812,7 +16812,7 @@
         <v>0.8707922265800272</v>
       </c>
       <c r="D611">
-        <v>-2.360445452665233</v>
+        <v>0.2051498759859093</v>
       </c>
       <c r="E611">
         <v>0.320340480577407</v>
@@ -16838,7 +16838,7 @@
         <v>0.8707922265800272</v>
       </c>
       <c r="D612">
-        <v>-2.360445452665233</v>
+        <v>0.2051498759859093</v>
       </c>
       <c r="E612">
         <v>0.320340480577407</v>
@@ -16864,7 +16864,7 @@
         <v>0.8707922265800272</v>
       </c>
       <c r="D613">
-        <v>-2.360445452665233</v>
+        <v>0.2051498759859093</v>
       </c>
       <c r="E613">
         <v>0.320340480577407</v>
@@ -16890,7 +16890,7 @@
         <v>0.8707922265800272</v>
       </c>
       <c r="D614">
-        <v>-2.360445452665233</v>
+        <v>0.2051498759859093</v>
       </c>
       <c r="E614">
         <v>0.320340480577407</v>
@@ -16916,7 +16916,7 @@
         <v>0.8707922265800272</v>
       </c>
       <c r="D615">
-        <v>-2.360445452665233</v>
+        <v>0.2051498759859093</v>
       </c>
       <c r="E615">
         <v>0.320340480577407</v>
@@ -16942,7 +16942,7 @@
         <v>0.8707922265800272</v>
       </c>
       <c r="D616">
-        <v>-2.360445452665233</v>
+        <v>0.2051498759859093</v>
       </c>
       <c r="E616">
         <v>0.320340480577407</v>
@@ -16968,7 +16968,7 @@
         <v>0.8707922265800272</v>
       </c>
       <c r="D617">
-        <v>-2.360445452665233</v>
+        <v>0.2051498759859093</v>
       </c>
       <c r="E617">
         <v>0.320340480577407</v>
@@ -17030,7 +17030,7 @@
         <v>0.8918246110486177</v>
       </c>
       <c r="D2">
-        <v>0.2408730167913474</v>
+        <v>0.4462094068601796</v>
       </c>
       <c r="E2">
         <v>0.2931107415523042</v>
@@ -17056,7 +17056,7 @@
         <v>0.900947872799755</v>
       </c>
       <c r="D3">
-        <v>0.050280807374114</v>
+        <v>0.2675979810684628</v>
       </c>
       <c r="E3">
         <v>0.280478389371197</v>
@@ -17082,7 +17082,7 @@
         <v>0.9107450254650424</v>
       </c>
       <c r="D4">
-        <v>-0.208734803487195</v>
+        <v>0.08778695366699441</v>
       </c>
       <c r="E4">
         <v>0.266246383113715</v>
@@ -17108,7 +17108,7 @@
         <v>0.9195307639584446</v>
       </c>
       <c r="D5">
-        <v>-0.04867152570824218</v>
+        <v>0.2633281361673709</v>
       </c>
       <c r="E5">
         <v>0.2528031264517335</v>
@@ -17134,7 +17134,7 @@
         <v>0.9083596646563661</v>
       </c>
       <c r="D6">
-        <v>-0.1188567447951054</v>
+        <v>0.2086984316649346</v>
       </c>
       <c r="E6">
         <v>0.2697806746430997</v>
@@ -17160,7 +17160,7 @@
         <v>0.9014151012748814</v>
       </c>
       <c r="D7">
-        <v>-0.2197315310740526</v>
+        <v>0.1492357150172596</v>
       </c>
       <c r="E7">
         <v>0.2798160997412182</v>
@@ -17186,7 +17186,7 @@
         <v>0.9111749052356858</v>
       </c>
       <c r="D8">
-        <v>-0.340833033167727</v>
+        <v>0.1092521992554942</v>
       </c>
       <c r="E8">
         <v>0.2656044464651892</v>
@@ -17212,7 +17212,7 @@
         <v>0.9139413611072575</v>
       </c>
       <c r="D9">
-        <v>-0.3582868614745349</v>
+        <v>0.1668644943483287</v>
       </c>
       <c r="E9">
         <v>0.2614356074159861</v>
@@ -17238,7 +17238,7 @@
         <v>0.9183386720994061</v>
       </c>
       <c r="D10">
-        <v>-0.3626652797684518</v>
+        <v>0.1650712932492592</v>
       </c>
       <c r="E10">
         <v>0.2546687873699066</v>
@@ -17264,7 +17264,7 @@
         <v>0.9233339140113435</v>
       </c>
       <c r="D11">
-        <v>-0.388144436482617</v>
+        <v>0.1603001601061831</v>
       </c>
       <c r="E11">
         <v>0.2467568101607039</v>
@@ -17290,7 +17290,7 @@
         <v>0.9281386923425203</v>
       </c>
       <c r="D12">
-        <v>-0.4783732716590887</v>
+        <v>0.1145434293522725</v>
       </c>
       <c r="E12">
         <v>0.2388994002089</v>
@@ -17316,7 +17316,7 @@
         <v>0.9293149246585656</v>
       </c>
       <c r="D13">
-        <v>-0.4334223487479174</v>
+        <v>0.1219655010849992</v>
       </c>
       <c r="E13">
         <v>0.2369361700986827</v>
@@ -17342,7 +17342,7 @@
         <v>0.9315008776362512</v>
       </c>
       <c r="D14">
-        <v>-0.4264673182554879</v>
+        <v>0.1270311905167231</v>
       </c>
       <c r="E14">
         <v>0.233243744563115</v>
@@ -17368,7 +17368,7 @@
         <v>0.9343200466282092</v>
       </c>
       <c r="D15">
-        <v>-0.4500683940825361</v>
+        <v>0.1193492519405032</v>
       </c>
       <c r="E15">
         <v>0.2283935944086783</v>
@@ -17394,7 +17394,7 @@
         <v>0.9371426498954227</v>
       </c>
       <c r="D16">
-        <v>-0.442785577984274</v>
+        <v>0.08835972638048728</v>
       </c>
       <c r="E16">
         <v>0.2234320836908681</v>
@@ -17420,7 +17420,7 @@
         <v>0.9378568287258908</v>
       </c>
       <c r="D17">
-        <v>-0.4620188797287954</v>
+        <v>0.08987629365300553</v>
       </c>
       <c r="E17">
         <v>0.2221591513037886</v>
@@ -17446,7 +17446,7 @@
         <v>0.9360593643686195</v>
       </c>
       <c r="D18">
-        <v>-0.4521041693579089</v>
+        <v>0.06627673434948278</v>
       </c>
       <c r="E18">
         <v>0.2253491769038736</v>
@@ -17472,7 +17472,7 @@
         <v>0.9373986246697639</v>
       </c>
       <c r="D19">
-        <v>-0.4507160960577512</v>
+        <v>0.0734135994187316</v>
       </c>
       <c r="E19">
         <v>0.2229766769413852</v>
@@ -17498,7 +17498,7 @@
         <v>0.9369899558513215</v>
       </c>
       <c r="D20">
-        <v>-0.4570628944588251</v>
+        <v>0.08011940403797746</v>
       </c>
       <c r="E20">
         <v>0.2237033014106634</v>
@@ -17524,7 +17524,7 @@
         <v>0.8518503116598675</v>
       </c>
       <c r="D21">
-        <v>0.2085644864313052</v>
+        <v>0.272334007195185</v>
       </c>
       <c r="E21">
         <v>0.3430187599682538</v>
@@ -17550,7 +17550,7 @@
         <v>0.8933006226849286</v>
       </c>
       <c r="D22">
-        <v>-0.02080582940839748</v>
+        <v>0.1278800333705107</v>
       </c>
       <c r="E22">
         <v>0.2911041816103657</v>
@@ -17576,7 +17576,7 @@
         <v>0.9112648480784724</v>
       </c>
       <c r="D23">
-        <v>-0.2739212957491228</v>
+        <v>0.01668997350465551</v>
       </c>
       <c r="E23">
         <v>0.2654699390404722</v>
@@ -17602,7 +17602,7 @@
         <v>0.9190949000192743</v>
       </c>
       <c r="D24">
-        <v>-0.09503553940525289</v>
+        <v>0.2139553438769565</v>
       </c>
       <c r="E24">
         <v>0.2534868595519381</v>
@@ -17628,7 +17628,7 @@
         <v>0.90329898031948</v>
       </c>
       <c r="D25">
-        <v>-0.2055866207952548</v>
+        <v>0.1901772112349707</v>
       </c>
       <c r="E25">
         <v>0.27712967235092</v>
@@ -17654,7 +17654,7 @@
         <v>0.9048374451631446</v>
       </c>
       <c r="D26">
-        <v>-0.2579336842683353</v>
+        <v>0.1446639329900626</v>
       </c>
       <c r="E26">
         <v>0.2749163365698043</v>
@@ -17680,7 +17680,7 @@
         <v>0.9140788228498445</v>
       </c>
       <c r="D27">
-        <v>-0.3157586055274708</v>
+        <v>0.1197769611303801</v>
       </c>
       <c r="E27">
         <v>0.2612267280005436</v>
@@ -17706,7 +17706,7 @@
         <v>0.9180046128421936</v>
       </c>
       <c r="D28">
-        <v>-0.3287644019451403</v>
+        <v>0.1216926286707734</v>
       </c>
       <c r="E28">
         <v>0.2551891538653731</v>
@@ -17732,7 +17732,7 @@
         <v>0.9174270117188852</v>
       </c>
       <c r="D29">
-        <v>-0.322613728136002</v>
+        <v>0.06318978824493415</v>
       </c>
       <c r="E29">
         <v>0.2560863925925525</v>
@@ -17758,7 +17758,7 @@
         <v>0.9230994784148834</v>
       </c>
       <c r="D30">
-        <v>-0.2590934326293106</v>
+        <v>0.09121884758285081</v>
       </c>
       <c r="E30">
         <v>0.247133798389757</v>
@@ -17784,7 +17784,7 @@
         <v>0.9249450371667403</v>
       </c>
       <c r="D31">
-        <v>-0.3297866808082877</v>
+        <v>0.04595295949038125</v>
       </c>
       <c r="E31">
         <v>0.2441502698437996</v>
@@ -17810,7 +17810,7 @@
         <v>0.9272729965976287</v>
       </c>
       <c r="D32">
-        <v>-0.3347961000935069</v>
+        <v>0.02313466164124023</v>
       </c>
       <c r="E32">
         <v>0.2403340739195556</v>
@@ -17836,7 +17836,7 @@
         <v>0.9299346487748297</v>
       </c>
       <c r="D33">
-        <v>-0.3347142999130908</v>
+        <v>0.0384625473578496</v>
       </c>
       <c r="E33">
         <v>0.2358952267534528</v>
@@ -17862,7 +17862,7 @@
         <v>0.9337289337763756</v>
       </c>
       <c r="D34">
-        <v>-0.3737907728521244</v>
+        <v>0.03656644213310545</v>
       </c>
       <c r="E34">
         <v>0.2294190517999115</v>
@@ -17888,7 +17888,7 @@
         <v>0.9362356902942405</v>
       </c>
       <c r="D35">
-        <v>-0.3522003530300852</v>
+        <v>0.0240335905200908</v>
       </c>
       <c r="E35">
         <v>0.2250382452608545</v>
@@ -17914,7 +17914,7 @@
         <v>0.9369476180255657</v>
       </c>
       <c r="D36">
-        <v>-0.3701161493153029</v>
+        <v>0.01387067218492644</v>
       </c>
       <c r="E36">
         <v>0.2237784443588762</v>
@@ -17940,7 +17940,7 @@
         <v>0.9359010668594464</v>
       </c>
       <c r="D37">
-        <v>-0.3852582768295012</v>
+        <v>-0.03669307635355556</v>
       </c>
       <c r="E37">
         <v>0.2256279523801713</v>
@@ -17966,7 +17966,7 @@
         <v>0.93821098610234</v>
       </c>
       <c r="D38">
-        <v>-0.4325094449016349</v>
+        <v>-0.02988981487682074</v>
       </c>
       <c r="E38">
         <v>0.2215251981230697</v>
@@ -17992,7 +17992,7 @@
         <v>0.9374467426111279</v>
       </c>
       <c r="D39">
-        <v>-0.4299124530132863</v>
+        <v>-0.03060762281170559</v>
       </c>
       <c r="E39">
         <v>0.2228909660354938</v>
@@ -18018,7 +18018,7 @@
         <v>0.8663237688638514</v>
       </c>
       <c r="D40">
-        <v>0.1011057983667871</v>
+        <v>0.3055840485550355</v>
       </c>
       <c r="E40">
         <v>0.3258326479275535</v>
@@ -18044,7 +18044,7 @@
         <v>0.8953343578994581</v>
       </c>
       <c r="D41">
-        <v>-0.144522215980351</v>
+        <v>0.2095606841003282</v>
       </c>
       <c r="E41">
         <v>0.2883165499943303</v>
@@ -18070,7 +18070,7 @@
         <v>0.9057607898152197</v>
       </c>
       <c r="D42">
-        <v>-0.4039555325342667</v>
+        <v>0.142758912512598</v>
       </c>
       <c r="E42">
         <v>0.2735793543827435</v>
@@ -18096,7 +18096,7 @@
         <v>0.9102957691767675</v>
       </c>
       <c r="D43">
-        <v>-0.2955928471998197</v>
+        <v>0.2650576168332976</v>
       </c>
       <c r="E43">
         <v>0.2669156047741066</v>
@@ -18122,7 +18122,7 @@
         <v>0.9018304670798239</v>
       </c>
       <c r="D44">
-        <v>-0.4446294760248923</v>
+        <v>0.2041559781423281</v>
       </c>
       <c r="E44">
         <v>0.2792260057064779</v>
@@ -18148,7 +18148,7 @@
         <v>0.9015095982369188</v>
       </c>
       <c r="D45">
-        <v>-0.4769453745109107</v>
+        <v>0.1609747832834125</v>
       </c>
       <c r="E45">
         <v>0.2796819609883844</v>
@@ -18174,7 +18174,7 @@
         <v>0.9105518739680124</v>
       </c>
       <c r="D46">
-        <v>-0.4637423522276327</v>
+        <v>0.1703245177244055</v>
       </c>
       <c r="E46">
         <v>0.2665343115785742</v>
@@ -18200,7 +18200,7 @@
         <v>0.912306314973785</v>
       </c>
       <c r="D47">
-        <v>-0.5034959053557042</v>
+        <v>0.2310399572617631</v>
       </c>
       <c r="E47">
         <v>0.2639074568367545</v>
@@ -18226,7 +18226,7 @@
         <v>0.9134529187339666</v>
       </c>
       <c r="D48">
-        <v>-0.5609009396568672</v>
+        <v>0.1516582018163197</v>
       </c>
       <c r="E48">
         <v>0.2621764717349731</v>
@@ -18252,7 +18252,7 @@
         <v>0.9201499768518591</v>
       </c>
       <c r="D49">
-        <v>-0.5138426925450044</v>
+        <v>0.160769905554845</v>
       </c>
       <c r="E49">
         <v>0.2518285846876328</v>
@@ -18278,7 +18278,7 @@
         <v>0.9232548854226547</v>
       </c>
       <c r="D50">
-        <v>-0.5472969048436309</v>
+        <v>0.1299148652772515</v>
       </c>
       <c r="E50">
         <v>0.2468839577733074</v>
@@ -18304,7 +18304,7 @@
         <v>0.9270374427484954</v>
       </c>
       <c r="D51">
-        <v>-0.6509063433168092</v>
+        <v>0.1024703278378678</v>
       </c>
       <c r="E51">
         <v>0.2407229655836305</v>
@@ -18330,7 +18330,7 @@
         <v>0.9298167357882892</v>
       </c>
       <c r="D52">
-        <v>-0.6295499307058994</v>
+        <v>0.09855249353803652</v>
       </c>
       <c r="E52">
         <v>0.2360936373625098</v>
@@ -18356,7 +18356,7 @@
         <v>0.9324804514423155</v>
       </c>
       <c r="D53">
-        <v>-0.6546550777750617</v>
+        <v>0.09504966897000156</v>
       </c>
       <c r="E53">
         <v>0.2315699844296245</v>
@@ -18382,7 +18382,7 @@
         <v>0.9358149919993053</v>
       </c>
       <c r="D54">
-        <v>-0.618549925898866</v>
+        <v>0.07424712345923001</v>
       </c>
       <c r="E54">
         <v>0.2257793931145204</v>
@@ -18408,7 +18408,7 @@
         <v>0.9361839731452948</v>
       </c>
       <c r="D55">
-        <v>-0.5976342179331648</v>
+        <v>0.09556837449078059</v>
       </c>
       <c r="E55">
         <v>0.2251294873490242</v>
@@ -18434,7 +18434,7 @@
         <v>0.9342544137163804</v>
       </c>
       <c r="D56">
-        <v>-0.627060959395515</v>
+        <v>0.05224349048488863</v>
       </c>
       <c r="E56">
         <v>0.2285076809213398</v>
@@ -18460,7 +18460,7 @@
         <v>0.9352460155523494</v>
       </c>
       <c r="D57">
-        <v>-0.6244216900201132</v>
+        <v>0.05320510501934339</v>
       </c>
       <c r="E57">
         <v>0.226777910690142</v>
@@ -18486,7 +18486,7 @@
         <v>0.9362856198032304</v>
       </c>
       <c r="D58">
-        <v>-0.6163610131535231</v>
+        <v>0.05709090868338262</v>
       </c>
       <c r="E58">
         <v>0.2249501219082267</v>
@@ -18512,7 +18512,7 @@
         <v>0.849710849713321</v>
       </c>
       <c r="D59">
-        <v>0.3159365636633319</v>
+        <v>0.3761657785522886</v>
       </c>
       <c r="E59">
         <v>0.3454866862863371</v>
@@ -18538,7 +18538,7 @@
         <v>0.8952445029654575</v>
       </c>
       <c r="D60">
-        <v>0.18448026810817</v>
+        <v>0.32094454786024</v>
       </c>
       <c r="E60">
         <v>0.2884402826073012</v>
@@ -18564,7 +18564,7 @@
         <v>0.9133853364156879</v>
       </c>
       <c r="D61">
-        <v>-0.07969206363350412</v>
+        <v>0.2071457669782508</v>
       </c>
       <c r="E61">
         <v>0.2622788150830868</v>
@@ -18590,7 +18590,7 @@
         <v>0.914117628863762</v>
       </c>
       <c r="D62">
-        <v>-0.0252291599787644</v>
+        <v>0.2998678158953689</v>
       </c>
       <c r="E62">
         <v>0.2611677302467781</v>
@@ -18616,7 +18616,7 @@
         <v>0.9050456728528194</v>
       </c>
       <c r="D63">
-        <v>-0.1418334021217074</v>
+        <v>0.2580567908714474</v>
       </c>
       <c r="E63">
         <v>0.2746153960215394</v>
@@ -18642,7 +18642,7 @@
         <v>0.9052132068198342</v>
       </c>
       <c r="D64">
-        <v>-0.1911550922426368</v>
+        <v>0.210695555824705</v>
       </c>
       <c r="E64">
         <v>0.2743730283514532</v>
@@ -18668,7 +18668,7 @@
         <v>0.9138535141721049</v>
       </c>
       <c r="D65">
-        <v>-0.2430245169124248</v>
+        <v>0.2491773099732518</v>
       </c>
       <c r="E65">
         <v>0.2615690074978783</v>
@@ -18694,7 +18694,7 @@
         <v>0.9174417020752503</v>
       </c>
       <c r="D66">
-        <v>-0.3207905445645098</v>
+        <v>0.2808343799562734</v>
       </c>
       <c r="E66">
         <v>0.2560636117305377</v>
@@ -18720,7 +18720,7 @@
         <v>0.9145477806469502</v>
       </c>
       <c r="D67">
-        <v>-0.3839790180403266</v>
+        <v>0.195382596401784</v>
       </c>
       <c r="E67">
         <v>0.2605128648421956</v>
@@ -18746,7 +18746,7 @@
         <v>0.9219680998415407</v>
       </c>
       <c r="D68">
-        <v>-0.3363339759750068</v>
+        <v>0.2327548559297332</v>
       </c>
       <c r="E68">
         <v>0.2489451059234618</v>
@@ -18772,7 +18772,7 @@
         <v>0.9226439223778716</v>
       </c>
       <c r="D69">
-        <v>-0.4168206875934657</v>
+        <v>0.1876241739758566</v>
       </c>
       <c r="E69">
         <v>0.2478647235424518</v>
@@ -18798,7 +18798,7 @@
         <v>0.9249687700269236</v>
       </c>
       <c r="D70">
-        <v>-0.4580731858019622</v>
+        <v>0.1557366812822227</v>
       </c>
       <c r="E70">
         <v>0.2441116658519584</v>
@@ -18824,7 +18824,7 @@
         <v>0.926698731181711</v>
       </c>
       <c r="D71">
-        <v>-0.5046175720288359</v>
+        <v>0.1475481977531224</v>
       </c>
       <c r="E71">
         <v>0.2412810685844799</v>
@@ -18850,7 +18850,7 @@
         <v>0.9297290539150284</v>
       </c>
       <c r="D72">
-        <v>-0.5271168956294197</v>
+        <v>0.1314103910728387</v>
       </c>
       <c r="E72">
         <v>0.2362410704509688</v>
@@ -18876,7 +18876,7 @@
         <v>0.9336962553703319</v>
       </c>
       <c r="D73">
-        <v>-0.477840503023228</v>
+        <v>0.1127869848264527</v>
       </c>
       <c r="E73">
         <v>0.2294756083439742</v>
@@ -18902,7 +18902,7 @@
         <v>0.9330572415915172</v>
       </c>
       <c r="D74">
-        <v>-0.5502060938650388</v>
+        <v>0.1111229245994824</v>
       </c>
       <c r="E74">
         <v>0.2305787621430557</v>
@@ -18928,7 +18928,7 @@
         <v>0.9311834193291627</v>
       </c>
       <c r="D75">
-        <v>-0.5618425321919509</v>
+        <v>0.06031011113730411</v>
       </c>
       <c r="E75">
         <v>0.2337836023716319</v>
@@ -18954,7 +18954,7 @@
         <v>0.932101006327665</v>
       </c>
       <c r="D76">
-        <v>-0.6068184298429842</v>
+        <v>0.0535359207819871</v>
       </c>
       <c r="E76">
         <v>0.2322197591759882</v>
@@ -18980,7 +18980,7 @@
         <v>0.9331454858843482</v>
       </c>
       <c r="D77">
-        <v>-0.5918877898248425</v>
+        <v>0.05429175042459689</v>
       </c>
       <c r="E77">
         <v>0.2304267369637812</v>
@@ -19006,7 +19006,7 @@
         <v>0.8378568755352143</v>
       </c>
       <c r="D78">
-        <v>-0.1297922583045406</v>
+        <v>-0.002189364831877816</v>
       </c>
       <c r="E78">
         <v>0.3588531561640764</v>
@@ -19032,7 +19032,7 @@
         <v>0.8946322620152781</v>
       </c>
       <c r="D79">
-        <v>-0.1094798522846534</v>
+        <v>0.1238153464466567</v>
       </c>
       <c r="E79">
         <v>0.289281945731107</v>
@@ -19058,7 +19058,7 @@
         <v>0.9074339474447605</v>
       </c>
       <c r="D80">
-        <v>-0.2903355027058123</v>
+        <v>0.1016679144596877</v>
       </c>
       <c r="E80">
         <v>0.2711398637020456</v>
@@ -19084,7 +19084,7 @@
         <v>0.9116765825003263</v>
       </c>
       <c r="D81">
-        <v>-0.1922613235239694</v>
+        <v>0.1860764523515055</v>
       </c>
       <c r="E81">
         <v>0.2648533277136806</v>
@@ -19110,7 +19110,7 @@
         <v>0.8961289224326852</v>
       </c>
       <c r="D82">
-        <v>-0.3487557887923498</v>
+        <v>0.1625956650217396</v>
       </c>
       <c r="E82">
         <v>0.2872200940191708</v>
@@ -19136,7 +19136,7 @@
         <v>0.8946282315696978</v>
       </c>
       <c r="D83">
-        <v>-0.3909013790775191</v>
+        <v>0.1190920556069406</v>
       </c>
       <c r="E83">
         <v>0.2892874783733204</v>
@@ -19162,7 +19162,7 @@
         <v>0.904577957334579</v>
       </c>
       <c r="D84">
-        <v>-0.4796673672063478</v>
+        <v>0.1569767250900114</v>
       </c>
       <c r="E84">
         <v>0.2752909002784907</v>
@@ -19188,7 +19188,7 @@
         <v>0.9109860742075931</v>
       </c>
       <c r="D85">
-        <v>-0.584552075842949</v>
+        <v>0.212598477526091</v>
       </c>
       <c r="E85">
         <v>0.2658866174758027</v>
@@ -19214,7 +19214,7 @@
         <v>0.9133002622927037</v>
       </c>
       <c r="D86">
-        <v>-0.4282059535900429</v>
+        <v>0.2753480103076011</v>
       </c>
       <c r="E86">
         <v>0.2624075904131966</v>
@@ -19240,7 +19240,7 @@
         <v>0.9193111392126561</v>
       </c>
       <c r="D87">
-        <v>-0.3563490742946465</v>
+        <v>0.2692179385861554</v>
       </c>
       <c r="E87">
         <v>0.2531478792590386</v>
@@ -19266,7 +19266,7 @@
         <v>0.9179056290238478</v>
       </c>
       <c r="D88">
-        <v>-0.434951319292185</v>
+        <v>0.1987233409813177</v>
       </c>
       <c r="E88">
         <v>0.2553431380043285</v>
@@ -19292,7 +19292,7 @@
         <v>0.920240973205588</v>
       </c>
       <c r="D89">
-        <v>-0.485717628889345</v>
+        <v>0.176194699710009</v>
       </c>
       <c r="E89">
         <v>0.2516850530118817</v>
@@ -19318,7 +19318,7 @@
         <v>0.9222651116106035</v>
       </c>
       <c r="D90">
-        <v>-0.5306375673935027</v>
+        <v>0.1757231876155383</v>
       </c>
       <c r="E90">
         <v>0.2484708760300946</v>
@@ -19344,7 +19344,7 @@
         <v>0.9269918570255699</v>
       </c>
       <c r="D91">
-        <v>-0.5356915558502755</v>
+        <v>0.1595620285623396</v>
       </c>
       <c r="E91">
         <v>0.2407981535796538</v>
@@ -19370,7 +19370,7 @@
         <v>0.9299149649595025</v>
       </c>
       <c r="D92">
-        <v>-0.5716703974343327</v>
+        <v>0.1271671319268229</v>
       </c>
       <c r="E92">
         <v>0.2359283600492033</v>
@@ -19396,7 +19396,7 @@
         <v>0.9310743201010718</v>
       </c>
       <c r="D93">
-        <v>-0.4962874068277794</v>
+        <v>0.1699304507407782</v>
       </c>
       <c r="E93">
         <v>0.2339688448626562</v>
@@ -19422,7 +19422,7 @@
         <v>0.9296956841788786</v>
       </c>
       <c r="D94">
-        <v>-0.5401685101190403</v>
+        <v>0.1177131736467305</v>
       </c>
       <c r="E94">
         <v>0.2362971559810436</v>
@@ -19448,7 +19448,7 @@
         <v>0.9313516532638579</v>
       </c>
       <c r="D95">
-        <v>-0.5338292077275053</v>
+        <v>0.1116168249786804</v>
       </c>
       <c r="E95">
         <v>0.2334976654522516</v>
@@ -19474,7 +19474,7 @@
         <v>0.9322873154996804</v>
       </c>
       <c r="D96">
-        <v>-0.5537216951441837</v>
+        <v>0.1028697303742684</v>
       </c>
       <c r="E96">
         <v>0.2319009445060968</v>
@@ -19500,7 +19500,7 @@
         <v>0.8438819854453965</v>
       </c>
       <c r="D97">
-        <v>-0.4799550115995259</v>
+        <v>-0.05689435241720608</v>
       </c>
       <c r="E97">
         <v>0.3521226902397739</v>
@@ -19526,7 +19526,7 @@
         <v>0.9001616287177817</v>
       </c>
       <c r="D98">
-        <v>-0.428482770728372</v>
+        <v>0.04889423510599045</v>
       </c>
       <c r="E98">
         <v>0.2815893629315884</v>
@@ -19552,7 +19552,7 @@
         <v>0.9182436129563117</v>
       </c>
       <c r="D99">
-        <v>-0.6453676273053914</v>
+        <v>0.002925922783950097</v>
       </c>
       <c r="E99">
         <v>0.2548169698469815</v>
@@ -19578,7 +19578,7 @@
         <v>0.9197723547066089</v>
       </c>
       <c r="D100">
-        <v>-0.4847256911285773</v>
+        <v>0.04165803689981129</v>
       </c>
       <c r="E100">
         <v>0.2524233489783115</v>
@@ -19604,7 +19604,7 @@
         <v>0.9110861273599874</v>
       </c>
       <c r="D101">
-        <v>-0.5717726340873839</v>
+        <v>-0.00123231892992659</v>
       </c>
       <c r="E101">
         <v>0.2657371449425867</v>
@@ -19630,7 +19630,7 @@
         <v>0.9071651692451306</v>
       </c>
       <c r="D102">
-        <v>-0.5375674149958289</v>
+        <v>0.009769256782080959</v>
       </c>
       <c r="E102">
         <v>0.2715332242124971</v>
@@ -19656,7 +19656,7 @@
         <v>0.9137565406779173</v>
       </c>
       <c r="D103">
-        <v>-0.5184491843243821</v>
+        <v>0.07363088499210813</v>
       </c>
       <c r="E103">
         <v>0.2617161877693607</v>
@@ -19682,7 +19682,7 @@
         <v>0.9151431570552199</v>
       </c>
       <c r="D104">
-        <v>-0.5886415414102883</v>
+        <v>0.1567222523938006</v>
       </c>
       <c r="E104">
         <v>0.2596037350077804</v>
@@ -19708,7 +19708,7 @@
         <v>0.9191014142363488</v>
       </c>
       <c r="D105">
-        <v>-0.5596526916858344</v>
+        <v>0.1262187146166688</v>
       </c>
       <c r="E105">
         <v>0.2534766543753232</v>
@@ -19734,7 +19734,7 @@
         <v>0.9236528115528286</v>
       </c>
       <c r="D106">
-        <v>-0.4993512465436325</v>
+        <v>0.15819365088986</v>
       </c>
       <c r="E106">
         <v>0.2462430749223573</v>
@@ -19760,7 +19760,7 @@
         <v>0.9226870587238183</v>
       </c>
       <c r="D107">
-        <v>-0.5599693921232298</v>
+        <v>0.1078924212119416</v>
       </c>
       <c r="E107">
         <v>0.2477956050597243</v>
@@ -19786,7 +19786,7 @@
         <v>0.9263713977749384</v>
       </c>
       <c r="D108">
-        <v>-0.5963149784501314</v>
+        <v>0.08661184847122283</v>
       </c>
       <c r="E108">
         <v>0.2418191996387746</v>
@@ -19812,7 +19812,7 @@
         <v>0.9266360488304537</v>
       </c>
       <c r="D109">
-        <v>-0.6395026107253046</v>
+        <v>0.07845490521113463</v>
       </c>
       <c r="E109">
         <v>0.2413842102697849</v>
@@ -19838,7 +19838,7 @@
         <v>0.9303800951384533</v>
       </c>
       <c r="D110">
-        <v>-0.6318098696953316</v>
+        <v>0.07232268530764441</v>
       </c>
       <c r="E110">
         <v>0.2351441692496403</v>
@@ -19864,7 +19864,7 @@
         <v>0.9327378858371753</v>
       </c>
       <c r="D111">
-        <v>-0.6234427971438943</v>
+        <v>0.03979050892308678</v>
       </c>
       <c r="E111">
         <v>0.2311281049155059</v>
@@ -19890,7 +19890,7 @@
         <v>0.9337032723289863</v>
       </c>
       <c r="D112">
-        <v>-0.5496393016699914</v>
+        <v>0.08020119272827675</v>
       </c>
       <c r="E112">
         <v>0.2294634652631435</v>
@@ -19916,7 +19916,7 @@
         <v>0.9317715891584102</v>
       </c>
       <c r="D113">
-        <v>-0.5970072210136741</v>
+        <v>0.02736945840885274</v>
       </c>
       <c r="E113">
         <v>0.2327823935612353</v>
@@ -19942,7 +19942,7 @@
         <v>0.9328729304543362</v>
       </c>
       <c r="D114">
-        <v>-0.5780467280073753</v>
+        <v>0.02890512085088548</v>
       </c>
       <c r="E114">
         <v>0.2308959661457597</v>
@@ -19968,7 +19968,7 @@
         <v>0.9340324493587876</v>
       </c>
       <c r="D115">
-        <v>-0.5548527587262939</v>
+        <v>0.02293236196608361</v>
       </c>
       <c r="E115">
         <v>0.2288930894789716</v>
@@ -19994,7 +19994,7 @@
         <v>0.8839013375597743</v>
       </c>
       <c r="D116">
-        <v>-0.06908412194430014</v>
+        <v>-0.02630329751032323</v>
       </c>
       <c r="E116">
         <v>0.3036554705720464</v>
@@ -20020,7 +20020,7 @@
         <v>0.9123550232300301</v>
       </c>
       <c r="D117">
-        <v>-0.006516839737235935</v>
+        <v>0.1145196843395966</v>
       </c>
       <c r="E117">
         <v>0.2638341547655462</v>
@@ -20046,7 +20046,7 @@
         <v>0.9148992809315588</v>
       </c>
       <c r="D118">
-        <v>-0.001415697579563613</v>
+        <v>0.1400072751890049</v>
       </c>
       <c r="E118">
         <v>0.2599765141910965</v>
@@ -20072,7 +20072,7 @@
         <v>0.9211244335942943</v>
       </c>
       <c r="D119">
-        <v>0.04404447258988387</v>
+        <v>0.1748184435086394</v>
       </c>
       <c r="E119">
         <v>0.2502872617544434</v>
@@ -20098,7 +20098,7 @@
         <v>0.9202092772895137</v>
       </c>
       <c r="D120">
-        <v>-0.01550160454284044</v>
+        <v>0.184070707329146</v>
       </c>
       <c r="E120">
         <v>0.2517350573577842</v>
@@ -20124,7 +20124,7 @@
         <v>0.9213377128283441</v>
       </c>
       <c r="D121">
-        <v>-0.080407528341915</v>
+        <v>0.2455432758541091</v>
       </c>
       <c r="E121">
         <v>0.2499486447888831</v>
@@ -20150,7 +20150,7 @@
         <v>0.9231026842894199</v>
       </c>
       <c r="D122">
-        <v>-0.1095845342091026</v>
+        <v>0.231455863994412</v>
       </c>
       <c r="E122">
         <v>0.2471286470059142</v>
@@ -20176,7 +20176,7 @@
         <v>0.9278291949121493</v>
       </c>
       <c r="D123">
-        <v>-0.1473780933297344</v>
+        <v>0.2501517341568059</v>
       </c>
       <c r="E123">
         <v>0.2394133020059133</v>
@@ -20202,7 +20202,7 @@
         <v>0.929460350680369</v>
       </c>
       <c r="D124">
-        <v>-0.1331163084844866</v>
+        <v>0.2364186573195419</v>
       </c>
       <c r="E124">
         <v>0.2366923108020376</v>
@@ -20228,7 +20228,7 @@
         <v>0.9321450557039743</v>
       </c>
       <c r="D125">
-        <v>-0.1189075193837115</v>
+        <v>0.2312656855994966</v>
       </c>
       <c r="E125">
         <v>0.2321444208345949</v>
@@ -20254,7 +20254,7 @@
         <v>0.9292703342290107</v>
       </c>
       <c r="D126">
-        <v>-0.1241204848001523</v>
+        <v>0.236762339665992</v>
       </c>
       <c r="E126">
         <v>0.237010891812402</v>
@@ -20280,7 +20280,7 @@
         <v>0.9306838417496326</v>
       </c>
       <c r="D127">
-        <v>-0.1460373156468078</v>
+        <v>0.2233933508546865</v>
       </c>
       <c r="E127">
         <v>0.2346306500211584</v>
@@ -20306,7 +20306,7 @@
         <v>0.9303477570366173</v>
       </c>
       <c r="D128">
-        <v>-0.197703365764625</v>
+        <v>0.2082951197599574</v>
       </c>
       <c r="E128">
         <v>0.23519877456182</v>
@@ -20332,7 +20332,7 @@
         <v>0.9331021689701106</v>
       </c>
       <c r="D129">
-        <v>-0.2461336692496405</v>
+        <v>0.1915501699920087</v>
       </c>
       <c r="E129">
         <v>0.2305013748476659</v>
@@ -20358,7 +20358,7 @@
         <v>0.9336266577925105</v>
       </c>
       <c r="D130">
-        <v>-0.2874493528781028</v>
+        <v>0.1719408827578658</v>
       </c>
       <c r="E130">
         <v>0.2295960144968216</v>
@@ -20384,7 +20384,7 @@
         <v>0.934061319673492</v>
       </c>
       <c r="D131">
-        <v>-0.2988305620437557</v>
+        <v>0.1880098098094487</v>
       </c>
       <c r="E131">
         <v>0.2288429971333205</v>
@@ -20410,7 +20410,7 @@
         <v>0.9325177694219327</v>
       </c>
       <c r="D132">
-        <v>-0.2694415196391255</v>
+        <v>0.2072547149600605</v>
       </c>
       <c r="E132">
         <v>0.231505981347988</v>
@@ -20436,7 +20436,7 @@
         <v>0.9320648337041983</v>
       </c>
       <c r="D133">
-        <v>-0.3118022717830704</v>
+        <v>0.1992958124375452</v>
       </c>
       <c r="E133">
         <v>0.2322816075112624</v>
@@ -20462,7 +20462,7 @@
         <v>0.9321922571858227</v>
       </c>
       <c r="D134">
-        <v>-0.3291950890552178</v>
+        <v>0.1878780751984062</v>
       </c>
       <c r="E134">
         <v>0.2320636642513667</v>
@@ -20488,7 +20488,7 @@
         <v>0.8429913206607779</v>
       </c>
       <c r="D135">
-        <v>0.238614022329937</v>
+        <v>0.1725210541274591</v>
       </c>
       <c r="E135">
         <v>0.3531257046625813</v>
@@ -20514,7 +20514,7 @@
         <v>0.9045760538714048</v>
       </c>
       <c r="D136">
-        <v>0.1497942930917903</v>
+        <v>0.1228770207644074</v>
       </c>
       <c r="E136">
         <v>0.2752936459935428</v>
@@ -20540,7 +20540,7 @@
         <v>0.9074307935077492</v>
       </c>
       <c r="D137">
-        <v>0.08485846540021513</v>
+        <v>0.1350573061448276</v>
       </c>
       <c r="E137">
         <v>0.2711444828401831</v>
@@ -20566,7 +20566,7 @@
         <v>0.917187443015216</v>
       </c>
       <c r="D138">
-        <v>0.09976462972524025</v>
+        <v>0.2198054973608238</v>
       </c>
       <c r="E138">
         <v>0.2564576147801816</v>
@@ -20592,7 +20592,7 @@
         <v>0.9128389900093428</v>
       </c>
       <c r="D139">
-        <v>0.08467689765527631</v>
+        <v>0.24870593178395</v>
       </c>
       <c r="E139">
         <v>0.2631047135135778</v>
@@ -20618,7 +20618,7 @@
         <v>0.9137072164405318</v>
       </c>
       <c r="D140">
-        <v>0.09752223287961392</v>
+        <v>0.319312112851572</v>
       </c>
       <c r="E140">
         <v>0.2617910172479376</v>
@@ -20644,7 +20644,7 @@
         <v>0.9187460782768063</v>
       </c>
       <c r="D141">
-        <v>0.01350435631228442</v>
+        <v>0.2721142091256836</v>
       </c>
       <c r="E141">
         <v>0.2540327251745135</v>
@@ -20670,7 +20670,7 @@
         <v>0.922327014475569</v>
       </c>
       <c r="D142">
-        <v>0.01532899111237218</v>
+        <v>0.3174436602793186</v>
       </c>
       <c r="E142">
         <v>0.2483719235343944</v>
@@ -20696,7 +20696,7 @@
         <v>0.9255107092166774</v>
       </c>
       <c r="D143">
-        <v>0.01260285789026949</v>
+        <v>0.2901491756074388</v>
       </c>
       <c r="E143">
         <v>0.2432284774158415</v>
@@ -20722,7 +20722,7 @@
         <v>0.9302712376050636</v>
       </c>
       <c r="D144">
-        <v>-0.01695243383763945</v>
+        <v>0.2762139313270278</v>
       </c>
       <c r="E144">
         <v>0.2353279329030387</v>
@@ -20748,7 +20748,7 @@
         <v>0.9301876990510434</v>
       </c>
       <c r="D145">
-        <v>0.001197933842438381</v>
+        <v>0.317093728708748</v>
       </c>
       <c r="E145">
         <v>0.235468858039103</v>
@@ -20774,7 +20774,7 @@
         <v>0.9305615729907649</v>
       </c>
       <c r="D146">
-        <v>-0.02436715744828222</v>
+        <v>0.3105384526463727</v>
       </c>
       <c r="E146">
         <v>0.2348374947118038</v>
@@ -20800,7 +20800,7 @@
         <v>0.9324009831487982</v>
       </c>
       <c r="D147">
-        <v>-0.03621931032269821</v>
+        <v>0.3172962914065862</v>
       </c>
       <c r="E147">
         <v>0.2317062194926048</v>
@@ -20826,7 +20826,7 @@
         <v>0.9344788358119032</v>
       </c>
       <c r="D148">
-        <v>-0.09099509814861517</v>
+        <v>0.295808107251322</v>
       </c>
       <c r="E148">
         <v>0.2281173428531728</v>
@@ -20852,7 +20852,7 @@
         <v>0.9367140373249249</v>
       </c>
       <c r="D149">
-        <v>-0.1070071595485853</v>
+        <v>0.2709811969834388</v>
       </c>
       <c r="E149">
         <v>0.224192560401271</v>
@@ -20878,7 +20878,7 @@
         <v>0.936557503336727</v>
       </c>
       <c r="D150">
-        <v>-0.1201723260549374</v>
+        <v>0.2804571368237909</v>
       </c>
       <c r="E150">
         <v>0.224469652511028</v>
@@ -20904,7 +20904,7 @@
         <v>0.9346973087246778</v>
       </c>
       <c r="D151">
-        <v>-0.1009761985676219</v>
+        <v>0.2946204301187753</v>
       </c>
       <c r="E151">
         <v>0.2277367095515768</v>
@@ -20930,7 +20930,7 @@
         <v>0.933651486157852</v>
       </c>
       <c r="D152">
-        <v>-0.1160306526614179</v>
+        <v>0.2819779385045661</v>
       </c>
       <c r="E152">
         <v>0.2295530678352793</v>
@@ -20956,7 +20956,7 @@
         <v>0.934247296292987</v>
       </c>
       <c r="D153">
-        <v>-0.141951063294701</v>
+        <v>0.2690182061572091</v>
       </c>
       <c r="E153">
         <v>0.228520049370624</v>
@@ -20982,7 +20982,7 @@
         <v>0.8181787089455144</v>
       </c>
       <c r="D154">
-        <v>0.2346221186662387</v>
+        <v>0.08552455986562046</v>
       </c>
       <c r="E154">
         <v>0.380005489239838</v>
@@ -21008,7 +21008,7 @@
         <v>0.8930702644872639</v>
       </c>
       <c r="D155">
-        <v>0.1013904781314319</v>
+        <v>0.06978176863907304</v>
       </c>
       <c r="E155">
         <v>0.2914182512963145</v>
@@ -21034,7 +21034,7 @@
         <v>0.9021405358680287</v>
       </c>
       <c r="D156">
-        <v>0.1700373982946972</v>
+        <v>0.2559641387329509</v>
       </c>
       <c r="E156">
         <v>0.2787846888332465</v>
@@ -21060,7 +21060,7 @@
         <v>0.9160578771185325</v>
       </c>
       <c r="D157">
-        <v>0.1760057858606566</v>
+        <v>0.3158992659965879</v>
       </c>
       <c r="E157">
         <v>0.2582007358445341</v>
@@ -21086,7 +21086,7 @@
         <v>0.9103890312685295</v>
       </c>
       <c r="D158">
-        <v>0.1198653663852082</v>
+        <v>0.3406620362804438</v>
       </c>
       <c r="E158">
         <v>0.2667768176685959</v>
@@ -21112,7 +21112,7 @@
         <v>0.9077515421112908</v>
       </c>
       <c r="D159">
-        <v>0.116458686337681</v>
+        <v>0.3806506065686083</v>
       </c>
       <c r="E159">
         <v>0.2706743228132004</v>
@@ -21138,7 +21138,7 @@
         <v>0.9152476186093983</v>
       </c>
       <c r="D160">
-        <v>-0.02113590863933457</v>
+        <v>0.333598431647174</v>
       </c>
       <c r="E160">
         <v>0.2594438954485689</v>
@@ -21164,7 +21164,7 @@
         <v>0.9157351428055941</v>
       </c>
       <c r="D161">
-        <v>-0.06675109417645042</v>
+        <v>0.3476671951506299</v>
       </c>
       <c r="E161">
         <v>0.258696614983538</v>
@@ -21190,7 +21190,7 @@
         <v>0.9194477751561388</v>
       </c>
       <c r="D162">
-        <v>-0.0548154600586872</v>
+        <v>0.3274729173022755</v>
       </c>
       <c r="E162">
         <v>0.2529334521719775</v>
@@ -21216,7 +21216,7 @@
         <v>0.9239280513904168</v>
       </c>
       <c r="D163">
-        <v>-0.09086116550604739</v>
+        <v>0.3143296421185988</v>
       </c>
       <c r="E163">
         <v>0.245798807749299</v>
@@ -21242,7 +21242,7 @@
         <v>0.9255736649757278</v>
       </c>
       <c r="D164">
-        <v>-0.09550403940302421</v>
+        <v>0.3235063385443996</v>
       </c>
       <c r="E164">
         <v>0.2431256715624656</v>
@@ -21268,7 +21268,7 @@
         <v>0.9269607704871058</v>
       </c>
       <c r="D165">
-        <v>-0.164838778224097</v>
+        <v>0.3022490041808359</v>
       </c>
       <c r="E165">
         <v>0.2408494135083159</v>
@@ -21294,7 +21294,7 @@
         <v>0.9283236531650337</v>
       </c>
       <c r="D166">
-        <v>-0.2107567199614055</v>
+        <v>0.3062130484201473</v>
       </c>
       <c r="E166">
         <v>0.2385917555219331</v>
@@ -21320,7 +21320,7 @@
         <v>0.9305132361883244</v>
       </c>
       <c r="D167">
-        <v>-0.228068531023637</v>
+        <v>0.2983586353351371</v>
       </c>
       <c r="E167">
         <v>0.2349192168887423</v>
@@ -21346,7 +21346,7 @@
         <v>0.9329312700740608</v>
       </c>
       <c r="D168">
-        <v>-0.2824416635056162</v>
+        <v>0.2685206184044741</v>
       </c>
       <c r="E168">
         <v>0.2307956093822651</v>
@@ -21372,7 +21372,7 @@
         <v>0.9342984067831641</v>
       </c>
       <c r="D169">
-        <v>-0.2756140626759533</v>
+        <v>0.2748688240053621</v>
       </c>
       <c r="E169">
         <v>0.2284312161997063</v>
@@ -21398,7 +21398,7 @@
         <v>0.932605002426997</v>
       </c>
       <c r="D170">
-        <v>-0.314383389022413</v>
+        <v>0.2520614735696732</v>
       </c>
       <c r="E170">
         <v>0.2313563012551425</v>
@@ -21424,7 +21424,7 @@
         <v>0.9324393561279758</v>
       </c>
       <c r="D171">
-        <v>-0.3505951751274679</v>
+        <v>0.2633596084630891</v>
       </c>
       <c r="E171">
         <v>0.231640445458439</v>
@@ -21450,7 +21450,7 @@
         <v>0.9321120438770276</v>
       </c>
       <c r="D172">
-        <v>-0.3692277299614715</v>
+        <v>0.2671014519478491</v>
       </c>
       <c r="E172">
         <v>0.2322008837767404</v>
@@ -21476,7 +21476,7 @@
         <v>0.8458291325519878</v>
       </c>
       <c r="D173">
-        <v>0.005666947353924368</v>
+        <v>0.05248650468345406</v>
       </c>
       <c r="E173">
         <v>0.3499199144338412</v>
@@ -21502,7 +21502,7 @@
         <v>0.9069862670840559</v>
       </c>
       <c r="D174">
-        <v>-0.03413284474803535</v>
+        <v>0.08704029055926987</v>
       </c>
       <c r="E174">
         <v>0.2717947343542976</v>
@@ -21528,7 +21528,7 @@
         <v>0.9109459558524426</v>
       </c>
       <c r="D175">
-        <v>0.05147482969121042</v>
+        <v>0.2718624824550345</v>
       </c>
       <c r="E175">
         <v>0.2659465279450655</v>
@@ -21554,7 +21554,7 @@
         <v>0.9165903784019915</v>
       </c>
       <c r="D176">
-        <v>0.1255377777202538</v>
+        <v>0.3565585967748001</v>
       </c>
       <c r="E176">
         <v>0.2573804625165264</v>
@@ -21580,7 +21580,7 @@
         <v>0.9091532555955546</v>
       </c>
       <c r="D177">
-        <v>0.08530270343675339</v>
+        <v>0.3609629083364195</v>
       </c>
       <c r="E177">
         <v>0.2686100055026538</v>
@@ -21606,7 +21606,7 @@
         <v>0.9117784077648631</v>
       </c>
       <c r="D178">
-        <v>0.013789613363275</v>
+        <v>0.3724777281723796</v>
       </c>
       <c r="E178">
         <v>0.264700613188687</v>
@@ -21632,7 +21632,7 @@
         <v>0.9203224535712423</v>
       </c>
       <c r="D179">
-        <v>-0.08945598159573764</v>
+        <v>0.3564279304509234</v>
       </c>
       <c r="E179">
         <v>0.2515564617342271</v>
@@ -21658,7 +21658,7 @@
         <v>0.915921981019454</v>
       </c>
       <c r="D180">
-        <v>-0.1045938961837976</v>
+        <v>0.3609778828278923</v>
       </c>
       <c r="E180">
         <v>0.2584096552859821</v>
@@ -21684,7 +21684,7 @@
         <v>0.9215124884099393</v>
       </c>
       <c r="D181">
-        <v>-0.117668737710928</v>
+        <v>0.3350589433814415</v>
       </c>
       <c r="E181">
         <v>0.2496708165332354</v>
@@ -21710,7 +21710,7 @@
         <v>0.9242957434622446</v>
       </c>
       <c r="D182">
-        <v>-0.1132216336322853</v>
+        <v>0.3051832730868281</v>
       </c>
       <c r="E182">
         <v>0.2452040566642803</v>
@@ -21736,7 +21736,7 @@
         <v>0.9271433595117508</v>
       </c>
       <c r="D183">
-        <v>-0.1155901885228203</v>
+        <v>0.3189096257409038</v>
       </c>
       <c r="E183">
         <v>0.2405481782808614</v>
@@ -21762,7 +21762,7 @@
         <v>0.9261070274954455</v>
       </c>
       <c r="D184">
-        <v>-0.1416009013209509</v>
+        <v>0.3245519520701654</v>
       </c>
       <c r="E184">
         <v>0.24225294769179</v>
@@ -21788,7 +21788,7 @@
         <v>0.9273394496724089</v>
       </c>
       <c r="D185">
-        <v>-0.2178046794248281</v>
+        <v>0.3199617381323641</v>
       </c>
       <c r="E185">
         <v>0.240224248219329</v>
@@ -21814,7 +21814,7 @@
         <v>0.9305010039525614</v>
       </c>
       <c r="D186">
-        <v>-0.2397720273512143</v>
+        <v>0.3115057077886777</v>
       </c>
       <c r="E186">
         <v>0.2349398932063269</v>
@@ -21840,7 +21840,7 @@
         <v>0.9343929055550239</v>
       </c>
       <c r="D187">
-        <v>-0.3165364746152761</v>
+        <v>0.2806419680332761</v>
       </c>
       <c r="E187">
         <v>0.228266880482079</v>
@@ -21866,7 +21866,7 @@
         <v>0.9355822565995395</v>
       </c>
       <c r="D188">
-        <v>-0.2909404761528507</v>
+        <v>0.2985222783948824</v>
       </c>
       <c r="E188">
         <v>0.2261883617450068</v>
@@ -21892,7 +21892,7 @@
         <v>0.9317146666494027</v>
       </c>
       <c r="D189">
-        <v>-0.2898526810008866</v>
+        <v>0.2944029213255845</v>
       </c>
       <c r="E189">
         <v>0.2328794777170149</v>
@@ -21918,7 +21918,7 @@
         <v>0.9322067258824293</v>
       </c>
       <c r="D190">
-        <v>-0.2936432480288751</v>
+        <v>0.2919549480370077</v>
       </c>
       <c r="E190">
         <v>0.2320389042627279</v>
@@ -21944,7 +21944,7 @@
         <v>0.933142334094189</v>
       </c>
       <c r="D191">
-        <v>-0.3003180745643053</v>
+        <v>0.2966620214321485</v>
       </c>
       <c r="E191">
         <v>0.230432168520439</v>
@@ -21970,7 +21970,7 @@
         <v>0.8216166529873852</v>
       </c>
       <c r="D192">
-        <v>0.192537398202191</v>
+        <v>0.1444428297627524</v>
       </c>
       <c r="E192">
         <v>0.3763957020250293</v>
@@ -21996,7 +21996,7 @@
         <v>0.8887993446256381</v>
       </c>
       <c r="D193">
-        <v>0.08870946759379472</v>
+        <v>0.1588784269285897</v>
       </c>
       <c r="E193">
         <v>0.2971810924903788</v>
@@ -22022,7 +22022,7 @@
         <v>0.9024467456239372</v>
       </c>
       <c r="D194">
-        <v>0.03542367601663732</v>
+        <v>0.293567902722572</v>
       </c>
       <c r="E194">
         <v>0.2783481777782821</v>
@@ -22048,7 +22048,7 @@
         <v>0.9112757694809588</v>
       </c>
       <c r="D195">
-        <v>0.06286158303171285</v>
+        <v>0.3642304571212267</v>
       </c>
       <c r="E195">
         <v>0.2654536016972344</v>
@@ -22074,7 +22074,7 @@
         <v>0.9068007246660604</v>
       </c>
       <c r="D196">
-        <v>0.07609103378509696</v>
+        <v>0.3627663944060885</v>
       </c>
       <c r="E196">
         <v>0.272065685356377</v>
@@ -22100,7 +22100,7 @@
         <v>0.9120570528252561</v>
       </c>
       <c r="D197">
-        <v>0.1161059617512276</v>
+        <v>0.4070638140190748</v>
       </c>
       <c r="E197">
         <v>0.2642822584026205</v>
@@ -22126,7 +22126,7 @@
         <v>0.9212793993826793</v>
       </c>
       <c r="D198">
-        <v>0.03544565125309007</v>
+        <v>0.3791836708234294</v>
       </c>
       <c r="E198">
         <v>0.2500412728258446</v>
@@ -22152,7 +22152,7 @@
         <v>0.9206564600402456</v>
       </c>
       <c r="D199">
-        <v>0.01478908392778733</v>
+        <v>0.4206836246463359</v>
       </c>
       <c r="E199">
         <v>0.2510286485146015</v>
@@ -22178,7 +22178,7 @@
         <v>0.9218471684246121</v>
       </c>
       <c r="D200">
-        <v>-0.0324107211358815</v>
+        <v>0.4075893168033442</v>
       </c>
       <c r="E200">
         <v>0.2491379349415069</v>
@@ -22204,7 +22204,7 @@
         <v>0.9256616961610906</v>
       </c>
       <c r="D201">
-        <v>-0.1064302467367146</v>
+        <v>0.3841657943205369</v>
       </c>
       <c r="E201">
         <v>0.2429818449617137</v>
@@ -22230,7 +22230,7 @@
         <v>0.9266769389944078</v>
       </c>
       <c r="D202">
-        <v>-0.1281014553186901</v>
+        <v>0.4011444795458996</v>
       </c>
       <c r="E202">
         <v>0.2413169318893254</v>
@@ -22256,7 +22256,7 @@
         <v>0.9283190893311718</v>
       </c>
       <c r="D203">
-        <v>-0.1678234813510762</v>
+        <v>0.3676177004372253</v>
       </c>
       <c r="E203">
         <v>0.2385993513038643</v>
@@ -22282,7 +22282,7 @@
         <v>0.9304044742159362</v>
       </c>
       <c r="D204">
-        <v>-0.2627198256583221</v>
+        <v>0.3584141904225637</v>
       </c>
       <c r="E204">
         <v>0.2351029949628275</v>
@@ -22308,7 +22308,7 @@
         <v>0.9313691808472875</v>
       </c>
       <c r="D205">
-        <v>-0.2737804282353877</v>
+        <v>0.3512688279985698</v>
       </c>
       <c r="E205">
         <v>0.2334678547482953</v>
@@ -22334,7 +22334,7 @@
         <v>0.9349914219117283</v>
       </c>
       <c r="D206">
-        <v>-0.3543960279905234</v>
+        <v>0.3117342022177366</v>
       </c>
       <c r="E206">
         <v>0.2272232854050691</v>
@@ -22360,7 +22360,7 @@
         <v>0.9381567285810485</v>
       </c>
       <c r="D207">
-        <v>-0.3820202579276588</v>
+        <v>0.3169337458515333</v>
       </c>
       <c r="E207">
         <v>0.2216224384734526</v>
@@ -22386,7 +22386,7 @@
         <v>0.9319955385323742</v>
       </c>
       <c r="D208">
-        <v>-0.353408159820696</v>
+        <v>0.3106582819140904</v>
       </c>
       <c r="E208">
         <v>0.2324000431633551</v>
@@ -22412,7 +22412,7 @@
         <v>0.9334893047190476</v>
       </c>
       <c r="D209">
-        <v>-0.3408567028554523</v>
+        <v>0.2937241083407008</v>
       </c>
       <c r="E209">
         <v>0.2298334548534756</v>
@@ -22438,7 +22438,7 @@
         <v>0.9336077082704261</v>
       </c>
       <c r="D210">
-        <v>-0.3778318496905475</v>
+        <v>0.2809566989952612</v>
       </c>
       <c r="E210">
         <v>0.2296287868728559</v>
@@ -22464,7 +22464,7 @@
         <v>0.8216166529873852</v>
       </c>
       <c r="D211">
-        <v>0.192537398202191</v>
+        <v>0.1444428297627524</v>
       </c>
       <c r="E211">
         <v>0.3763957020250293</v>
@@ -22490,7 +22490,7 @@
         <v>0.8887993446256381</v>
       </c>
       <c r="D212">
-        <v>0.08870946759379472</v>
+        <v>0.1588784269285897</v>
       </c>
       <c r="E212">
         <v>0.2971810924903788</v>
@@ -22516,7 +22516,7 @@
         <v>0.9024467456239372</v>
       </c>
       <c r="D213">
-        <v>0.03542367601663732</v>
+        <v>0.293567902722572</v>
       </c>
       <c r="E213">
         <v>0.2783481777782821</v>
@@ -22542,7 +22542,7 @@
         <v>0.9112757694809588</v>
       </c>
       <c r="D214">
-        <v>0.06286158303171285</v>
+        <v>0.3642304571212267</v>
       </c>
       <c r="E214">
         <v>0.2654536016972344</v>
@@ -22568,7 +22568,7 @@
         <v>0.9068007246660604</v>
       </c>
       <c r="D215">
-        <v>0.07609103378509696</v>
+        <v>0.3627663944060885</v>
       </c>
       <c r="E215">
         <v>0.272065685356377</v>
@@ -22594,7 +22594,7 @@
         <v>0.9120570528252561</v>
       </c>
       <c r="D216">
-        <v>0.1161059617512276</v>
+        <v>0.4070638140190748</v>
       </c>
       <c r="E216">
         <v>0.2642822584026205</v>
@@ -22620,7 +22620,7 @@
         <v>0.9212793993826793</v>
       </c>
       <c r="D217">
-        <v>0.03544565125309007</v>
+        <v>0.3791836708234294</v>
       </c>
       <c r="E217">
         <v>0.2500412728258446</v>
@@ -22646,7 +22646,7 @@
         <v>0.9206564600402456</v>
       </c>
       <c r="D218">
-        <v>0.01478908392778733</v>
+        <v>0.4206836246463359</v>
       </c>
       <c r="E218">
         <v>0.2510286485146015</v>
@@ -22672,7 +22672,7 @@
         <v>0.9218471684246121</v>
       </c>
       <c r="D219">
-        <v>-0.0324107211358815</v>
+        <v>0.4075893168033442</v>
       </c>
       <c r="E219">
         <v>0.2491379349415069</v>
@@ -22698,7 +22698,7 @@
         <v>0.9256616961610906</v>
       </c>
       <c r="D220">
-        <v>-0.1064302467367146</v>
+        <v>0.3841657943205369</v>
       </c>
       <c r="E220">
         <v>0.2429818449617137</v>
@@ -22724,7 +22724,7 @@
         <v>0.9266769389944078</v>
       </c>
       <c r="D221">
-        <v>-0.1281014553186901</v>
+        <v>0.4011444795458996</v>
       </c>
       <c r="E221">
         <v>0.2413169318893254</v>
@@ -22750,7 +22750,7 @@
         <v>0.9283190893311718</v>
       </c>
       <c r="D222">
-        <v>-0.1678234813510762</v>
+        <v>0.3676177004372253</v>
       </c>
       <c r="E222">
         <v>0.2385993513038643</v>
@@ -22776,7 +22776,7 @@
         <v>0.9304044742159362</v>
       </c>
       <c r="D223">
-        <v>-0.2627198256583221</v>
+        <v>0.3584141904225637</v>
       </c>
       <c r="E223">
         <v>0.2351029949628275</v>
@@ -22802,7 +22802,7 @@
         <v>0.9313691808472875</v>
       </c>
       <c r="D224">
-        <v>-0.2737804282353877</v>
+        <v>0.3512688279985698</v>
       </c>
       <c r="E224">
         <v>0.2334678547482953</v>
@@ -22828,7 +22828,7 @@
         <v>0.9349914219117283</v>
       </c>
       <c r="D225">
-        <v>-0.3543960279905234</v>
+        <v>0.3117342022177366</v>
       </c>
       <c r="E225">
         <v>0.2272232854050691</v>
@@ -22854,7 +22854,7 @@
         <v>0.9381567285810485</v>
       </c>
       <c r="D226">
-        <v>-0.3820202579276588</v>
+        <v>0.3169337458515333</v>
       </c>
       <c r="E226">
         <v>0.2216224384734526</v>
@@ -22880,7 +22880,7 @@
         <v>0.9319955385323742</v>
       </c>
       <c r="D227">
-        <v>-0.353408159820696</v>
+        <v>0.3106582819140904</v>
       </c>
       <c r="E227">
         <v>0.2324000431633551</v>
@@ -22906,7 +22906,7 @@
         <v>0.9334893047190476</v>
       </c>
       <c r="D228">
-        <v>-0.3408567028554523</v>
+        <v>0.2937241083407008</v>
       </c>
       <c r="E228">
         <v>0.2298334548534756</v>
@@ -22932,7 +22932,7 @@
         <v>0.9336077082704261</v>
       </c>
       <c r="D229">
-        <v>-0.3778318496905475</v>
+        <v>0.2809566989952612</v>
       </c>
       <c r="E229">
         <v>0.2296287868728559</v>
@@ -22958,7 +22958,7 @@
         <v>0.843072240395762</v>
       </c>
       <c r="D230">
-        <v>0.08100228167687173</v>
+        <v>0.1554945534999641</v>
       </c>
       <c r="E230">
         <v>0.3530346952952675</v>
@@ -22984,7 +22984,7 @@
         <v>0.8975155264337875</v>
       </c>
       <c r="D231">
-        <v>0.03919919872673194</v>
+        <v>0.2116273679685646</v>
       </c>
       <c r="E231">
         <v>0.2852965624173169</v>
@@ -23010,7 +23010,7 @@
         <v>0.9098633787824036</v>
       </c>
       <c r="D232">
-        <v>0.08194643610276398</v>
+        <v>0.3255901221176405</v>
       </c>
       <c r="E232">
         <v>0.2675581218573824</v>
@@ -23036,7 +23036,7 @@
         <v>0.9063874182523042</v>
       </c>
       <c r="D233">
-        <v>0.1972507029849117</v>
+        <v>0.4031687251307061</v>
       </c>
       <c r="E233">
         <v>0.2726682764317572</v>
@@ -23062,7 +23062,7 @@
         <v>0.9049861253116198</v>
       </c>
       <c r="D234">
-        <v>0.1719346835835051</v>
+        <v>0.3899505839274416</v>
       </c>
       <c r="E234">
         <v>0.2747014906163879</v>
@@ -23088,7 +23088,7 @@
         <v>0.9064820906492388</v>
       </c>
       <c r="D235">
-        <v>0.1649960866168857</v>
+        <v>0.4088451321914163</v>
       </c>
       <c r="E235">
         <v>0.2725303639379433</v>
@@ -23114,7 +23114,7 @@
         <v>0.9137442846332061</v>
       </c>
       <c r="D236">
-        <v>0.07265299624877508</v>
+        <v>0.3784575698265262</v>
       </c>
       <c r="E236">
         <v>0.2617347833322832</v>
@@ -23140,7 +23140,7 @@
         <v>0.912069488323998</v>
       </c>
       <c r="D237">
-        <v>0.06462633956922437</v>
+        <v>0.4187686278306959</v>
       </c>
       <c r="E237">
         <v>0.2642635724363989</v>
@@ -23166,7 +23166,7 @@
         <v>0.9134840524215238</v>
       </c>
       <c r="D238">
-        <v>0.02250867081187413</v>
+        <v>0.4389794228993055</v>
       </c>
       <c r="E238">
         <v>0.2621293109616297</v>
@@ -23192,7 +23192,7 @@
         <v>0.9142976013418698</v>
       </c>
       <c r="D239">
-        <v>-0.03741811945788354</v>
+        <v>0.4186620985478515</v>
       </c>
       <c r="E239">
         <v>0.2608939391686882</v>
@@ -23218,7 +23218,7 @@
         <v>0.9144496196457413</v>
       </c>
       <c r="D240">
-        <v>-0.02106452502629352</v>
+        <v>0.4434250836033554</v>
       </c>
       <c r="E240">
         <v>0.2606624505650668</v>
@@ -23244,7 +23244,7 @@
         <v>0.9191385691235805</v>
       </c>
       <c r="D241">
-        <v>-0.07270796084849374</v>
+        <v>0.4271479837225429</v>
       </c>
       <c r="E241">
         <v>0.2534184396486673</v>
@@ -23270,7 +23270,7 @@
         <v>0.9218303832968986</v>
       </c>
       <c r="D242">
-        <v>-0.1130620443511279</v>
+        <v>0.4217520815423371</v>
       </c>
       <c r="E242">
         <v>0.2491646875713278</v>
@@ -23296,7 +23296,7 @@
         <v>0.9243371516855767</v>
       </c>
       <c r="D243">
-        <v>-0.1377098836852633</v>
+        <v>0.3958878569013292</v>
       </c>
       <c r="E243">
         <v>0.2451369874293155</v>
@@ -23322,7 +23322,7 @@
         <v>0.9271885960154403</v>
       </c>
       <c r="D244">
-        <v>-0.1713152091578047</v>
+        <v>0.3759004929502595</v>
       </c>
       <c r="E244">
         <v>0.2404734888078839</v>
@@ -23348,7 +23348,7 @@
         <v>0.9275759657172464</v>
       </c>
       <c r="D245">
-        <v>-0.1403429355300612</v>
+        <v>0.3895038673400933</v>
       </c>
       <c r="E245">
         <v>0.2398329547311974</v>
@@ -23374,7 +23374,7 @@
         <v>0.921932830631766</v>
       </c>
       <c r="D246">
-        <v>-0.1479238797879616</v>
+        <v>0.3725163623084471</v>
       </c>
       <c r="E246">
         <v>0.2490013592330223</v>
@@ -23400,7 +23400,7 @@
         <v>0.9232341520694164</v>
       </c>
       <c r="D247">
-        <v>-0.1523863985665288</v>
+        <v>0.3687232487057137</v>
       </c>
       <c r="E247">
         <v>0.2469173044342829</v>
@@ -23426,7 +23426,7 @@
         <v>0.9241888371417725</v>
       </c>
       <c r="D248">
-        <v>-0.1970502861090542</v>
+        <v>0.3649371700705052</v>
       </c>
       <c r="E248">
         <v>0.2453771289369972</v>
@@ -23452,7 +23452,7 @@
         <v>0.896426112647122</v>
       </c>
       <c r="D249">
-        <v>0.2594075442498301</v>
+        <v>0.250144491443414</v>
       </c>
       <c r="E249">
         <v>0.2868089105263526</v>
@@ -23478,7 +23478,7 @@
         <v>0.9047918264966779</v>
       </c>
       <c r="D250">
-        <v>0.229852296041505</v>
+        <v>0.2875480227501747</v>
       </c>
       <c r="E250">
         <v>0.2749822228527208</v>
@@ -23504,7 +23504,7 @@
         <v>0.9149565331417154</v>
       </c>
       <c r="D251">
-        <v>0.1060244640314574</v>
+        <v>0.3077478232258861</v>
       </c>
       <c r="E251">
         <v>0.2598890488065276</v>
@@ -23530,7 +23530,7 @@
         <v>0.9155929679385593</v>
       </c>
       <c r="D252">
-        <v>0.1412961848432169</v>
+        <v>0.3242660369807785</v>
       </c>
       <c r="E252">
         <v>0.2589147643812624</v>
@@ -23556,7 +23556,7 @@
         <v>0.9158206132693361</v>
       </c>
       <c r="D253">
-        <v>0.07740589545421617</v>
+        <v>0.2599992085423217</v>
       </c>
       <c r="E253">
         <v>0.2585653827590385</v>
@@ -23582,7 +23582,7 @@
         <v>0.9181357351581479</v>
       </c>
       <c r="D254">
-        <v>0.05621712502710408</v>
+        <v>0.306607387207218</v>
       </c>
       <c r="E254">
         <v>0.2549850303045667</v>
@@ -23608,7 +23608,7 @@
         <v>0.9254468639277581</v>
       </c>
       <c r="D255">
-        <v>0.004672401142584826</v>
+        <v>0.3195525099319514</v>
       </c>
       <c r="E255">
         <v>0.2433326914993304</v>
@@ -23634,7 +23634,7 @@
         <v>0.9238111907222971</v>
       </c>
       <c r="D256">
-        <v>-0.04244626338341995</v>
+        <v>0.33978305846806</v>
       </c>
       <c r="E256">
         <v>0.245987531651161</v>
@@ -23660,7 +23660,7 @@
         <v>0.9222680664968812</v>
       </c>
       <c r="D257">
-        <v>-0.07707619894506945</v>
+        <v>0.3481221586923295</v>
       </c>
       <c r="E257">
         <v>0.2484661535034755</v>
@@ -23686,7 +23686,7 @@
         <v>0.9206957937376092</v>
       </c>
       <c r="D258">
-        <v>-0.06340169438236276</v>
+        <v>0.3340115029486993</v>
       </c>
       <c r="E258">
         <v>0.2509664184394342</v>
@@ -23712,7 +23712,7 @@
         <v>0.9239848589223235</v>
       </c>
       <c r="D259">
-        <v>-0.07318882671618221</v>
+        <v>0.3657728008502193</v>
       </c>
       <c r="E259">
         <v>0.2457070141799274</v>
@@ -23738,7 +23738,7 @@
         <v>0.9286111278150462</v>
       </c>
       <c r="D260">
-        <v>-0.1318008342256771</v>
+        <v>0.3541176093787916</v>
       </c>
       <c r="E260">
         <v>0.2381128109619642</v>
@@ -23764,7 +23764,7 @@
         <v>0.9324749664302395</v>
       </c>
       <c r="D261">
-        <v>-0.1327044482082798</v>
+        <v>0.3558417437581526</v>
       </c>
       <c r="E261">
         <v>0.2315793901379968</v>
@@ -23790,7 +23790,7 @@
         <v>0.9351659238557469</v>
       </c>
       <c r="D262">
-        <v>-0.1518349173483222</v>
+        <v>0.3303753419631749</v>
       </c>
       <c r="E262">
         <v>0.2269181137599468</v>
@@ -23816,7 +23816,7 @@
         <v>0.9357401670321301</v>
       </c>
       <c r="D263">
-        <v>-0.2146718805945163</v>
+        <v>0.3130233244682633</v>
       </c>
       <c r="E263">
         <v>0.2259109582218639</v>
@@ -23842,7 +23842,7 @@
         <v>0.9368086320097677</v>
       </c>
       <c r="D264">
-        <v>-0.2574314578698662</v>
+        <v>0.3182564294958813</v>
       </c>
       <c r="E264">
         <v>0.2240249453851762</v>
@@ -23868,7 +23868,7 @@
         <v>0.9338749514173316</v>
       </c>
       <c r="D265">
-        <v>-0.1770266713725968</v>
+        <v>0.3450974476254279</v>
       </c>
       <c r="E265">
         <v>0.2291661684260493</v>
@@ -23894,7 +23894,7 @@
         <v>0.9343936912026779</v>
       </c>
       <c r="D266">
-        <v>-0.1464841615767274</v>
+        <v>0.3537442066864046</v>
       </c>
       <c r="E266">
         <v>0.2282655137253467</v>
@@ -23920,7 +23920,7 @@
         <v>0.9330724238786099</v>
       </c>
       <c r="D267">
-        <v>-0.1797625218828183</v>
+        <v>0.348315106718414</v>
       </c>
       <c r="E267">
         <v>0.2305526135979689</v>
@@ -23946,7 +23946,7 @@
         <v>0.89068239009818</v>
       </c>
       <c r="D268">
-        <v>0.160376291490245</v>
+        <v>0.201645380233418</v>
       </c>
       <c r="E268">
         <v>0.294654152163937</v>
@@ -23972,7 +23972,7 @@
         <v>0.9200746264573215</v>
       </c>
       <c r="D269">
-        <v>0.2442744119724621</v>
+        <v>0.4012517384540525</v>
       </c>
       <c r="E269">
         <v>0.2519473755661426</v>
@@ -23998,7 +23998,7 @@
         <v>0.9236653072626791</v>
       </c>
       <c r="D270">
-        <v>0.1779053748724556</v>
+        <v>0.3466470730291371</v>
       </c>
       <c r="E270">
         <v>0.2462229228513257</v>
@@ -24024,7 +24024,7 @@
         <v>0.929387779702156</v>
       </c>
       <c r="D271">
-        <v>0.18034960012684</v>
+        <v>0.3792244904048233</v>
       </c>
       <c r="E271">
         <v>0.236814033670365</v>
@@ -24050,7 +24050,7 @@
         <v>0.9213162183477666</v>
       </c>
       <c r="D272">
-        <v>0.07262929416981234</v>
+        <v>0.2877896025120141</v>
       </c>
       <c r="E272">
         <v>0.2499827917068275</v>
@@ -24076,7 +24076,7 @@
         <v>0.9233254992689823</v>
       </c>
       <c r="D273">
-        <v>0.09102726652223181</v>
+        <v>0.326315319288185</v>
       </c>
       <c r="E273">
         <v>0.2467703515981223</v>
@@ -24102,7 +24102,7 @@
         <v>0.9281183570190491</v>
       </c>
       <c r="D274">
-        <v>0.07295869356885565</v>
+        <v>0.3539757038642891</v>
       </c>
       <c r="E274">
         <v>0.2389331997117277</v>
@@ -24128,7 +24128,7 @@
         <v>0.9218828147693673</v>
       </c>
       <c r="D275">
-        <v>0.05419126723778789</v>
+        <v>0.3796659076051628</v>
       </c>
       <c r="E275">
         <v>0.2490811112190902</v>
@@ -24154,7 +24154,7 @@
         <v>0.921473225417446</v>
       </c>
       <c r="D276">
-        <v>0.07900745211821214</v>
+        <v>0.3877263787445718</v>
       </c>
       <c r="E276">
         <v>0.2497332570256763</v>
@@ -24180,7 +24180,7 @@
         <v>0.9234781098958095</v>
       </c>
       <c r="D277">
-        <v>0.1191465390855908</v>
+        <v>0.4051251454020336</v>
       </c>
       <c r="E277">
         <v>0.2465246471228668</v>
@@ -24206,7 +24206,7 @@
         <v>0.9260192179866461</v>
       </c>
       <c r="D278">
-        <v>0.1049739964148989</v>
+        <v>0.4051115351185668</v>
       </c>
       <c r="E278">
         <v>0.2423968436252016</v>
@@ -24232,7 +24232,7 @@
         <v>0.9279237930580804</v>
       </c>
       <c r="D279">
-        <v>0.05741931633485642</v>
+        <v>0.3954931073453319</v>
       </c>
       <c r="E279">
         <v>0.2392563446266359</v>
@@ -24258,7 +24258,7 @@
         <v>0.9308664956766529</v>
       </c>
       <c r="D280">
-        <v>0.01908207951212848</v>
+        <v>0.3614356079734524</v>
       </c>
       <c r="E280">
         <v>0.2343213103202915</v>
@@ -24284,7 +24284,7 @@
         <v>0.9324989358139639</v>
       </c>
       <c r="D281">
-        <v>0.005740723073514475</v>
+        <v>0.3464127837944181</v>
       </c>
       <c r="E281">
         <v>0.2315382845831193</v>
@@ -24310,7 +24310,7 @@
         <v>0.9341365367814258</v>
       </c>
       <c r="D282">
-        <v>-0.07106683315348383</v>
+        <v>0.3038857097429055</v>
       </c>
       <c r="E282">
         <v>0.2287124378024489</v>
@@ -24336,7 +24336,7 @@
         <v>0.9351100367161178</v>
       </c>
       <c r="D283">
-        <v>-0.1121808182308353</v>
+        <v>0.3026294823337974</v>
       </c>
       <c r="E283">
         <v>0.2270158946901494</v>
@@ -24362,7 +24362,7 @@
         <v>0.9312300595802026</v>
       </c>
       <c r="D284">
-        <v>-0.1021531997364649</v>
+        <v>0.3051690620023939</v>
       </c>
       <c r="E284">
         <v>0.2337043658423226</v>
@@ -24388,7 +24388,7 @@
         <v>0.9314731083504142</v>
       </c>
       <c r="D285">
-        <v>-0.08097824891575933</v>
+        <v>0.3051126099934288</v>
       </c>
       <c r="E285">
         <v>0.2332910178396398</v>
@@ -24414,7 +24414,7 @@
         <v>0.9310626929825886</v>
       </c>
       <c r="D286">
-        <v>-0.08604904331864782</v>
+        <v>0.3022233203706809</v>
       </c>
       <c r="E286">
         <v>0.2339885782099983</v>
@@ -24440,7 +24440,7 @@
         <v>0.8949679973176027</v>
       </c>
       <c r="D287">
-        <v>0.007958096989515329</v>
+        <v>0.3944227888089211</v>
       </c>
       <c r="E287">
         <v>0.2888207056379215</v>
@@ -24466,7 +24466,7 @@
         <v>0.916896674744924</v>
       </c>
       <c r="D288">
-        <v>0.1450142971704903</v>
+        <v>0.4103393751413807</v>
       </c>
       <c r="E288">
         <v>0.2569074523279462</v>
@@ -24492,7 +24492,7 @@
         <v>0.9300895343574984</v>
       </c>
       <c r="D289">
-        <v>0.1827964802376939</v>
+        <v>0.4741146501983883</v>
       </c>
       <c r="E289">
         <v>0.2356343489922998</v>
@@ -24518,7 +24518,7 @@
         <v>0.9317075578190546</v>
       </c>
       <c r="D290">
-        <v>0.1341197426527705</v>
+        <v>0.4022073204408847</v>
       </c>
       <c r="E290">
         <v>0.2328915993362067</v>
@@ -24544,7 +24544,7 @@
         <v>0.9253171223044854</v>
       </c>
       <c r="D291">
-        <v>0.0788049911282771</v>
+        <v>0.4591908781126774</v>
       </c>
       <c r="E291">
         <v>0.2435443301831448</v>
@@ -24570,7 +24570,7 @@
         <v>0.9239012748347685</v>
       </c>
       <c r="D292">
-        <v>0.04654287282715219</v>
+        <v>0.4613060943017454</v>
       </c>
       <c r="E292">
         <v>0.2458420632890087</v>
@@ -24596,7 +24596,7 @@
         <v>0.92729550079516</v>
       </c>
       <c r="D293">
-        <v>-0.04776251456308978</v>
+        <v>0.3962523965433133</v>
       </c>
       <c r="E293">
         <v>0.2402968872923065</v>
@@ -24622,7 +24622,7 @@
         <v>0.9196917559737593</v>
       </c>
       <c r="D294">
-        <v>-0.07091314053023146</v>
+        <v>0.4186111166562333</v>
       </c>
       <c r="E294">
         <v>0.25255011260688</v>
@@ -24648,7 +24648,7 @@
         <v>0.9179871954144753</v>
       </c>
       <c r="D295">
-        <v>-0.06506837258283871</v>
+        <v>0.4518861011626365</v>
       </c>
       <c r="E295">
         <v>0.2552162560157726</v>
@@ -24674,7 +24674,7 @@
         <v>0.917936760027438</v>
       </c>
       <c r="D296">
-        <v>-0.066781497333122</v>
+        <v>0.4797770540186536</v>
       </c>
       <c r="E296">
         <v>0.2552947190823752</v>
@@ -24700,7 +24700,7 @@
         <v>0.9137250136908395</v>
       </c>
       <c r="D297">
-        <v>-0.03003565129532904</v>
+        <v>0.5027457423039822</v>
       </c>
       <c r="E297">
         <v>0.2617640196223876</v>
@@ -24726,7 +24726,7 @@
         <v>0.915224839770241</v>
       </c>
       <c r="D298">
-        <v>-0.06569807019468521</v>
+        <v>0.4828984786221293</v>
       </c>
       <c r="E298">
         <v>0.259478758384724</v>
@@ -24752,7 +24752,7 @@
         <v>0.9178785339003974</v>
       </c>
       <c r="D299">
-        <v>-0.0837859714042275</v>
+        <v>0.4352255239157179</v>
       </c>
       <c r="E299">
         <v>0.2553852723370105</v>
@@ -24778,7 +24778,7 @@
         <v>0.9213631525568604</v>
       </c>
       <c r="D300">
-        <v>-0.1073724239346758</v>
+        <v>0.4133207126428019</v>
       </c>
       <c r="E300">
         <v>0.2499082242768431</v>
@@ -24804,7 +24804,7 @@
         <v>0.9259527341719488</v>
       </c>
       <c r="D301">
-        <v>-0.1474247053215132</v>
+        <v>0.3825380066699599</v>
       </c>
       <c r="E301">
         <v>0.2425057357416914</v>
@@ -24830,7 +24830,7 @@
         <v>0.9293293064846029</v>
       </c>
       <c r="D302">
-        <v>-0.1839101568568484</v>
+        <v>0.3726223023142945</v>
       </c>
       <c r="E302">
         <v>0.2369120649526482</v>
@@ -24856,7 +24856,7 @@
         <v>0.9240282606487545</v>
       </c>
       <c r="D303">
-        <v>-0.1552218481519887</v>
+        <v>0.3874151324606734</v>
       </c>
       <c r="E303">
         <v>0.2456368595298522</v>
@@ -24882,7 +24882,7 @@
         <v>0.9244094917697244</v>
       </c>
       <c r="D304">
-        <v>-0.1158591290948923</v>
+        <v>0.3944055685089396</v>
       </c>
       <c r="E304">
         <v>0.2450197735566021</v>
@@ -24908,7 +24908,7 @@
         <v>0.9239259757892661</v>
       </c>
       <c r="D305">
-        <v>-0.1172827754108923</v>
+        <v>0.3891666193651361</v>
       </c>
       <c r="E305">
         <v>0.2458021610011714</v>
@@ -24934,7 +24934,7 @@
         <v>0.8880125149843482</v>
       </c>
       <c r="D306">
-        <v>0.06184993018780494</v>
+        <v>0.5117579064725137</v>
       </c>
       <c r="E306">
         <v>0.2982306308923085</v>
@@ -24960,7 +24960,7 @@
         <v>0.9228179529315966</v>
       </c>
       <c r="D307">
-        <v>-0.2823798085608757</v>
+        <v>0.3236121251263061</v>
       </c>
       <c r="E307">
         <v>0.2475857517739254</v>
@@ -24986,7 +24986,7 @@
         <v>0.9200087851815851</v>
       </c>
       <c r="D308">
-        <v>-0.1378766231610464</v>
+        <v>0.4341707212320386</v>
       </c>
       <c r="E308">
         <v>0.252051129361418</v>
@@ -25012,7 +25012,7 @@
         <v>0.9197962692092715</v>
       </c>
       <c r="D309">
-        <v>-0.06808414528945428</v>
+        <v>0.3952398210560776</v>
       </c>
       <c r="E309">
         <v>0.252385724611133</v>
@@ -25038,7 +25038,7 @@
         <v>0.9167106500438971</v>
       </c>
       <c r="D310">
-        <v>-0.121616932933299</v>
+        <v>0.3968958837146349</v>
       </c>
       <c r="E310">
         <v>0.2571948320263208</v>
@@ -25064,7 +25064,7 @@
         <v>0.9160192029238666</v>
       </c>
       <c r="D311">
-        <v>-0.1068702651810713</v>
+        <v>0.4242220836741872</v>
       </c>
       <c r="E311">
         <v>0.2582602087008202</v>
@@ -25090,7 +25090,7 @@
         <v>0.917068192060806</v>
       </c>
       <c r="D312">
-        <v>-0.1279405596232954</v>
+        <v>0.4100450229038245</v>
       </c>
       <c r="E312">
         <v>0.2566421991866254</v>
@@ -25116,7 +25116,7 @@
         <v>0.9086373637506838</v>
       </c>
       <c r="D313">
-        <v>-0.1780823716302853</v>
+        <v>0.4254719148416112</v>
       </c>
       <c r="E313">
         <v>0.2693716042754378</v>
@@ -25142,7 +25142,7 @@
         <v>0.9101511466514461</v>
       </c>
       <c r="D314">
-        <v>-0.1655437023426991</v>
+        <v>0.4482285968955187</v>
       </c>
       <c r="E314">
         <v>0.2671306808206816</v>
@@ -25168,7 +25168,7 @@
         <v>0.9134058173595205</v>
       </c>
       <c r="D315">
-        <v>-0.2704187939051585</v>
+        <v>0.4123707686210533</v>
       </c>
       <c r="E315">
         <v>0.2622478039641541</v>
@@ -25194,7 +25194,7 @@
         <v>0.9116702784829944</v>
       </c>
       <c r="D316">
-        <v>-0.2378786687247068</v>
+        <v>0.438799691720079</v>
       </c>
       <c r="E316">
         <v>0.2648627793983205</v>
@@ -25220,7 +25220,7 @@
         <v>0.9128527853499231</v>
       </c>
       <c r="D317">
-        <v>-0.3177691174103763</v>
+        <v>0.4010809455507512</v>
       </c>
       <c r="E317">
         <v>0.2630838913434254</v>
@@ -25246,7 +25246,7 @@
         <v>0.9158536089410603</v>
       </c>
       <c r="D318">
-        <v>-0.3200390702634075</v>
+        <v>0.3899467121628662</v>
       </c>
       <c r="E318">
         <v>0.2585147030439223</v>
@@ -25272,7 +25272,7 @@
         <v>0.9200007920386447</v>
       </c>
       <c r="D319">
-        <v>-0.278177029534195</v>
+        <v>0.4004565259992843</v>
       </c>
       <c r="E319">
         <v>0.2520637221841612</v>
@@ -25298,7 +25298,7 @@
         <v>0.9249104265167281</v>
       </c>
       <c r="D320">
-        <v>-0.3279533424065393</v>
+        <v>0.3655634578022298</v>
       </c>
       <c r="E320">
         <v>0.2442065567652089</v>
@@ -25324,7 +25324,7 @@
         <v>0.9252270350420854</v>
       </c>
       <c r="D321">
-        <v>-0.3411080490998615</v>
+        <v>0.3682995728584623</v>
       </c>
       <c r="E321">
         <v>0.2436911752848128</v>
@@ -25350,7 +25350,7 @@
         <v>0.9222028581574693</v>
       </c>
       <c r="D322">
-        <v>-0.2969128119334878</v>
+        <v>0.3711091538813815</v>
       </c>
       <c r="E322">
         <v>0.2485703492183985</v>
@@ -25376,7 +25376,7 @@
         <v>0.9205366202947024</v>
       </c>
       <c r="D323">
-        <v>-0.31165390457272</v>
+        <v>0.3648469153776657</v>
       </c>
       <c r="E323">
         <v>0.2512181526544329</v>
@@ -25402,7 +25402,7 @@
         <v>0.9159527369539892</v>
       </c>
       <c r="D324">
-        <v>-0.3248708398126072</v>
+        <v>0.3586875997494237</v>
       </c>
       <c r="E324">
         <v>0.2583623875370152</v>
@@ -25428,7 +25428,7 @@
         <v>0.8880125149843482</v>
       </c>
       <c r="D325">
-        <v>0.06184993018780494</v>
+        <v>0.5117579064725137</v>
       </c>
       <c r="E325">
         <v>0.2982306308923085</v>
@@ -25454,7 +25454,7 @@
         <v>0.9228179529315966</v>
       </c>
       <c r="D326">
-        <v>-0.2823798085608757</v>
+        <v>0.3236121251263061</v>
       </c>
       <c r="E326">
         <v>0.2475857517739254</v>
@@ -25480,7 +25480,7 @@
         <v>0.9200087851815851</v>
       </c>
       <c r="D327">
-        <v>-0.1378766231610464</v>
+        <v>0.4341707212320386</v>
       </c>
       <c r="E327">
         <v>0.252051129361418</v>
@@ -25506,7 +25506,7 @@
         <v>0.9197962692092715</v>
       </c>
       <c r="D328">
-        <v>-0.06808414528945428</v>
+        <v>0.3952398210560776</v>
       </c>
       <c r="E328">
         <v>0.252385724611133</v>
@@ -25532,7 +25532,7 @@
         <v>0.9167106500438971</v>
       </c>
       <c r="D329">
-        <v>-0.121616932933299</v>
+        <v>0.3968958837146349</v>
       </c>
       <c r="E329">
         <v>0.2571948320263208</v>
@@ -25558,7 +25558,7 @@
         <v>0.9160192029238666</v>
       </c>
       <c r="D330">
-        <v>-0.1068702651810713</v>
+        <v>0.4242220836741872</v>
       </c>
       <c r="E330">
         <v>0.2582602087008202</v>
@@ -25584,7 +25584,7 @@
         <v>0.917068192060806</v>
       </c>
       <c r="D331">
-        <v>-0.1279405596232954</v>
+        <v>0.4100450229038245</v>
       </c>
       <c r="E331">
         <v>0.2566421991866254</v>
@@ -25610,7 +25610,7 @@
         <v>0.9086373637506838</v>
       </c>
       <c r="D332">
-        <v>-0.1780823716302853</v>
+        <v>0.4254719148416112</v>
       </c>
       <c r="E332">
         <v>0.2693716042754378</v>
@@ -25636,7 +25636,7 @@
         <v>0.9101511466514461</v>
       </c>
       <c r="D333">
-        <v>-0.1655437023426991</v>
+        <v>0.4482285968955187</v>
       </c>
       <c r="E333">
         <v>0.2671306808206816</v>
@@ -25662,7 +25662,7 @@
         <v>0.9134058173595205</v>
       </c>
       <c r="D334">
-        <v>-0.2704187939051585</v>
+        <v>0.4123707686210533</v>
       </c>
       <c r="E334">
         <v>0.2622478039641541</v>
@@ -25688,7 +25688,7 @@
         <v>0.9116702784829944</v>
       </c>
       <c r="D335">
-        <v>-0.2378786687247068</v>
+        <v>0.438799691720079</v>
       </c>
       <c r="E335">
         <v>0.2648627793983205</v>
@@ -25714,7 +25714,7 @@
         <v>0.9128527853499231</v>
       </c>
       <c r="D336">
-        <v>-0.3177691174103763</v>
+        <v>0.4010809455507512</v>
       </c>
       <c r="E336">
         <v>0.2630838913434254</v>
@@ -25740,7 +25740,7 @@
         <v>0.9158536089410603</v>
       </c>
       <c r="D337">
-        <v>-0.3200390702634075</v>
+        <v>0.3899467121628662</v>
       </c>
       <c r="E337">
         <v>0.2585147030439223</v>
@@ -25766,7 +25766,7 @@
         <v>0.9200007920386447</v>
       </c>
       <c r="D338">
-        <v>-0.278177029534195</v>
+        <v>0.4004565259992843</v>
       </c>
       <c r="E338">
         <v>0.2520637221841612</v>
@@ -25792,7 +25792,7 @@
         <v>0.9249104265167281</v>
       </c>
       <c r="D339">
-        <v>-0.3279533424065393</v>
+        <v>0.3655634578022298</v>
       </c>
       <c r="E339">
         <v>0.2442065567652089</v>
@@ -25818,7 +25818,7 @@
         <v>0.9252270350420854</v>
       </c>
       <c r="D340">
-        <v>-0.3411080490998615</v>
+        <v>0.3682995728584623</v>
       </c>
       <c r="E340">
         <v>0.2436911752848128</v>
@@ -25844,7 +25844,7 @@
         <v>0.9222028581574693</v>
       </c>
       <c r="D341">
-        <v>-0.2969128119334878</v>
+        <v>0.3711091538813815</v>
       </c>
       <c r="E341">
         <v>0.2485703492183985</v>
@@ -25870,7 +25870,7 @@
         <v>0.9205366202947024</v>
       </c>
       <c r="D342">
-        <v>-0.31165390457272</v>
+        <v>0.3648469153776657</v>
       </c>
       <c r="E342">
         <v>0.2512181526544329</v>
@@ -25896,7 +25896,7 @@
         <v>0.9159527369539892</v>
       </c>
       <c r="D343">
-        <v>-0.3248708398126072</v>
+        <v>0.3586875997494237</v>
       </c>
       <c r="E343">
         <v>0.2583623875370152</v>
@@ -25922,7 +25922,7 @@
         <v>0.8201458793347601</v>
       </c>
       <c r="D344">
-        <v>-0.04907876017529289</v>
+        <v>0.1148433139156405</v>
       </c>
       <c r="E344">
         <v>0.3779442111073089</v>
@@ -25948,7 +25948,7 @@
         <v>0.8807161103784853</v>
       </c>
       <c r="D345">
-        <v>-0.1723275456139863</v>
+        <v>0.2089819326181133</v>
       </c>
       <c r="E345">
         <v>0.3077927582982062</v>
@@ -25974,7 +25974,7 @@
         <v>0.8894102758677136</v>
       </c>
       <c r="D346">
-        <v>-0.2377626017601715</v>
+        <v>0.3594970907895292</v>
       </c>
       <c r="E346">
         <v>0.2963636185850406</v>
@@ -26000,7 +26000,7 @@
         <v>0.8895590862472722</v>
       </c>
       <c r="D347">
-        <v>-0.2168806313549421</v>
+        <v>0.3694872930686111</v>
       </c>
       <c r="E347">
         <v>0.2961641568859694</v>
@@ -26026,7 +26026,7 @@
         <v>0.8908609054583736</v>
       </c>
       <c r="D348">
-        <v>-0.3769420695865231</v>
+        <v>0.369562370453742</v>
       </c>
       <c r="E348">
         <v>0.2944134691498356</v>
@@ -26052,7 +26052,7 @@
         <v>0.8933572783451621</v>
       </c>
       <c r="D349">
-        <v>-0.3804679445451999</v>
+        <v>0.3565255490435442</v>
       </c>
       <c r="E349">
         <v>0.2910268855195065</v>
@@ -26078,7 +26078,7 @@
         <v>0.892153582703872</v>
       </c>
       <c r="D350">
-        <v>-0.3458715510108674</v>
+        <v>0.3625720565776177</v>
       </c>
       <c r="E350">
         <v>0.2926647133570915</v>
@@ -26104,7 +26104,7 @@
         <v>0.886625371570458</v>
       </c>
       <c r="D351">
-        <v>-0.3862061756657185</v>
+        <v>0.379240893097749</v>
       </c>
       <c r="E351">
         <v>0.300071977182733</v>
@@ -26130,7 +26130,7 @@
         <v>0.8851394666020347</v>
       </c>
       <c r="D352">
-        <v>-0.3307782478361996</v>
+        <v>0.3841217882418683</v>
       </c>
       <c r="E352">
         <v>0.3020319703767402</v>
@@ -26156,7 +26156,7 @@
         <v>0.891153278310058</v>
       </c>
       <c r="D353">
-        <v>-0.3237928657409923</v>
+        <v>0.3664515692225745</v>
       </c>
       <c r="E353">
         <v>0.2940188523893985</v>
@@ -26182,7 +26182,7 @@
         <v>0.8893476864446874</v>
       </c>
       <c r="D354">
-        <v>-0.3165744961102213</v>
+        <v>0.3744503851475468</v>
       </c>
       <c r="E354">
         <v>0.2964474717831938</v>
@@ -26208,7 +26208,7 @@
         <v>0.8893545552872402</v>
       </c>
       <c r="D355">
-        <v>-0.4670322086036067</v>
+        <v>0.3429435764196375</v>
       </c>
       <c r="E355">
         <v>0.2964382705177845</v>
@@ -26234,7 +26234,7 @@
         <v>0.8935820493532526</v>
       </c>
       <c r="D356">
-        <v>-0.4048487408901589</v>
+        <v>0.3377334985415625</v>
       </c>
       <c r="E356">
         <v>0.2907200248622353</v>
@@ -26260,7 +26260,7 @@
         <v>0.8932671274692571</v>
       </c>
       <c r="D357">
-        <v>-0.3970514770396503</v>
+        <v>0.3436590700661871</v>
       </c>
       <c r="E357">
         <v>0.2911498699380819</v>
@@ -26286,7 +26286,7 @@
         <v>0.899743196107291</v>
       </c>
       <c r="D358">
-        <v>-0.3846302032488569</v>
+        <v>0.3267364733635559</v>
       </c>
       <c r="E358">
         <v>0.2821788305551886</v>
@@ -26312,7 +26312,7 @@
         <v>0.8977492375559781</v>
       </c>
       <c r="D359">
-        <v>-0.4121829772222803</v>
+        <v>0.3109034406996638</v>
       </c>
       <c r="E359">
         <v>0.2849710739101831</v>
@@ -26338,7 +26338,7 @@
         <v>0.8979813398384067</v>
       </c>
       <c r="D360">
-        <v>-0.3700981329667936</v>
+        <v>0.316352188537398</v>
       </c>
       <c r="E360">
         <v>0.284647457672665</v>
@@ -26364,7 +26364,7 @@
         <v>0.8982904649583017</v>
       </c>
       <c r="D361">
-        <v>-0.424937894423955</v>
+        <v>0.3202565524422262</v>
       </c>
       <c r="E361">
         <v>0.284215877626102</v>
@@ -26390,7 +26390,7 @@
         <v>0.8978901370900285</v>
       </c>
       <c r="D362">
-        <v>-0.4284146947405534</v>
+        <v>0.3150164844986624</v>
       </c>
       <c r="E362">
         <v>0.2847746639647867</v>
@@ -26416,7 +26416,7 @@
         <v>0.8201458793347601</v>
       </c>
       <c r="D363">
-        <v>-0.04907876017529289</v>
+        <v>0.1148433139156405</v>
       </c>
       <c r="E363">
         <v>0.3779442111073089</v>
@@ -26442,7 +26442,7 @@
         <v>0.8807161103784853</v>
       </c>
       <c r="D364">
-        <v>-0.1723275456139863</v>
+        <v>0.2089819326181133</v>
       </c>
       <c r="E364">
         <v>0.3077927582982062</v>
@@ -26468,7 +26468,7 @@
         <v>0.8894102758677136</v>
       </c>
       <c r="D365">
-        <v>-0.2377626017601715</v>
+        <v>0.3594970907895292</v>
       </c>
       <c r="E365">
         <v>0.2963636185850406</v>
@@ -26494,7 +26494,7 @@
         <v>0.8895590862472722</v>
       </c>
       <c r="D366">
-        <v>-0.2168806313549421</v>
+        <v>0.3694872930686111</v>
       </c>
       <c r="E366">
         <v>0.2961641568859694</v>
@@ -26520,7 +26520,7 @@
         <v>0.8908609054583736</v>
       </c>
       <c r="D367">
-        <v>-0.3769420695865231</v>
+        <v>0.369562370453742</v>
       </c>
       <c r="E367">
         <v>0.2944134691498356</v>
@@ -26546,7 +26546,7 @@
         <v>0.8933572783451621</v>
       </c>
       <c r="D368">
-        <v>-0.3804679445451999</v>
+        <v>0.3565255490435442</v>
       </c>
       <c r="E368">
         <v>0.2910268855195065</v>
@@ -26572,7 +26572,7 @@
         <v>0.892153582703872</v>
       </c>
       <c r="D369">
-        <v>-0.3458715510108674</v>
+        <v>0.3625720565776177</v>
       </c>
       <c r="E369">
         <v>0.2926647133570915</v>
@@ -26598,7 +26598,7 @@
         <v>0.886625371570458</v>
       </c>
       <c r="D370">
-        <v>-0.3862061756657185</v>
+        <v>0.379240893097749</v>
       </c>
       <c r="E370">
         <v>0.300071977182733</v>
@@ -26624,7 +26624,7 @@
         <v>0.8851394666020347</v>
       </c>
       <c r="D371">
-        <v>-0.3307782478361996</v>
+        <v>0.3841217882418683</v>
       </c>
       <c r="E371">
         <v>0.3020319703767402</v>
@@ -26650,7 +26650,7 @@
         <v>0.891153278310058</v>
       </c>
       <c r="D372">
-        <v>-0.3237928657409923</v>
+        <v>0.3664515692225745</v>
       </c>
       <c r="E372">
         <v>0.2940188523893985</v>
@@ -26676,7 +26676,7 @@
         <v>0.8893476864446874</v>
       </c>
       <c r="D373">
-        <v>-0.3165744961102213</v>
+        <v>0.3744503851475468</v>
       </c>
       <c r="E373">
         <v>0.2964474717831938</v>
@@ -26702,7 +26702,7 @@
         <v>0.8893545552872402</v>
       </c>
       <c r="D374">
-        <v>-0.4670322086036067</v>
+        <v>0.3429435764196375</v>
       </c>
       <c r="E374">
         <v>0.2964382705177845</v>
@@ -26728,7 +26728,7 @@
         <v>0.8935820493532526</v>
       </c>
       <c r="D375">
-        <v>-0.4048487408901589</v>
+        <v>0.3377334985415625</v>
       </c>
       <c r="E375">
         <v>0.2907200248622353</v>
@@ -26754,7 +26754,7 @@
         <v>0.8932671274692571</v>
       </c>
       <c r="D376">
-        <v>-0.3970514770396503</v>
+        <v>0.3436590700661871</v>
       </c>
       <c r="E376">
         <v>0.2911498699380819</v>
@@ -26780,7 +26780,7 @@
         <v>0.899743196107291</v>
       </c>
       <c r="D377">
-        <v>-0.3846302032488569</v>
+        <v>0.3267364733635559</v>
       </c>
       <c r="E377">
         <v>0.2821788305551886</v>
@@ -26806,7 +26806,7 @@
         <v>0.8977492375559781</v>
       </c>
       <c r="D378">
-        <v>-0.4121829772222803</v>
+        <v>0.3109034406996638</v>
       </c>
       <c r="E378">
         <v>0.2849710739101831</v>
@@ -26832,7 +26832,7 @@
         <v>0.8979813398384067</v>
       </c>
       <c r="D379">
-        <v>-0.3700981329667936</v>
+        <v>0.316352188537398</v>
       </c>
       <c r="E379">
         <v>0.284647457672665</v>
@@ -26858,7 +26858,7 @@
         <v>0.8982904649583017</v>
       </c>
       <c r="D380">
-        <v>-0.424937894423955</v>
+        <v>0.3202565524422262</v>
       </c>
       <c r="E380">
         <v>0.284215877626102</v>
@@ -26884,7 +26884,7 @@
         <v>0.8978901370900285</v>
       </c>
       <c r="D381">
-        <v>-0.4284146947405534</v>
+        <v>0.3150164844986624</v>
       </c>
       <c r="E381">
         <v>0.2847746639647867</v>
@@ -26910,7 +26910,7 @@
         <v>0.7806481935389846</v>
       </c>
       <c r="D382">
-        <v>0.05229541464170717</v>
+        <v>0.4105478830689047</v>
       </c>
       <c r="E382">
         <v>0.4173862223504701</v>
@@ -26936,7 +26936,7 @@
         <v>0.8224683180146677</v>
       </c>
       <c r="D383">
-        <v>0.01799124991269652</v>
+        <v>0.4374717436757376</v>
       </c>
       <c r="E383">
         <v>0.3754961040591757</v>
@@ -26962,7 +26962,7 @@
         <v>0.8189330738356689</v>
       </c>
       <c r="D384">
-        <v>-0.04281828251194009</v>
+        <v>0.4370460707427337</v>
       </c>
       <c r="E384">
         <v>0.3792163606611628</v>
@@ -26988,7 +26988,7 @@
         <v>0.8190790749362979</v>
       </c>
       <c r="D385">
-        <v>-0.01308083879052502</v>
+        <v>0.4643315358694577</v>
       </c>
       <c r="E385">
         <v>0.3790634415924141</v>
@@ -27014,7 +27014,7 @@
         <v>0.819690226638446</v>
       </c>
       <c r="D386">
-        <v>-0.08703066512474678</v>
+        <v>0.4722517188696732</v>
       </c>
       <c r="E386">
         <v>0.3784226609856707</v>
@@ -27040,7 +27040,7 @@
         <v>0.8208915758534001</v>
       </c>
       <c r="D387">
-        <v>-0.2775830363620833</v>
+        <v>0.4338795185277271</v>
       </c>
       <c r="E387">
         <v>0.3771598965320124</v>
@@ -27066,7 +27066,7 @@
         <v>0.8195073064497466</v>
       </c>
       <c r="D388">
-        <v>-0.2817353052435905</v>
+        <v>0.4380693138411477</v>
       </c>
       <c r="E388">
         <v>0.3786145629451245</v>
@@ -27092,7 +27092,7 @@
         <v>0.8087585860039935</v>
       </c>
       <c r="D389">
-        <v>-0.2653612614520917</v>
+        <v>0.4318736990004155</v>
       </c>
       <c r="E389">
         <v>0.3897251874059123</v>
@@ -27118,7 +27118,7 @@
         <v>0.8117087192133807</v>
       </c>
       <c r="D390">
-        <v>-0.2243644736022719</v>
+        <v>0.4239217906740537</v>
       </c>
       <c r="E390">
         <v>0.3867075099864112</v>
@@ -27144,7 +27144,7 @@
         <v>0.8135060625776791</v>
       </c>
       <c r="D391">
-        <v>-0.2238591443057329</v>
+        <v>0.4261622100243789</v>
       </c>
       <c r="E391">
         <v>0.3848574169097027</v>
@@ -27170,7 +27170,7 @@
         <v>0.8121156403882501</v>
       </c>
       <c r="D392">
-        <v>-0.2139675216312871</v>
+        <v>0.4257727749971744</v>
       </c>
       <c r="E392">
         <v>0.3862894221598269</v>
@@ -27196,7 +27196,7 @@
         <v>0.8137183931328487</v>
       </c>
       <c r="D393">
-        <v>-0.2160016578394932</v>
+        <v>0.4315822183724145</v>
       </c>
       <c r="E393">
         <v>0.3846382669929247</v>
@@ -27222,7 +27222,7 @@
         <v>0.8153603725422417</v>
       </c>
       <c r="D394">
-        <v>-0.2461180755861059</v>
+        <v>0.4177355562488894</v>
       </c>
       <c r="E394">
         <v>0.382939317664805</v>
@@ -27248,7 +27248,7 @@
         <v>0.8174720318991411</v>
       </c>
       <c r="D395">
-        <v>-0.2680054629818602</v>
+        <v>0.4101419607392444</v>
       </c>
       <c r="E395">
         <v>0.3807432486330655</v>
@@ -27274,7 +27274,7 @@
         <v>0.8167138331159808</v>
       </c>
       <c r="D396">
-        <v>-0.2815456154068345</v>
+        <v>0.3990447504140966</v>
       </c>
       <c r="E396">
         <v>0.3815332095017365</v>
@@ -27300,7 +27300,7 @@
         <v>0.8203324329283764</v>
       </c>
       <c r="D397">
-        <v>-0.3075463052203871</v>
+        <v>0.4019427053750965</v>
       </c>
       <c r="E397">
         <v>0.3777481490340723</v>
@@ -27326,7 +27326,7 @@
         <v>0.815266685482765</v>
       </c>
       <c r="D398">
-        <v>-0.2960944303629622</v>
+        <v>0.4064040828144954</v>
       </c>
       <c r="E398">
         <v>0.3830364579951476</v>
@@ -27352,7 +27352,7 @@
         <v>0.8183834486896937</v>
       </c>
       <c r="D399">
-        <v>-0.2531146456159661</v>
+        <v>0.415214321345582</v>
       </c>
       <c r="E399">
         <v>0.3797914765111058</v>
@@ -27378,7 +27378,7 @@
         <v>0.8186829296419015</v>
       </c>
       <c r="D400">
-        <v>-0.2804675139538033</v>
+        <v>0.4102101053202463</v>
       </c>
       <c r="E400">
         <v>0.3794782142021207</v>
@@ -27404,7 +27404,7 @@
         <v>0.7806481935389846</v>
       </c>
       <c r="D401">
-        <v>0.05229541464170717</v>
+        <v>0.4105478830689047</v>
       </c>
       <c r="E401">
         <v>0.4173862223504701</v>
@@ -27430,7 +27430,7 @@
         <v>0.8224683180146677</v>
       </c>
       <c r="D402">
-        <v>0.01799124991269652</v>
+        <v>0.4374717436757376</v>
       </c>
       <c r="E402">
         <v>0.3754961040591757</v>
@@ -27456,7 +27456,7 @@
         <v>0.8189330738356689</v>
       </c>
       <c r="D403">
-        <v>-0.04281828251194009</v>
+        <v>0.4370460707427337</v>
       </c>
       <c r="E403">
         <v>0.3792163606611628</v>
@@ -27482,7 +27482,7 @@
         <v>0.8190790749362979</v>
       </c>
       <c r="D404">
-        <v>-0.01308083879052502</v>
+        <v>0.4643315358694577</v>
       </c>
       <c r="E404">
         <v>0.3790634415924141</v>
@@ -27508,7 +27508,7 @@
         <v>0.819690226638446</v>
       </c>
       <c r="D405">
-        <v>-0.08703066512474678</v>
+        <v>0.4722517188696732</v>
       </c>
       <c r="E405">
         <v>0.3784226609856707</v>
@@ -27534,7 +27534,7 @@
         <v>0.8208915758534001</v>
       </c>
       <c r="D406">
-        <v>-0.2775830363620833</v>
+        <v>0.4338795185277271</v>
       </c>
       <c r="E406">
         <v>0.3771598965320124</v>
@@ -27560,7 +27560,7 @@
         <v>0.8195073064497466</v>
       </c>
       <c r="D407">
-        <v>-0.2817353052435905</v>
+        <v>0.4380693138411477</v>
       </c>
       <c r="E407">
         <v>0.3786145629451245</v>
@@ -27586,7 +27586,7 @@
         <v>0.8087585860039935</v>
       </c>
       <c r="D408">
-        <v>-0.2653612614520917</v>
+        <v>0.4318736990004155</v>
       </c>
       <c r="E408">
         <v>0.3897251874059123</v>
@@ -27612,7 +27612,7 @@
         <v>0.8117087192133807</v>
       </c>
       <c r="D409">
-        <v>-0.2243644736022719</v>
+        <v>0.4239217906740537</v>
       </c>
       <c r="E409">
         <v>0.3867075099864112</v>
@@ -27638,7 +27638,7 @@
         <v>0.8135060625776791</v>
       </c>
       <c r="D410">
-        <v>-0.2238591443057329</v>
+        <v>0.4261622100243789</v>
       </c>
       <c r="E410">
         <v>0.3848574169097027</v>
@@ -27664,7 +27664,7 @@
         <v>0.8121156403882501</v>
       </c>
       <c r="D411">
-        <v>-0.2139675216312871</v>
+        <v>0.4257727749971744</v>
       </c>
       <c r="E411">
         <v>0.3862894221598269</v>
@@ -27690,7 +27690,7 @@
         <v>0.8137183931328487</v>
       </c>
       <c r="D412">
-        <v>-0.2160016578394932</v>
+        <v>0.4315822183724145</v>
       </c>
       <c r="E412">
         <v>0.3846382669929247</v>
@@ -27716,7 +27716,7 @@
         <v>0.8153603725422417</v>
       </c>
       <c r="D413">
-        <v>-0.2461180755861059</v>
+        <v>0.4177355562488894</v>
       </c>
       <c r="E413">
         <v>0.382939317664805</v>
@@ -27742,7 +27742,7 @@
         <v>0.8174720318991411</v>
       </c>
       <c r="D414">
-        <v>-0.2680054629818602</v>
+        <v>0.4101419607392444</v>
       </c>
       <c r="E414">
         <v>0.3807432486330655</v>
@@ -27768,7 +27768,7 @@
         <v>0.8167138331159808</v>
       </c>
       <c r="D415">
-        <v>-0.2815456154068345</v>
+        <v>0.3990447504140966</v>
       </c>
       <c r="E415">
         <v>0.3815332095017365</v>
@@ -27794,7 +27794,7 @@
         <v>0.8203324329283764</v>
       </c>
       <c r="D416">
-        <v>-0.3075463052203871</v>
+        <v>0.4019427053750965</v>
       </c>
       <c r="E416">
         <v>0.3777481490340723</v>
@@ -27820,7 +27820,7 @@
         <v>0.815266685482765</v>
       </c>
       <c r="D417">
-        <v>-0.2960944303629622</v>
+        <v>0.4064040828144954</v>
       </c>
       <c r="E417">
         <v>0.3830364579951476</v>
@@ -27846,7 +27846,7 @@
         <v>0.8183834486896937</v>
       </c>
       <c r="D418">
-        <v>-0.2531146456159661</v>
+        <v>0.415214321345582</v>
       </c>
       <c r="E418">
         <v>0.3797914765111058</v>
@@ -27872,7 +27872,7 @@
         <v>0.8186829296419015</v>
       </c>
       <c r="D419">
-        <v>-0.2804675139538033</v>
+        <v>0.4102101053202463</v>
       </c>
       <c r="E419">
         <v>0.3794782142021207</v>
@@ -27931,7 +27931,7 @@
         <v>0.5935197496211684</v>
       </c>
       <c r="D2">
-        <v>-0.7015289398669091</v>
+        <v>0.003552246374957546</v>
       </c>
       <c r="E2">
         <v>0.5681816795342624</v>
@@ -27954,7 +27954,7 @@
         <v>0.5935197496211684</v>
       </c>
       <c r="D3">
-        <v>-0.7015289398669091</v>
+        <v>0.003552246374957546</v>
       </c>
       <c r="E3">
         <v>0.5681816795342624</v>
@@ -27977,7 +27977,7 @@
         <v>0.6482408217578022</v>
       </c>
       <c r="D4">
-        <v>-0.4252119719902567</v>
+        <v>0.08855449597875065</v>
       </c>
       <c r="E4">
         <v>0.5285550426234772</v>
@@ -28000,7 +28000,7 @@
         <v>0.6482408217578022</v>
       </c>
       <c r="D5">
-        <v>-0.4252119719902567</v>
+        <v>0.08855449597875065</v>
       </c>
       <c r="E5">
         <v>0.5285550426234772</v>
@@ -28023,7 +28023,7 @@
         <v>0.662742915183692</v>
       </c>
       <c r="D6">
-        <v>-0.326745255947507</v>
+        <v>0.186736289278737</v>
       </c>
       <c r="E6">
         <v>0.517544910797559</v>
@@ -28046,7 +28046,7 @@
         <v>0.6177820961121347</v>
       </c>
       <c r="D7">
-        <v>-0.304041618943107</v>
+        <v>0.2488557300369637</v>
       </c>
       <c r="E7">
         <v>0.5509637358238714</v>
@@ -28069,7 +28069,7 @@
         <v>0.5781093290055452</v>
       </c>
       <c r="D8">
-        <v>-0.6103574955733497</v>
+        <v>0.1616624955929062</v>
       </c>
       <c r="E8">
         <v>0.5788518992867708</v>
@@ -28092,7 +28092,7 @@
         <v>0.6155402628889008</v>
       </c>
       <c r="D9">
-        <v>-0.5000526969231178</v>
+        <v>0.1395249320255006</v>
       </c>
       <c r="E9">
         <v>0.552577164865196</v>
@@ -28115,7 +28115,7 @@
         <v>0.6155402628889008</v>
       </c>
       <c r="D10">
-        <v>-0.5000526969231178</v>
+        <v>0.1395249320255006</v>
       </c>
       <c r="E10">
         <v>0.552577164865196</v>
@@ -28138,7 +28138,7 @@
         <v>0.6185189547882943</v>
       </c>
       <c r="D11">
-        <v>-0.435651472591374</v>
+        <v>0.2513573821702116</v>
       </c>
       <c r="E11">
         <v>0.5504323919726751</v>
@@ -28161,7 +28161,7 @@
         <v>0.6237145839092727</v>
       </c>
       <c r="D12">
-        <v>-0.4156736409046522</v>
+        <v>0.2547348973531132</v>
       </c>
       <c r="E12">
         <v>0.5466711999321228</v>
@@ -28184,7 +28184,7 @@
         <v>0.6237145839092727</v>
       </c>
       <c r="D13">
-        <v>-0.4156736409046522</v>
+        <v>0.2547348973531132</v>
       </c>
       <c r="E13">
         <v>0.5466711999321228</v>
@@ -28207,7 +28207,7 @@
         <v>0.617540054414722</v>
       </c>
       <c r="D14">
-        <v>-0.7720900177474004</v>
+        <v>0.1797865521221534</v>
       </c>
       <c r="E14">
         <v>0.5511381587002091</v>
@@ -28230,7 +28230,7 @@
         <v>0.6260092153997081</v>
       </c>
       <c r="D15">
-        <v>-1.328225002088819</v>
+        <v>0.09952776903541416</v>
       </c>
       <c r="E15">
         <v>0.545001819280976</v>
@@ -28253,7 +28253,7 @@
         <v>0.6129475248573623</v>
       </c>
       <c r="D16">
-        <v>-1.325753886241539</v>
+        <v>0.1360803566987769</v>
       </c>
       <c r="E16">
         <v>0.5544372822532752</v>
@@ -28276,7 +28276,7 @@
         <v>0.5805208840014788</v>
       </c>
       <c r="D17">
-        <v>-1.051364170982877</v>
+        <v>0.2082042065539252</v>
       </c>
       <c r="E17">
         <v>0.5771951504901615</v>
@@ -28299,7 +28299,7 @@
         <v>0.5727423256167272</v>
       </c>
       <c r="D18">
-        <v>-1.004582951920557</v>
+        <v>0.2125582054425105</v>
       </c>
       <c r="E18">
         <v>0.5825221417711341</v>
@@ -28322,7 +28322,7 @@
         <v>0.5727423256167272</v>
       </c>
       <c r="D19">
-        <v>-1.004582951920557</v>
+        <v>0.2125582054425105</v>
       </c>
       <c r="E19">
         <v>0.5825221417711341</v>
@@ -28345,7 +28345,7 @@
         <v>0.5689646394748628</v>
       </c>
       <c r="D20">
-        <v>-1.106813655127452</v>
+        <v>0.1472398699445943</v>
       </c>
       <c r="E20">
         <v>0.5850917187588097</v>
@@ -28368,7 +28368,7 @@
         <v>0.5689646394748628</v>
       </c>
       <c r="D21">
-        <v>-1.106813655127452</v>
+        <v>0.1472398699445943</v>
       </c>
       <c r="E21">
         <v>0.5850917187588097</v>
@@ -28391,7 +28391,7 @@
         <v>0.5356983278004832</v>
       </c>
       <c r="D22">
-        <v>-1.333838619749879</v>
+        <v>0.1759732752124978</v>
       </c>
       <c r="E22">
         <v>0.6072501425141611</v>
@@ -28414,7 +28414,7 @@
         <v>0.5356983278004832</v>
       </c>
       <c r="D23">
-        <v>-1.333838619749879</v>
+        <v>0.1759732752124978</v>
       </c>
       <c r="E23">
         <v>0.6072501425141611</v>
@@ -28470,7 +28470,7 @@
         <v>0.6379129752475388</v>
       </c>
       <c r="D2">
-        <v>-0.7149410763045883</v>
+        <v>0.4046873216554597</v>
       </c>
       <c r="E2">
         <v>0.5362582451456592</v>
@@ -28493,7 +28493,7 @@
         <v>0.6363941593763868</v>
       </c>
       <c r="D3">
-        <v>-0.8010590205871355</v>
+        <v>0.3443755003046463</v>
       </c>
       <c r="E3">
         <v>0.5373817667851359</v>
@@ -28516,7 +28516,7 @@
         <v>0.6225303027976445</v>
       </c>
       <c r="D4">
-        <v>-0.3285133700630019</v>
+        <v>0.5045123138909429</v>
       </c>
       <c r="E4">
         <v>0.54753079181283</v>
@@ -28539,7 +28539,7 @@
         <v>0.6329139461011173</v>
       </c>
       <c r="D5">
-        <v>-0.4230625703283251</v>
+        <v>0.5002351240743373</v>
       </c>
       <c r="E5">
         <v>0.5399473874773025</v>
@@ -28562,7 +28562,7 @@
         <v>0.6059794771288789</v>
       </c>
       <c r="D6">
-        <v>-0.9601976987285319</v>
+        <v>0.4032154242420894</v>
       </c>
       <c r="E6">
         <v>0.5594057460414428</v>
@@ -28585,7 +28585,7 @@
         <v>0.6035887561954774</v>
       </c>
       <c r="D7">
-        <v>-1.225834460003671</v>
+        <v>0.404942526877336</v>
       </c>
       <c r="E7">
         <v>0.5611002777179679</v>
@@ -28608,7 +28608,7 @@
         <v>0.5875119299614158</v>
       </c>
       <c r="D8">
-        <v>-0.9843031437542631</v>
+        <v>0.4294813184792236</v>
       </c>
       <c r="E8">
         <v>0.5723651697883169</v>
@@ -28631,7 +28631,7 @@
         <v>0.5554270989795334</v>
       </c>
       <c r="D9">
-        <v>-1.358334937923095</v>
+        <v>0.2158612292781532</v>
       </c>
       <c r="E9">
         <v>0.594208684538755</v>
@@ -28654,7 +28654,7 @@
         <v>0.5551602781909324</v>
       </c>
       <c r="D10">
-        <v>-1.378916445845461</v>
+        <v>0.2148159914215013</v>
       </c>
       <c r="E10">
         <v>0.5943869718878272</v>
@@ -28677,7 +28677,7 @@
         <v>0.5652971198312673</v>
       </c>
       <c r="D11">
-        <v>-1.17677216404778</v>
+        <v>0.3185815004638124</v>
       </c>
       <c r="E11">
         <v>0.5875756102853229</v>
@@ -28700,7 +28700,7 @@
         <v>0.5648303169448137</v>
       </c>
       <c r="D12">
-        <v>-1.198501768818614</v>
+        <v>0.3177557644038873</v>
       </c>
       <c r="E12">
         <v>0.587891007777406</v>
@@ -28723,7 +28723,7 @@
         <v>0.5648303169448137</v>
       </c>
       <c r="D13">
-        <v>-1.198501768818614</v>
+        <v>0.3177557644038873</v>
       </c>
       <c r="E13">
         <v>0.587891007777406</v>
@@ -28746,7 +28746,7 @@
         <v>0.5517376896375588</v>
       </c>
       <c r="D14">
-        <v>-1.309437579892933</v>
+        <v>0.3213734142175454</v>
       </c>
       <c r="E14">
         <v>0.5966691916185447</v>
@@ -28769,7 +28769,7 @@
         <v>0.5380882429552785</v>
       </c>
       <c r="D15">
-        <v>-1.211431761037336</v>
+        <v>0.2836753078354194</v>
       </c>
       <c r="E15">
         <v>0.6056852669409959</v>
@@ -28792,7 +28792,7 @@
         <v>0.4922103165915686</v>
       </c>
       <c r="D16">
-        <v>-1.114415862697106</v>
+        <v>0.2908943299647421</v>
       </c>
       <c r="E16">
         <v>0.6350522193400773</v>
@@ -28815,7 +28815,7 @@
         <v>0.4923402926673717</v>
       </c>
       <c r="D17">
-        <v>-1.09960932238568</v>
+        <v>0.2931978536741421</v>
       </c>
       <c r="E17">
         <v>0.6349709387620147</v>
@@ -28838,7 +28838,7 @@
         <v>0.4921032692822115</v>
       </c>
       <c r="D18">
-        <v>-1.090018225525939</v>
+        <v>0.2923532729697164</v>
       </c>
       <c r="E18">
         <v>0.6351191535957598</v>
@@ -28861,7 +28861,7 @@
         <v>0.4921032692822115</v>
       </c>
       <c r="D19">
-        <v>-1.090018225525939</v>
+        <v>0.2923532729697164</v>
       </c>
       <c r="E19">
         <v>0.6351191535957598</v>
@@ -28884,7 +28884,7 @@
         <v>0.4622751165923462</v>
       </c>
       <c r="D20">
-        <v>-1.236604971250113</v>
+        <v>0.3669257118112668</v>
       </c>
       <c r="E20">
         <v>0.6535029743073639</v>
@@ -28907,7 +28907,7 @@
         <v>0.4622751165923462</v>
       </c>
       <c r="D21">
-        <v>-1.236604971250113</v>
+        <v>0.3669257118112668</v>
       </c>
       <c r="E21">
         <v>0.6535029743073639</v>
@@ -28930,7 +28930,7 @@
         <v>0.4615159524396291</v>
       </c>
       <c r="D22">
-        <v>-1.234153466880981</v>
+        <v>0.3670146981184992</v>
       </c>
       <c r="E22">
         <v>0.6539641218806641</v>
@@ -28953,7 +28953,7 @@
         <v>0.4615159524396291</v>
       </c>
       <c r="D23">
-        <v>-1.234153466880981</v>
+        <v>0.3670146981184992</v>
       </c>
       <c r="E23">
         <v>0.6539641218806641</v>
